--- a/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
@@ -659,7 +659,7 @@
         <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" t="n">
         <v>1.22</v>
@@ -674,10 +674,10 @@
         <v>2.1</v>
       </c>
       <c r="P2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R2" t="n">
         <v>1.8</v>
@@ -692,7 +692,7 @@
         <v>41</v>
       </c>
       <c r="V2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W2" t="n">
         <v>81</v>
@@ -704,25 +704,25 @@
         <v>51</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>8.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="n">
         <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG2" t="n">
         <v>9</v>
@@ -734,7 +734,7 @@
         <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -772,7 +772,7 @@
         <v>2.9</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>2.63</v>
@@ -796,10 +796,10 @@
         <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
         <v>2</v>
@@ -820,16 +820,16 @@
         <v>29</v>
       </c>
       <c r="X3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y3" t="n">
         <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB3" t="n">
         <v>17</v>
@@ -844,7 +844,7 @@
         <v>7</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
@@ -912,10 +912,10 @@
         <v>2.75</v>
       </c>
       <c r="N4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
         <v>1.5</v>
@@ -1013,19 +1013,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H5" t="n">
         <v>2.75</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J5" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="L5" t="n">
         <v>1.83</v>
@@ -1088,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG5" t="n">
         <v>13</v>
@@ -1278,10 +1278,10 @@
         <v>2.5</v>
       </c>
       <c r="N7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P7" t="n">
         <v>1.57</v>
@@ -2358,24 +2358,24 @@
         <v>1.28</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="I16" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="M16" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="N16" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="O16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="P16" t="n">
         <v>1.38</v>
@@ -2384,61 +2384,61 @@
         <v>2.6</v>
       </c>
       <c r="R16" t="n">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="S16" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="T16" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="U16" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="V16" t="n">
         <v>9.25</v>
       </c>
       <c r="W16" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z16" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AA16" t="n">
         <v>10.25</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC16" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AD16" t="n">
         <v>101</v>
       </c>
       <c r="AE16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG16" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AH16" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AI16" t="n">
+        <v>175</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>150</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>120</v>
       </c>
     </row>
     <row r="17">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="H17" t="n">
         <v>3.35</v>
@@ -2484,16 +2484,16 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M17" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="N17" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O17" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2502,10 +2502,10 @@
         <v>2.42</v>
       </c>
       <c r="R17" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S17" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T17" t="n">
         <v>11</v>
@@ -2526,37 +2526,37 @@
         <v>50</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA17" t="n">
         <v>6.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC17" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE17" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AF17" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AG17" t="n">
         <v>8.25</v>
       </c>
       <c r="AH17" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -2713,13 +2713,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H19" t="n">
         <v>3.25</v>
       </c>
       <c r="I19" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J19" t="n">
         <v>1.06</v>
@@ -2734,10 +2734,10 @@
         <v>3.4</v>
       </c>
       <c r="N19" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P19" t="n">
         <v>1.4</v>
@@ -2779,16 +2779,16 @@
         <v>13</v>
       </c>
       <c r="AC19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD19" t="n">
         <v>201</v>
       </c>
       <c r="AE19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG19" t="n">
         <v>11</v>
@@ -2800,7 +2800,7 @@
         <v>23</v>
       </c>
       <c r="AJ19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -3328,19 +3328,19 @@
         <v>4.1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="K24" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L24" t="n">
         <v>1.53</v>
       </c>
       <c r="M24" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="N24" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="O24" t="n">
         <v>1.45</v>
@@ -3349,22 +3349,22 @@
         <v>1.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R24" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="S24" t="n">
         <v>1.55</v>
       </c>
       <c r="T24" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="U24" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="V24" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W24" t="n">
         <v>15</v>
@@ -3373,10 +3373,10 @@
         <v>19.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z24" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AA24" t="n">
         <v>6.5</v>
@@ -3447,64 +3447,64 @@
         <v>3.9</v>
       </c>
       <c r="I25" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="J25" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K25" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M25" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="N25" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P25" t="n">
         <v>1.47</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R25" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="S25" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="T25" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="U25" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="V25" t="n">
         <v>8.75</v>
       </c>
       <c r="W25" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X25" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y25" t="n">
         <v>40</v>
       </c>
       <c r="Z25" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AA25" t="n">
         <v>8.25</v>
       </c>
       <c r="AB25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC25" t="n">
         <v>175</v>
@@ -3522,7 +3522,7 @@
         <v>26</v>
       </c>
       <c r="AH25" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AI25" t="n">
         <v>120</v>
@@ -3685,19 +3685,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H27" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I27" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J27" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L27" t="n">
         <v>1.3</v>
@@ -3706,10 +3706,10 @@
         <v>3.4</v>
       </c>
       <c r="N27" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P27" t="n">
         <v>1.4</v>
@@ -3724,7 +3724,7 @@
         <v>1.8</v>
       </c>
       <c r="T27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U27" t="n">
         <v>26</v>
@@ -3769,7 +3769,7 @@
         <v>12</v>
       </c>
       <c r="AI27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ27" t="n">
         <v>29</v>
@@ -3938,22 +3938,22 @@
         <v>4.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L29" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M29" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N29" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O29" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P29" t="n">
         <v>1.44</v>
@@ -4063,7 +4063,7 @@
         <v>1.04</v>
       </c>
       <c r="K30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L30" t="n">
         <v>1.22</v>
@@ -4173,19 +4173,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H31" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I31" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J31" t="n">
         <v>1.07</v>
       </c>
       <c r="K31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L31" t="n">
         <v>1.33</v>
@@ -4194,10 +4194,10 @@
         <v>3.25</v>
       </c>
       <c r="N31" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O31" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P31" t="n">
         <v>1.44</v>
@@ -4227,16 +4227,16 @@
         <v>15</v>
       </c>
       <c r="Y31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA31" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC31" t="n">
         <v>67</v>
@@ -4257,7 +4257,7 @@
         <v>67</v>
       </c>
       <c r="AI31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ31" t="n">
         <v>51</v>
@@ -4295,49 +4295,49 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H32" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
         <v>3.9</v>
       </c>
       <c r="J32" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L32" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M32" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N32" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="O32" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="P32" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R32" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S32" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U32" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V32" t="n">
         <v>9</v>
@@ -4346,13 +4346,13 @@
         <v>17</v>
       </c>
       <c r="X32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA32" t="n">
         <v>6.5</v>
@@ -4364,16 +4364,16 @@
         <v>51</v>
       </c>
       <c r="AD32" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF32" t="n">
         <v>21</v>
       </c>
       <c r="AG32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH32" t="n">
         <v>41</v>
@@ -4432,31 +4432,31 @@
         <v>7.1</v>
       </c>
       <c r="L33" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M33" t="n">
         <v>3.25</v>
       </c>
       <c r="N33" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="O33" t="n">
         <v>1.83</v>
       </c>
       <c r="P33" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="R33" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S33" t="n">
         <v>2.02</v>
       </c>
       <c r="T33" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="U33" t="n">
         <v>9.75</v>
@@ -4480,19 +4480,19 @@
         <v>6.3</v>
       </c>
       <c r="AB33" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC33" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD33" t="n">
         <v>450</v>
       </c>
       <c r="AE33" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF33" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG33" t="n">
         <v>12.5</v>
@@ -4539,13 +4539,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I34" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="J34" t="n">
         <v>1.07</v>
@@ -4572,55 +4572,55 @@
         <v>2.72</v>
       </c>
       <c r="R34" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="S34" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T34" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="U34" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="V34" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W34" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="X34" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y34" t="n">
         <v>100</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>110</v>
       </c>
       <c r="Z34" t="n">
         <v>6.8</v>
       </c>
       <c r="AA34" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB34" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC34" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD34" t="n">
         <v>900</v>
       </c>
       <c r="AE34" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AF34" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AG34" t="n">
         <v>8.75</v>
       </c>
       <c r="AH34" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AI34" t="n">
         <v>13.5</v>
@@ -4786,28 +4786,28 @@
         <v>1.5</v>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I36" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J36" t="n">
         <v>1.05</v>
       </c>
       <c r="K36" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="L36" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M36" t="n">
         <v>3.4</v>
       </c>
       <c r="N36" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O36" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P36" t="n">
         <v>1.38</v>
@@ -4825,7 +4825,7 @@
         <v>6.6</v>
       </c>
       <c r="U36" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="V36" t="n">
         <v>8.25</v>
@@ -4840,13 +4840,13 @@
         <v>28</v>
       </c>
       <c r="Z36" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AA36" t="n">
         <v>7.9</v>
       </c>
       <c r="AB36" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC36" t="n">
         <v>90</v>
@@ -5027,19 +5027,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
         <v>3.9</v>
       </c>
       <c r="I38" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J38" t="n">
         <v>1.04</v>
       </c>
       <c r="K38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L38" t="n">
         <v>1.25</v>
@@ -5069,7 +5069,7 @@
         <v>7.5</v>
       </c>
       <c r="U38" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V38" t="n">
         <v>8.5</v>
@@ -5090,7 +5090,7 @@
         <v>7.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC38" t="n">
         <v>51</v>
@@ -5111,7 +5111,7 @@
         <v>51</v>
       </c>
       <c r="AI38" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ38" t="n">
         <v>41</v>
@@ -5170,10 +5170,10 @@
         <v>3.75</v>
       </c>
       <c r="N39" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O39" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P39" t="n">
         <v>1.36</v>
@@ -5393,90 +5393,94 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I41" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>3.6</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4.5</v>
+      </c>
       <c r="L41" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="M41" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="N41" t="n">
-        <v>2.32</v>
+        <v>2.65</v>
       </c>
       <c r="O41" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="P41" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="R41" t="n">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="S41" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="T41" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="U41" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="V41" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W41" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X41" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB41" t="n">
         <v>22</v>
       </c>
-      <c r="Y41" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>18</v>
-      </c>
       <c r="AC41" t="n">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="AD41" t="n">
         <v>101</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AF41" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI41" t="n">
         <v>45</v>
       </c>
-      <c r="AI41" t="n">
-        <v>35</v>
-      </c>
       <c r="AJ41" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
@@ -5511,90 +5515,94 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="H42" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I42" t="n">
         <v>3.3</v>
       </c>
-      <c r="I42" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>6.2</v>
+      </c>
       <c r="L42" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>2.32</v>
       </c>
       <c r="N42" t="n">
-        <v>2.08</v>
+        <v>2.37</v>
       </c>
       <c r="O42" t="n">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="P42" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.6</v>
+        <v>2.22</v>
       </c>
       <c r="R42" t="n">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="S42" t="n">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="T42" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="U42" t="n">
-        <v>8.800000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="V42" t="n">
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="W42" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="X42" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Y42" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="Z42" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="AB42" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AC42" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AD42" t="n">
         <v>101</v>
       </c>
       <c r="AE42" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AF42" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="AH42" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AI42" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="AJ42" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43">
@@ -5629,19 +5637,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H43" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J43" t="n">
         <v>1.06</v>
       </c>
       <c r="K43" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L43" t="n">
         <v>1.3</v>
@@ -5704,7 +5712,7 @@
         <v>7.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG43" t="n">
         <v>9</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J5" t="n">
         <v>1.2</v>
@@ -1028,10 +1028,10 @@
         <v>4.33</v>
       </c>
       <c r="L5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="M5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="N5" t="n">
         <v>4</v>
@@ -1040,16 +1040,16 @@
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1.88</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.93</v>
-      </c>
       <c r="R5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
         <v>5.5</v>
@@ -1073,7 +1073,7 @@
         <v>4.33</v>
       </c>
       <c r="AA5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB5" t="n">
         <v>29</v>
@@ -1085,7 +1085,7 @@
         <v>101</v>
       </c>
       <c r="AE5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AF5" t="n">
         <v>10</v>
@@ -1257,55 +1257,55 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="M7" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N7" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.57</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.62</v>
       </c>
       <c r="T7" t="n">
         <v>5.5</v>
       </c>
       <c r="U7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X7" t="n">
         <v>21</v>
@@ -1314,7 +1314,7 @@
         <v>41</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA7" t="n">
         <v>6</v>
@@ -1329,7 +1329,7 @@
         <v>501</v>
       </c>
       <c r="AE7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
         <v>19</v>
@@ -1388,10 +1388,10 @@
         <v>2.6</v>
       </c>
       <c r="J8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.57</v>
@@ -1406,10 +1406,10 @@
         <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
         <v>2.25</v>
@@ -1442,7 +1442,7 @@
         <v>5.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
         <v>81</v>
@@ -1463,7 +1463,7 @@
         <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ8" t="n">
         <v>41</v>
@@ -1510,10 +1510,10 @@
         <v>5.75</v>
       </c>
       <c r="J9" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
         <v>1.53</v>
@@ -1543,7 +1543,7 @@
         <v>4.75</v>
       </c>
       <c r="U9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V9" t="n">
         <v>10</v>
@@ -1567,7 +1567,7 @@
         <v>26</v>
       </c>
       <c r="AC9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD9" t="n">
         <v>101</v>
@@ -1576,7 +1576,7 @@
         <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG9" t="n">
         <v>21</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
         <v>1.14</v>
@@ -1671,7 +1671,7 @@
         <v>10</v>
       </c>
       <c r="W10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X10" t="n">
         <v>23</v>
@@ -2022,13 +2022,13 @@
         <v>2.63</v>
       </c>
       <c r="R13" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U13" t="n">
         <v>21</v>
@@ -2040,13 +2040,13 @@
         <v>41</v>
       </c>
       <c r="X13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y13" t="n">
         <v>41</v>
       </c>
       <c r="Z13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA13" t="n">
         <v>6.5</v>
@@ -2138,10 +2138,10 @@
         <v>1.65</v>
       </c>
       <c r="P14" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R14" t="n">
         <v>1.83</v>
@@ -2150,13 +2150,13 @@
         <v>1.83</v>
       </c>
       <c r="T14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U14" t="n">
         <v>11</v>
       </c>
       <c r="V14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W14" t="n">
         <v>21</v>
@@ -2195,7 +2195,7 @@
         <v>34</v>
       </c>
       <c r="AI14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ14" t="n">
         <v>41</v>
@@ -2355,75 +2355,75 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="H16" t="n">
-        <v>4.85</v>
+        <v>4.65</v>
       </c>
       <c r="I16" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="N16" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="O16" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="P16" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="R16" t="n">
-        <v>2.35</v>
+        <v>2.47</v>
       </c>
       <c r="S16" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="T16" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="U16" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W16" t="n">
         <v>7</v>
       </c>
       <c r="X16" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Z16" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AA16" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AB16" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC16" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AD16" t="n">
         <v>101</v>
       </c>
       <c r="AE16" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF16" t="n">
         <v>70</v>
@@ -2438,7 +2438,7 @@
         <v>175</v>
       </c>
       <c r="AJ16" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="H17" t="n">
         <v>3.35</v>
@@ -2484,16 +2484,16 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
         <v>2.82</v>
       </c>
       <c r="N17" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O17" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2502,13 +2502,13 @@
         <v>2.42</v>
       </c>
       <c r="R17" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S17" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T17" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="U17" t="n">
         <v>24</v>
@@ -2526,7 +2526,7 @@
         <v>50</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA17" t="n">
         <v>6.6</v>
@@ -2541,22 +2541,22 @@
         <v>700</v>
       </c>
       <c r="AE17" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AF17" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG17" t="n">
         <v>8.25</v>
       </c>
       <c r="AH17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI17" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -2600,10 +2600,10 @@
         <v>3.6</v>
       </c>
       <c r="J18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L18" t="n">
         <v>1.25</v>
@@ -2624,13 +2624,13 @@
         <v>2.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U18" t="n">
         <v>10</v>
@@ -2639,34 +2639,34 @@
         <v>9</v>
       </c>
       <c r="W18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
         <v>26</v>
       </c>
       <c r="Z18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA18" t="n">
         <v>6</v>
       </c>
       <c r="AB18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC18" t="n">
         <v>41</v>
       </c>
       <c r="AD18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE18" t="n">
         <v>12</v>
       </c>
       <c r="AF18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
@@ -2725,19 +2725,19 @@
         <v>1.06</v>
       </c>
       <c r="K19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L19" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N19" t="n">
         <v>2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P19" t="n">
         <v>1.4</v>
@@ -2835,10 +2835,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="H20" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I20" t="n">
         <v>8</v>
@@ -2852,22 +2852,22 @@
         <v>5.9</v>
       </c>
       <c r="N20" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="O20" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="P20" t="n">
         <v>1.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="R20" t="n">
         <v>1.62</v>
       </c>
       <c r="S20" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="T20" t="n">
         <v>12</v>
@@ -2894,19 +2894,19 @@
         <v>12.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC20" t="n">
         <v>55</v>
       </c>
       <c r="AD20" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE20" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AF20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG20" t="n">
         <v>25</v>
@@ -2918,7 +2918,7 @@
         <v>75</v>
       </c>
       <c r="AJ20" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
@@ -3209,7 +3209,7 @@
         <v>1.07</v>
       </c>
       <c r="K23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.36</v>
@@ -3224,10 +3224,10 @@
         <v>1.67</v>
       </c>
       <c r="P23" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R23" t="n">
         <v>1.83</v>
@@ -3236,7 +3236,7 @@
         <v>1.83</v>
       </c>
       <c r="T23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U23" t="n">
         <v>12</v>
@@ -3245,7 +3245,7 @@
         <v>10</v>
       </c>
       <c r="W23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X23" t="n">
         <v>21</v>
@@ -3254,7 +3254,7 @@
         <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA23" t="n">
         <v>6</v>
@@ -3328,10 +3328,10 @@
         <v>4.1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="K24" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.53</v>
@@ -3340,7 +3340,7 @@
         <v>2.32</v>
       </c>
       <c r="N24" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="O24" t="n">
         <v>1.45</v>
@@ -3349,7 +3349,7 @@
         <v>1.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R24" t="n">
         <v>2.32</v>
@@ -3376,7 +3376,7 @@
         <v>50</v>
       </c>
       <c r="Z24" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AA24" t="n">
         <v>6.5</v>
@@ -3813,7 +3813,7 @@
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J28" t="n">
         <v>1.1</v>
@@ -3935,7 +3935,7 @@
         <v>3.3</v>
       </c>
       <c r="I29" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J29" t="n">
         <v>1.06</v>
@@ -3944,10 +3944,10 @@
         <v>10</v>
       </c>
       <c r="L29" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M29" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N29" t="n">
         <v>2.05</v>
@@ -3980,13 +3980,13 @@
         <v>15</v>
       </c>
       <c r="X29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y29" t="n">
         <v>29</v>
       </c>
       <c r="Z29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA29" t="n">
         <v>6.5</v>
@@ -3998,7 +3998,7 @@
         <v>51</v>
       </c>
       <c r="AD29" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -4072,10 +4072,10 @@
         <v>4</v>
       </c>
       <c r="N30" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O30" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P30" t="n">
         <v>1.33</v>
@@ -4173,46 +4173,46 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H31" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I31" t="n">
         <v>5.75</v>
       </c>
       <c r="J31" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L31" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M31" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N31" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O31" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P31" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R31" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S31" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T31" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U31" t="n">
         <v>7</v>
@@ -4224,25 +4224,25 @@
         <v>11</v>
       </c>
       <c r="X31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y31" t="n">
         <v>29</v>
       </c>
       <c r="Z31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA31" t="n">
         <v>7.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC31" t="n">
         <v>67</v>
       </c>
       <c r="AD31" t="n">
-        <v>1250</v>
+        <v>900</v>
       </c>
       <c r="AE31" t="n">
         <v>13</v>
@@ -4257,7 +4257,7 @@
         <v>67</v>
       </c>
       <c r="AI31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ31" t="n">
         <v>51</v>
@@ -4295,13 +4295,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H32" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I32" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J32" t="n">
         <v>1.06</v>
@@ -4322,10 +4322,10 @@
         <v>1.8</v>
       </c>
       <c r="P32" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R32" t="n">
         <v>1.83</v>
@@ -4337,22 +4337,22 @@
         <v>7</v>
       </c>
       <c r="U32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y32" t="n">
         <v>29</v>
       </c>
       <c r="Z32" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA32" t="n">
         <v>6.5</v>
@@ -4367,7 +4367,7 @@
         <v>251</v>
       </c>
       <c r="AE32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF32" t="n">
         <v>21</v>
@@ -4432,31 +4432,31 @@
         <v>7.1</v>
       </c>
       <c r="L33" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M33" t="n">
         <v>3.25</v>
       </c>
       <c r="N33" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O33" t="n">
         <v>1.83</v>
       </c>
       <c r="P33" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="R33" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S33" t="n">
         <v>2.02</v>
       </c>
       <c r="T33" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="U33" t="n">
         <v>9.75</v>
@@ -4468,10 +4468,10 @@
         <v>18</v>
       </c>
       <c r="X33" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y33" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z33" t="n">
         <v>7.1</v>
@@ -4480,19 +4480,19 @@
         <v>6.3</v>
       </c>
       <c r="AB33" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD33" t="n">
         <v>450</v>
       </c>
       <c r="AE33" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AF33" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG33" t="n">
         <v>12.5</v>
@@ -4504,7 +4504,7 @@
         <v>35</v>
       </c>
       <c r="AJ33" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
@@ -4569,10 +4569,10 @@
         <v>1.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="R34" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="S34" t="n">
         <v>1.57</v>
@@ -4581,10 +4581,10 @@
         <v>14</v>
       </c>
       <c r="U34" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V34" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W34" t="n">
         <v>150</v>
@@ -4602,7 +4602,7 @@
         <v>8</v>
       </c>
       <c r="AB34" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC34" t="n">
         <v>150</v>
@@ -4614,7 +4614,7 @@
         <v>5.4</v>
       </c>
       <c r="AF34" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AG34" t="n">
         <v>8.75</v>
@@ -4626,7 +4626,7 @@
         <v>13.5</v>
       </c>
       <c r="AJ34" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
@@ -4664,19 +4664,19 @@
         <v>1.91</v>
       </c>
       <c r="H35" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J35" t="n">
         <v>1.05</v>
       </c>
       <c r="K35" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="L35" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M35" t="n">
         <v>3.55</v>
@@ -4691,7 +4691,7 @@
         <v>1.39</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="R35" t="n">
         <v>1.62</v>
@@ -4703,10 +4703,10 @@
         <v>8.5</v>
       </c>
       <c r="U35" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="V35" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W35" t="n">
         <v>18</v>
@@ -4715,13 +4715,13 @@
         <v>14</v>
       </c>
       <c r="Y35" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z35" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AA35" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB35" t="n">
         <v>12.5</v>
@@ -4736,19 +4736,19 @@
         <v>11.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG35" t="n">
         <v>12.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI35" t="n">
         <v>35</v>
       </c>
       <c r="AJ35" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
@@ -4786,91 +4786,91 @@
         <v>1.5</v>
       </c>
       <c r="H36" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="I36" t="n">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K36" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="L36" t="n">
         <v>1.28</v>
       </c>
       <c r="M36" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="N36" t="n">
         <v>1.82</v>
       </c>
       <c r="O36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R36" t="n">
         <v>1.88</v>
       </c>
-      <c r="P36" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.93</v>
-      </c>
       <c r="S36" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="T36" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="U36" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="V36" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="W36" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="X36" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y36" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z36" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AA36" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AC36" t="n">
         <v>90</v>
       </c>
       <c r="AD36" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE36" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF36" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AG36" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH36" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AI36" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AJ36" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37">
@@ -4911,25 +4911,25 @@
         <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J37" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K37" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L37" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M37" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N37" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O37" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P37" t="n">
         <v>1.44</v>
@@ -5039,7 +5039,7 @@
         <v>1.04</v>
       </c>
       <c r="K38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L38" t="n">
         <v>1.25</v>
@@ -5149,13 +5149,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H39" t="n">
         <v>3.8</v>
       </c>
       <c r="I39" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
         <v>1.04</v>
@@ -5224,7 +5224,7 @@
         <v>13</v>
       </c>
       <c r="AF39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG39" t="n">
         <v>15</v>
@@ -5393,10 +5393,10 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="H41" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="I41" t="n">
         <v>3.6</v>
@@ -5405,25 +5405,25 @@
         <v>1.13</v>
       </c>
       <c r="K41" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L41" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="M41" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="N41" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="O41" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P41" t="n">
         <v>1.6</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R41" t="n">
         <v>2.25</v>
@@ -5435,13 +5435,13 @@
         <v>5.1</v>
       </c>
       <c r="U41" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="V41" t="n">
         <v>10</v>
       </c>
       <c r="W41" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X41" t="n">
         <v>24</v>
@@ -5450,10 +5450,10 @@
         <v>55</v>
       </c>
       <c r="Z41" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="AA41" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AB41" t="n">
         <v>22</v>
@@ -5465,10 +5465,10 @@
         <v>101</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AF41" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG41" t="n">
         <v>14</v>
@@ -5477,7 +5477,7 @@
         <v>55</v>
       </c>
       <c r="AI41" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ41" t="n">
         <v>75</v>
@@ -5646,10 +5646,10 @@
         <v>1.95</v>
       </c>
       <c r="J43" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K43" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L43" t="n">
         <v>1.3</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
@@ -659,7 +659,7 @@
         <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" t="n">
         <v>1.22</v>
@@ -704,7 +704,7 @@
         <v>51</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
         <v>8.5</v>
@@ -719,7 +719,7 @@
         <v>301</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF2" t="n">
         <v>8</v>
@@ -728,13 +728,13 @@
         <v>9</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -778,10 +778,10 @@
         <v>2.63</v>
       </c>
       <c r="J3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
         <v>1.5</v>
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>2.75</v>
       </c>
       <c r="J4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.44</v>
@@ -918,10 +918,10 @@
         <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R4" t="n">
         <v>1.95</v>
@@ -939,13 +939,13 @@
         <v>11</v>
       </c>
       <c r="W4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X4" t="n">
         <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="n">
         <v>7.5</v>
@@ -960,13 +960,13 @@
         <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE4" t="n">
         <v>7.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
@@ -975,7 +975,7 @@
         <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1013,10 +1013,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H5" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I5" t="n">
         <v>2.63</v>
@@ -1028,10 +1028,10 @@
         <v>4.33</v>
       </c>
       <c r="L5" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="M5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="N5" t="n">
         <v>4</v>
@@ -1040,16 +1040,16 @@
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
         <v>5.5</v>
@@ -1085,7 +1085,7 @@
         <v>101</v>
       </c>
       <c r="AE5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AF5" t="n">
         <v>10</v>
@@ -1135,19 +1135,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
         <v>1.53</v>
@@ -1177,16 +1177,16 @@
         <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V6" t="n">
         <v>11</v>
       </c>
       <c r="W6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
         <v>41</v>
@@ -1219,7 +1219,7 @@
         <v>34</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
         <v>41</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>1.13</v>
@@ -1278,10 +1278,10 @@
         <v>2.25</v>
       </c>
       <c r="N7" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
         <v>1.62</v>
@@ -1332,7 +1332,7 @@
         <v>8</v>
       </c>
       <c r="AF7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG7" t="n">
         <v>15</v>
@@ -1888,10 +1888,10 @@
         <v>3.5</v>
       </c>
       <c r="N12" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O12" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P12" t="n">
         <v>1.4</v>
@@ -2001,7 +2001,7 @@
         <v>1.07</v>
       </c>
       <c r="K13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.36</v>
@@ -2010,10 +2010,10 @@
         <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P13" t="n">
         <v>1.44</v>
@@ -2028,7 +2028,7 @@
         <v>1.73</v>
       </c>
       <c r="T13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U13" t="n">
         <v>21</v>
@@ -2040,7 +2040,7 @@
         <v>41</v>
       </c>
       <c r="X13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y13" t="n">
         <v>41</v>
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J14" t="n">
         <v>1.08</v>
@@ -2156,7 +2156,7 @@
         <v>11</v>
       </c>
       <c r="V14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W14" t="n">
         <v>21</v>
@@ -2236,28 +2236,28 @@
         <v>5.25</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
         <v>1.62</v>
       </c>
       <c r="J15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K15" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N15" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="O15" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P15" t="n">
         <v>1.4</v>
@@ -2317,7 +2317,7 @@
         <v>12</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
         <v>29</v>
@@ -2381,7 +2381,7 @@
         <v>1.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="R16" t="n">
         <v>2.47</v>
@@ -2390,7 +2390,7 @@
         <v>1.42</v>
       </c>
       <c r="T16" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="U16" t="n">
         <v>5</v>
@@ -2399,7 +2399,7 @@
         <v>9.5</v>
       </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X16" t="n">
         <v>13.5</v>
@@ -2484,16 +2484,16 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M17" t="n">
         <v>2.82</v>
       </c>
       <c r="N17" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O17" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2502,13 +2502,13 @@
         <v>2.42</v>
       </c>
       <c r="R17" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S17" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T17" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="U17" t="n">
         <v>24</v>
@@ -2523,13 +2523,13 @@
         <v>45</v>
       </c>
       <c r="Y17" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z17" t="n">
         <v>8.75</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB17" t="n">
         <v>16</v>
@@ -2541,22 +2541,22 @@
         <v>700</v>
       </c>
       <c r="AE17" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AG17" t="n">
         <v>8.25</v>
       </c>
       <c r="AH17" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
@@ -2835,13 +2835,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H20" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2849,13 +2849,13 @@
         <v>1.1</v>
       </c>
       <c r="M20" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="N20" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="O20" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="P20" t="n">
         <v>1.2</v>
@@ -2867,7 +2867,7 @@
         <v>1.62</v>
       </c>
       <c r="S20" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="T20" t="n">
         <v>12</v>
@@ -2888,7 +2888,7 @@
         <v>19</v>
       </c>
       <c r="Z20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA20" t="n">
         <v>12.5</v>
@@ -2903,22 +2903,22 @@
         <v>300</v>
       </c>
       <c r="AE20" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AF20" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AG20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH20" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AI20" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -3075,37 +3075,37 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J22" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K22" t="n">
         <v>15</v>
       </c>
       <c r="L22" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M22" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N22" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O22" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P22" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R22" t="n">
         <v>1.53</v>
@@ -3114,19 +3114,19 @@
         <v>2.38</v>
       </c>
       <c r="T22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="n">
         <v>23</v>
@@ -3135,13 +3135,13 @@
         <v>15</v>
       </c>
       <c r="AA22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB22" t="n">
         <v>12</v>
       </c>
       <c r="AC22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD22" t="n">
         <v>126</v>
@@ -3150,19 +3150,19 @@
         <v>11</v>
       </c>
       <c r="AF22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
         <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -3206,13 +3206,13 @@
         <v>2.75</v>
       </c>
       <c r="J23" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
@@ -3319,28 +3319,28 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="H24" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="K24" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="M24" t="n">
         <v>2.32</v>
       </c>
       <c r="N24" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="O24" t="n">
         <v>1.45</v>
@@ -3349,40 +3349,40 @@
         <v>1.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R24" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="S24" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="T24" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="U24" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="V24" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W24" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="X24" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y24" t="n">
         <v>50</v>
       </c>
       <c r="Z24" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AA24" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC24" t="n">
         <v>175</v>
@@ -3391,22 +3391,22 @@
         <v>101</v>
       </c>
       <c r="AE24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF24" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AG24" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AH24" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ24" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H27" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="J27" t="n">
         <v>1.06</v>
@@ -3706,7 +3706,7 @@
         <v>3.4</v>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O27" t="n">
         <v>1.85</v>
@@ -3718,16 +3718,16 @@
         <v>2.75</v>
       </c>
       <c r="R27" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S27" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T27" t="n">
         <v>13</v>
       </c>
       <c r="U27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V27" t="n">
         <v>17</v>
@@ -3748,19 +3748,19 @@
         <v>7.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD27" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE27" t="n">
         <v>6.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG27" t="n">
         <v>8.5</v>
@@ -4173,13 +4173,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H31" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J31" t="n">
         <v>1.05</v>
@@ -4188,13 +4188,13 @@
         <v>11</v>
       </c>
       <c r="L31" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O31" t="n">
         <v>1.85</v>
@@ -4206,10 +4206,10 @@
         <v>2.75</v>
       </c>
       <c r="R31" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S31" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T31" t="n">
         <v>6.5</v>
@@ -4239,10 +4239,10 @@
         <v>19</v>
       </c>
       <c r="AC31" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AE31" t="n">
         <v>13</v>
@@ -4251,16 +4251,16 @@
         <v>29</v>
       </c>
       <c r="AG31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH31" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI31" t="n">
         <v>41</v>
       </c>
       <c r="AJ31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32">
@@ -4295,13 +4295,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H32" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J32" t="n">
         <v>1.06</v>
@@ -4310,22 +4310,22 @@
         <v>10</v>
       </c>
       <c r="L32" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M32" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N32" t="n">
         <v>2.05</v>
       </c>
       <c r="O32" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P32" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R32" t="n">
         <v>1.83</v>
@@ -4340,19 +4340,19 @@
         <v>8.5</v>
       </c>
       <c r="V32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W32" t="n">
         <v>15</v>
       </c>
       <c r="X32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y32" t="n">
         <v>29</v>
       </c>
       <c r="Z32" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA32" t="n">
         <v>6.5</v>
@@ -4364,10 +4364,10 @@
         <v>51</v>
       </c>
       <c r="AD32" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF32" t="n">
         <v>21</v>
@@ -4426,7 +4426,7 @@
         <v>3.7</v>
       </c>
       <c r="J33" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K33" t="n">
         <v>7.1</v>
@@ -4435,13 +4435,13 @@
         <v>1.3</v>
       </c>
       <c r="M33" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N33" t="n">
         <v>1.88</v>
       </c>
       <c r="O33" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="P33" t="n">
         <v>1.44</v>
@@ -4459,7 +4459,7 @@
         <v>7.6</v>
       </c>
       <c r="U33" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V33" t="n">
         <v>8.25</v>
@@ -4489,7 +4489,7 @@
         <v>450</v>
       </c>
       <c r="AE33" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF33" t="n">
         <v>21</v>
@@ -4539,10 +4539,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="H34" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I34" t="n">
         <v>1.45</v>
@@ -4551,31 +4551,31 @@
         <v>1.07</v>
       </c>
       <c r="K34" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L34" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M34" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="N34" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O34" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P34" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="R34" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S34" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T34" t="n">
         <v>14</v>
@@ -4590,19 +4590,19 @@
         <v>150</v>
       </c>
       <c r="X34" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y34" t="n">
         <v>90</v>
       </c>
-      <c r="Y34" t="n">
-        <v>100</v>
-      </c>
       <c r="Z34" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AA34" t="n">
         <v>8</v>
       </c>
       <c r="AB34" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC34" t="n">
         <v>150</v>
@@ -4611,13 +4611,13 @@
         <v>900</v>
       </c>
       <c r="AE34" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AF34" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AG34" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH34" t="n">
         <v>9.25</v>
@@ -4673,7 +4673,7 @@
         <v>1.05</v>
       </c>
       <c r="K35" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="L35" t="n">
         <v>1.25</v>
@@ -4694,13 +4694,13 @@
         <v>2.77</v>
       </c>
       <c r="R35" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S35" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="T35" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U35" t="n">
         <v>10.25</v>
@@ -4718,7 +4718,7 @@
         <v>22</v>
       </c>
       <c r="Z35" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AA35" t="n">
         <v>6.6</v>
@@ -4733,19 +4733,19 @@
         <v>350</v>
       </c>
       <c r="AE35" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF35" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG35" t="n">
         <v>12.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI35" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ35" t="n">
         <v>35</v>
@@ -4783,52 +4783,52 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="H36" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K36" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M36" t="n">
         <v>3.7</v>
       </c>
-      <c r="I36" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="N36" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T36" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="U36" t="n">
         <v>7.4</v>
       </c>
-      <c r="L36" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M36" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="T36" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="U36" t="n">
-        <v>7.1</v>
-      </c>
       <c r="V36" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="W36" t="n">
         <v>10.75</v>
@@ -4837,40 +4837,40 @@
         <v>12</v>
       </c>
       <c r="Y36" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z36" t="n">
-        <v>7.4</v>
+        <v>8.25</v>
       </c>
       <c r="AA36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB36" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC36" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AD36" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE36" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AG36" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AH36" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AI36" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AJ36" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37">
@@ -4926,10 +4926,10 @@
         <v>3</v>
       </c>
       <c r="N37" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O37" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P37" t="n">
         <v>1.44</v>
@@ -4944,7 +4944,7 @@
         <v>1.36</v>
       </c>
       <c r="T37" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="U37" t="n">
         <v>5</v>
@@ -4977,13 +4977,13 @@
         <v>101</v>
       </c>
       <c r="AE37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF37" t="n">
         <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH37" t="n">
         <v>126</v>
@@ -5027,13 +5027,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H38" t="n">
         <v>3.9</v>
       </c>
       <c r="I38" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J38" t="n">
         <v>1.04</v>
@@ -5048,10 +5048,10 @@
         <v>3.75</v>
       </c>
       <c r="N38" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O38" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P38" t="n">
         <v>1.36</v>
@@ -5069,7 +5069,7 @@
         <v>7.5</v>
       </c>
       <c r="U38" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V38" t="n">
         <v>8.5</v>
@@ -5081,7 +5081,7 @@
         <v>13</v>
       </c>
       <c r="Y38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z38" t="n">
         <v>12</v>
@@ -5090,7 +5090,7 @@
         <v>7.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC38" t="n">
         <v>51</v>
@@ -5111,7 +5111,7 @@
         <v>51</v>
       </c>
       <c r="AI38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ38" t="n">
         <v>41</v>
@@ -5170,7 +5170,7 @@
         <v>3.75</v>
       </c>
       <c r="N39" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O39" t="n">
         <v>2</v>
@@ -5515,13 +5515,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="H42" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="J42" t="n">
         <v>1.1</v>
@@ -5548,61 +5548,61 @@
         <v>2.22</v>
       </c>
       <c r="R42" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S42" t="n">
         <v>1.62</v>
       </c>
       <c r="T42" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="U42" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="V42" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W42" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y42" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z42" t="n">
         <v>6.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AB42" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC42" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD42" t="n">
         <v>101</v>
       </c>
       <c r="AE42" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AF42" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AG42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH42" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AI42" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ42" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43">
@@ -5652,16 +5652,16 @@
         <v>11</v>
       </c>
       <c r="L43" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M43" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N43" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="O43" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P43" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
@@ -728,7 +728,7 @@
         <v>9</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
@@ -775,7 +775,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J3" t="n">
         <v>1.1</v>
@@ -802,10 +802,10 @@
         <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T3" t="n">
         <v>7.5</v>
@@ -814,7 +814,7 @@
         <v>13</v>
       </c>
       <c r="V3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W3" t="n">
         <v>29</v>
@@ -826,7 +826,7 @@
         <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
         <v>6</v>
@@ -838,10 +838,10 @@
         <v>67</v>
       </c>
       <c r="AD3" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF3" t="n">
         <v>11</v>
@@ -900,10 +900,10 @@
         <v>2.75</v>
       </c>
       <c r="J4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
         <v>1.44</v>
@@ -1022,10 +1022,10 @@
         <v>2.63</v>
       </c>
       <c r="J5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="K5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.83</v>
@@ -1141,13 +1141,13 @@
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.53</v>
@@ -1177,13 +1177,13 @@
         <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V6" t="n">
         <v>11</v>
       </c>
       <c r="W6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X6" t="n">
         <v>26</v>
@@ -1219,7 +1219,7 @@
         <v>34</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
         <v>41</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
         <v>1.13</v>
@@ -1278,10 +1278,10 @@
         <v>2.25</v>
       </c>
       <c r="N7" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
         <v>1.62</v>
@@ -1332,7 +1332,7 @@
         <v>8</v>
       </c>
       <c r="AF7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG7" t="n">
         <v>15</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H12" t="n">
         <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
         <v>1.05</v>
@@ -1888,7 +1888,7 @@
         <v>3.5</v>
       </c>
       <c r="N12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
         <v>1.85</v>
@@ -1909,13 +1909,13 @@
         <v>7</v>
       </c>
       <c r="U12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V12" t="n">
         <v>8.5</v>
       </c>
       <c r="W12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X12" t="n">
         <v>15</v>
@@ -2001,7 +2001,7 @@
         <v>1.07</v>
       </c>
       <c r="K13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
         <v>1.36</v>
@@ -2010,10 +2010,10 @@
         <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P13" t="n">
         <v>1.44</v>
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
         <v>1.08</v>
@@ -2153,7 +2153,7 @@
         <v>7</v>
       </c>
       <c r="U14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V14" t="n">
         <v>9.5</v>
@@ -2162,7 +2162,7 @@
         <v>21</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="n">
         <v>34</v>
@@ -2183,13 +2183,13 @@
         <v>301</v>
       </c>
       <c r="AE14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
         <v>34</v>
@@ -2248,13 +2248,13 @@
         <v>11</v>
       </c>
       <c r="L15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N15" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
         <v>1.85</v>
@@ -2275,7 +2275,7 @@
         <v>13</v>
       </c>
       <c r="U15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V15" t="n">
         <v>17</v>
@@ -2502,13 +2502,13 @@
         <v>2.42</v>
       </c>
       <c r="R17" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S17" t="n">
         <v>1.78</v>
       </c>
       <c r="T17" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="U17" t="n">
         <v>24</v>
@@ -2523,10 +2523,10 @@
         <v>45</v>
       </c>
       <c r="Y17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA17" t="n">
         <v>6.5</v>
@@ -2541,10 +2541,10 @@
         <v>700</v>
       </c>
       <c r="AE17" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AG17" t="n">
         <v>8.25</v>
@@ -2713,7 +2713,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H19" t="n">
         <v>3.25</v>
@@ -2770,7 +2770,7 @@
         <v>29</v>
       </c>
       <c r="Z19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA19" t="n">
         <v>6</v>
@@ -2785,10 +2785,10 @@
         <v>201</v>
       </c>
       <c r="AE19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
         <v>11</v>
@@ -3075,22 +3075,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H22" t="n">
         <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J22" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K22" t="n">
         <v>15</v>
       </c>
       <c r="L22" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M22" t="n">
         <v>4.33</v>
@@ -3114,7 +3114,7 @@
         <v>2.38</v>
       </c>
       <c r="T22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U22" t="n">
         <v>15</v>
@@ -3123,7 +3123,7 @@
         <v>10</v>
       </c>
       <c r="W22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X22" t="n">
         <v>19</v>
@@ -3150,16 +3150,16 @@
         <v>11</v>
       </c>
       <c r="AF22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH22" t="n">
         <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ22" t="n">
         <v>23</v>
@@ -3206,13 +3206,13 @@
         <v>2.75</v>
       </c>
       <c r="J23" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K23" t="n">
         <v>9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
@@ -3706,7 +3706,7 @@
         <v>3.4</v>
       </c>
       <c r="N27" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
         <v>1.85</v>
@@ -3950,10 +3950,10 @@
         <v>3.25</v>
       </c>
       <c r="N29" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O29" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P29" t="n">
         <v>1.44</v>
@@ -4051,13 +4051,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="H30" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I30" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J30" t="n">
         <v>1.04</v>
@@ -4072,10 +4072,10 @@
         <v>4</v>
       </c>
       <c r="N30" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O30" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P30" t="n">
         <v>1.33</v>
@@ -4084,61 +4084,61 @@
         <v>3.25</v>
       </c>
       <c r="R30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S30" t="n">
         <v>1.8</v>
       </c>
-      <c r="S30" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V30" t="n">
         <v>8.5</v>
       </c>
       <c r="W30" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="X30" t="n">
         <v>12</v>
       </c>
       <c r="Y30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z30" t="n">
         <v>12</v>
       </c>
       <c r="AA30" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC30" t="n">
         <v>51</v>
       </c>
       <c r="AD30" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH30" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -4176,10 +4176,10 @@
         <v>1.57</v>
       </c>
       <c r="H31" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J31" t="n">
         <v>1.05</v>
@@ -4188,16 +4188,16 @@
         <v>11</v>
       </c>
       <c r="L31" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M31" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N31" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O31" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="P31" t="n">
         <v>1.4</v>
@@ -4215,7 +4215,7 @@
         <v>6.5</v>
       </c>
       <c r="U31" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V31" t="n">
         <v>8.5</v>
@@ -4233,34 +4233,34 @@
         <v>10</v>
       </c>
       <c r="AA31" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC31" t="n">
         <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
         <v>29</v>
       </c>
       <c r="AG31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH31" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI31" t="n">
         <v>41</v>
       </c>
       <c r="AJ31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32">
@@ -4295,13 +4295,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H32" t="n">
         <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
         <v>1.06</v>
@@ -4337,13 +4337,13 @@
         <v>7</v>
       </c>
       <c r="U32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V32" t="n">
         <v>9</v>
       </c>
       <c r="W32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X32" t="n">
         <v>17</v>
@@ -4426,7 +4426,7 @@
         <v>3.7</v>
       </c>
       <c r="J33" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K33" t="n">
         <v>7.1</v>
@@ -4435,22 +4435,22 @@
         <v>1.3</v>
       </c>
       <c r="M33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N33" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="O33" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="P33" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="R33" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S33" t="n">
         <v>2.02</v>
@@ -4459,7 +4459,7 @@
         <v>7.6</v>
       </c>
       <c r="U33" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="V33" t="n">
         <v>8.25</v>
@@ -4489,7 +4489,7 @@
         <v>450</v>
       </c>
       <c r="AE33" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF33" t="n">
         <v>21</v>
@@ -4539,55 +4539,55 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="H34" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="I34" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="J34" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K34" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="L34" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="O34" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="P34" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="R34" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S34" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T34" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="U34" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V34" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="W34" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="X34" t="n">
         <v>80</v>
@@ -4596,10 +4596,10 @@
         <v>90</v>
       </c>
       <c r="Z34" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AA34" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AB34" t="n">
         <v>23</v>
@@ -4611,22 +4611,22 @@
         <v>900</v>
       </c>
       <c r="AE34" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AF34" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AG34" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH34" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AI34" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AJ34" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35">
@@ -4664,7 +4664,7 @@
         <v>1.91</v>
       </c>
       <c r="H35" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I35" t="n">
         <v>3.7</v>
@@ -4676,7 +4676,7 @@
         <v>7.6</v>
       </c>
       <c r="L35" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M35" t="n">
         <v>3.55</v>
@@ -4712,7 +4712,7 @@
         <v>18</v>
       </c>
       <c r="X35" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y35" t="n">
         <v>22</v>
@@ -4721,7 +4721,7 @@
         <v>7.6</v>
       </c>
       <c r="AA35" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB35" t="n">
         <v>12.5</v>
@@ -4733,7 +4733,7 @@
         <v>350</v>
       </c>
       <c r="AE35" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF35" t="n">
         <v>22</v>
@@ -4798,7 +4798,7 @@
         <v>8.25</v>
       </c>
       <c r="L36" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M36" t="n">
         <v>3.7</v>
@@ -4905,19 +4905,19 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J37" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L37" t="n">
         <v>1.36</v>
@@ -4983,7 +4983,7 @@
         <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH37" t="n">
         <v>126</v>
@@ -5048,10 +5048,10 @@
         <v>3.75</v>
       </c>
       <c r="N38" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O38" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P38" t="n">
         <v>1.36</v>
@@ -5170,10 +5170,10 @@
         <v>3.75</v>
       </c>
       <c r="N39" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O39" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P39" t="n">
         <v>1.36</v>
@@ -5292,10 +5292,10 @@
         <v>4.33</v>
       </c>
       <c r="N40" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O40" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P40" t="n">
         <v>1.33</v>
@@ -5393,85 +5393,85 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="H41" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="I41" t="n">
         <v>3.6</v>
       </c>
       <c r="J41" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="K41" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L41" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="M41" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="N41" t="n">
-        <v>2.67</v>
+        <v>2.87</v>
       </c>
       <c r="O41" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="P41" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R41" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="S41" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="T41" t="n">
-        <v>5.1</v>
+        <v>4.85</v>
       </c>
       <c r="U41" t="n">
         <v>8.5</v>
       </c>
       <c r="V41" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="W41" t="n">
         <v>21</v>
       </c>
       <c r="X41" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y41" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z41" t="n">
-        <v>4.7</v>
+        <v>4.45</v>
       </c>
       <c r="AA41" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AB41" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AC41" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AD41" t="n">
         <v>101</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AF41" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH41" t="n">
         <v>55</v>
@@ -5480,7 +5480,7 @@
         <v>50</v>
       </c>
       <c r="AJ41" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42">
@@ -5515,79 +5515,79 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I42" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J42" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K42" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L42" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M42" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="N42" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="O42" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="P42" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="R42" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S42" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T42" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="U42" t="n">
         <v>8.75</v>
       </c>
       <c r="V42" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W42" t="n">
         <v>20</v>
       </c>
       <c r="X42" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y42" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z42" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AA42" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB42" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC42" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD42" t="n">
         <v>101</v>
       </c>
       <c r="AE42" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AF42" t="n">
         <v>17</v>
@@ -5596,7 +5596,7 @@
         <v>13</v>
       </c>
       <c r="AH42" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI42" t="n">
         <v>40</v>
@@ -5637,13 +5637,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H43" t="n">
         <v>3.4</v>
       </c>
       <c r="I43" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
         <v>1.05</v>
@@ -5658,25 +5658,25 @@
         <v>3.5</v>
       </c>
       <c r="N43" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O43" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P43" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R43" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S43" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U43" t="n">
         <v>19</v>
@@ -5691,28 +5691,28 @@
         <v>29</v>
       </c>
       <c r="Y43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z43" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA43" t="n">
         <v>6.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC43" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD43" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG43" t="n">
         <v>9</v>
@@ -5721,10 +5721,10 @@
         <v>17</v>
       </c>
       <c r="AI43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AJ41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,7 +728,7 @@
         <v>9</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
@@ -772,7 +772,7 @@
         <v>2.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
         <v>2.6</v>
@@ -808,13 +808,13 @@
         <v>1.7</v>
       </c>
       <c r="T3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U3" t="n">
         <v>13</v>
       </c>
       <c r="V3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W3" t="n">
         <v>29</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
@@ -939,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="W4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X4" t="n">
         <v>23</v>
@@ -966,7 +966,7 @@
         <v>7.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
@@ -975,7 +975,7 @@
         <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1019,7 +1019,7 @@
         <v>2.75</v>
       </c>
       <c r="I5" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J5" t="n">
         <v>1.18</v>
@@ -1272,10 +1272,10 @@
         <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="N7" t="n">
         <v>2.7</v>
@@ -1299,7 +1299,7 @@
         <v>5.5</v>
       </c>
       <c r="U7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V7" t="n">
         <v>10</v>
@@ -1329,7 +1329,7 @@
         <v>501</v>
       </c>
       <c r="AE7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF7" t="n">
         <v>19</v>
@@ -1388,10 +1388,10 @@
         <v>2.6</v>
       </c>
       <c r="J8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L8" t="n">
         <v>1.57</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
         <v>1.13</v>
@@ -1516,16 +1516,16 @@
         <v>6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M9" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N9" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
         <v>1.62</v>
@@ -1540,19 +1540,19 @@
         <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="U9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V9" t="n">
         <v>10</v>
       </c>
       <c r="W9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
         <v>41</v>
@@ -1573,10 +1573,10 @@
         <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG9" t="n">
         <v>21</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
         <v>1.14</v>
@@ -1665,13 +1665,13 @@
         <v>5</v>
       </c>
       <c r="U10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V10" t="n">
         <v>10</v>
       </c>
       <c r="W10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X10" t="n">
         <v>23</v>
@@ -1695,16 +1695,16 @@
         <v>101</v>
       </c>
       <c r="AE10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI10" t="n">
         <v>41</v>
@@ -1867,19 +1867,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
         <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
         <v>1.29</v>
@@ -1939,7 +1939,7 @@
         <v>251</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
         <v>23</v>
@@ -1951,7 +1951,7 @@
         <v>51</v>
       </c>
       <c r="AI12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
         <v>41</v>
@@ -2010,10 +2010,10 @@
         <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P13" t="n">
         <v>1.44</v>
@@ -2120,10 +2120,10 @@
         <v>3.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L14" t="n">
         <v>1.36</v>
@@ -2192,7 +2192,7 @@
         <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI14" t="n">
         <v>29</v>
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I15" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="J15" t="n">
         <v>1.05</v>
@@ -2266,10 +2266,10 @@
         <v>2.75</v>
       </c>
       <c r="R15" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T15" t="n">
         <v>13</v>
@@ -2278,25 +2278,25 @@
         <v>29</v>
       </c>
       <c r="V15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="X15" t="n">
         <v>41</v>
       </c>
       <c r="Y15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z15" t="n">
         <v>9.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC15" t="n">
         <v>51</v>
@@ -2308,13 +2308,13 @@
         <v>6.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG15" t="n">
         <v>8.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
         <v>13</v>
@@ -2326,7 +2326,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hj5X0lat</t>
+          <t>W0WjLrLN</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2336,115 +2336,119 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA B</t>
+          <t>CZECH REPUBLIC - CHNL</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Inter Palmira</t>
+          <t>Ostrava B</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Atletico F.C.</t>
+          <t>Sigma Olomouc B</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.29</v>
+        <v>2.05</v>
       </c>
       <c r="H16" t="n">
-        <v>4.65</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>3.6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K16" t="n">
+        <v>11</v>
+      </c>
       <c r="L16" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M16" t="n">
-        <v>2.95</v>
+        <v>3.75</v>
       </c>
       <c r="N16" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="P16" t="n">
         <v>1.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.52</v>
+        <v>2.75</v>
       </c>
       <c r="R16" t="n">
-        <v>2.47</v>
+        <v>1.67</v>
       </c>
       <c r="S16" t="n">
-        <v>1.42</v>
+        <v>2.1</v>
       </c>
       <c r="T16" t="n">
-        <v>5.2</v>
+        <v>8.5</v>
       </c>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W16" t="n">
-        <v>6.9</v>
+        <v>17</v>
       </c>
       <c r="X16" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="Z16" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AB16" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="AD16" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AE16" t="n">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="AF16" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="AG16" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>350</v>
+        <v>41</v>
       </c>
       <c r="AI16" t="n">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="AJ16" t="n">
-        <v>175</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>z9VdgOcU</t>
+          <t>Iu9iRG77</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2454,115 +2458,119 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA B</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.35</v>
+        <v>2.38</v>
       </c>
       <c r="H17" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K17" t="n">
+        <v>10</v>
+      </c>
       <c r="L17" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="M17" t="n">
-        <v>2.82</v>
+        <v>3.5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="P17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.42</v>
+        <v>2.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="S17" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="T17" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="U17" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="V17" t="n">
-        <v>14.5</v>
+        <v>9.5</v>
       </c>
       <c r="W17" t="n">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="X17" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AA17" t="n">
         <v>6.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AC17" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD17" t="n">
-        <v>700</v>
+        <v>201</v>
       </c>
       <c r="AE17" t="n">
-        <v>6.4</v>
+        <v>9.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AG17" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="AJ17" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>W0WjLrLN</t>
+          <t>hzNvz3qA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2572,119 +2580,115 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHNL</t>
+          <t>ICELAND - BESTA DEILD KARLA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ostrava B</t>
+          <t>Vikingur Reykjavik</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Sigma Olomouc B</t>
+          <t>Vestmannaeyjar</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.05</v>
+        <v>1.27</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>5.6</v>
       </c>
       <c r="I18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K18" t="n">
-        <v>10</v>
-      </c>
+        <v>8.75</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="M18" t="n">
-        <v>3.75</v>
+        <v>5.8</v>
       </c>
       <c r="N18" t="n">
-        <v>1.88</v>
+        <v>1.33</v>
       </c>
       <c r="O18" t="n">
-        <v>1.93</v>
+        <v>3.05</v>
       </c>
       <c r="P18" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.75</v>
+        <v>4.05</v>
       </c>
       <c r="R18" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S18" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="T18" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="U18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V18" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W18" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="X18" t="n">
-        <v>15</v>
+        <v>9.75</v>
       </c>
       <c r="Y18" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z18" t="n">
         <v>26</v>
       </c>
-      <c r="Z18" t="n">
-        <v>10</v>
-      </c>
       <c r="AA18" t="n">
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AC18" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AD18" t="n">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="AE18" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="AF18" t="n">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AH18" t="n">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="AI18" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Iu9iRG77</t>
+          <t>EkBmYtEM</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2694,119 +2698,119 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>ICELAND - BESTA DEILD KARLA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Stjarnan</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Hafnarfjordur</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="H19" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="I19" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="T19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>9</v>
+      </c>
+      <c r="W19" t="n">
+        <v>25</v>
+      </c>
+      <c r="X19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB19" t="n">
         <v>10</v>
       </c>
-      <c r="L19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2</v>
-      </c>
-      <c r="T19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="U19" t="n">
-        <v>12</v>
-      </c>
-      <c r="V19" t="n">
-        <v>10</v>
-      </c>
-      <c r="W19" t="n">
-        <v>23</v>
-      </c>
-      <c r="X19" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>13</v>
-      </c>
       <c r="AC19" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="AD19" t="n">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="AE19" t="n">
-        <v>9.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AG19" t="n">
         <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ19" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>hzNvz3qA</t>
+          <t>ry8U1nfA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2816,115 +2820,119 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ICELAND - BESTA DEILD KARLA</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Vikingur Reykjavik</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vestmannaeyjar</t>
+          <t>H. Beer Sheva</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.27</v>
+        <v>2.55</v>
       </c>
       <c r="H20" t="n">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>2.3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K20" t="n">
+        <v>15</v>
+      </c>
       <c r="L20" t="n">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="M20" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="N20" t="n">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="O20" t="n">
-        <v>3.05</v>
+        <v>2.3</v>
       </c>
       <c r="P20" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.05</v>
+        <v>3.4</v>
       </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S20" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="T20" t="n">
         <v>12</v>
       </c>
       <c r="U20" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="V20" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="W20" t="n">
+        <v>29</v>
+      </c>
+      <c r="X20" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG20" t="n">
         <v>9.5</v>
       </c>
-      <c r="X20" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>300</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>35</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>27</v>
-      </c>
       <c r="AH20" t="n">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="AJ20" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EkBmYtEM</t>
+          <t>v1lFWIGb</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2934,119 +2942,119 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ICELAND - BESTA DEILD KARLA</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Stjarnan</t>
+          <t>Hapoel Hadera</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Hafnarfjordur</t>
+          <t>Sakhnin</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K21" t="n">
+        <v>9</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="n">
         <v>2.15</v>
       </c>
-      <c r="H21" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.42</v>
-      </c>
       <c r="O21" t="n">
-        <v>2.65</v>
+        <v>1.67</v>
       </c>
       <c r="P21" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.55</v>
+        <v>2.63</v>
       </c>
       <c r="R21" t="n">
-        <v>1.37</v>
+        <v>1.83</v>
       </c>
       <c r="S21" t="n">
-        <v>2.85</v>
+        <v>1.83</v>
       </c>
       <c r="T21" t="n">
-        <v>13.5</v>
+        <v>8</v>
       </c>
       <c r="U21" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="V21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X21" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="Y21" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="Z21" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>7.9</v>
+        <v>6</v>
       </c>
       <c r="AB21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AC21" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="AD21" t="n">
-        <v>120</v>
+        <v>301</v>
       </c>
       <c r="AE21" t="n">
-        <v>16.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AI21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ21" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ry8U1nfA</t>
+          <t>vu5GggKt</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3056,119 +3064,119 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>ITALY - SERIE C</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>AlbinoLeffe</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>H. Beer Sheva</t>
+          <t>Pro Vercelli</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.55</v>
+        <v>1.78</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="J22" t="n">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="K22" t="n">
-        <v>15</v>
+        <v>5.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="M22" t="n">
-        <v>4.33</v>
+        <v>2.32</v>
       </c>
       <c r="N22" t="n">
-        <v>1.65</v>
+        <v>2.57</v>
       </c>
       <c r="O22" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q22" t="n">
         <v>2.2</v>
       </c>
-      <c r="P22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3.25</v>
-      </c>
       <c r="R22" t="n">
-        <v>1.53</v>
+        <v>2.37</v>
       </c>
       <c r="S22" t="n">
-        <v>2.38</v>
+        <v>1.52</v>
       </c>
       <c r="T22" t="n">
-        <v>12</v>
+        <v>4.85</v>
       </c>
       <c r="U22" t="n">
-        <v>15</v>
+        <v>6.8</v>
       </c>
       <c r="V22" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="W22" t="n">
-        <v>29</v>
+        <v>13.5</v>
       </c>
       <c r="X22" t="n">
         <v>19</v>
       </c>
       <c r="Y22" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>175</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF22" t="n">
         <v>23</v>
       </c>
-      <c r="Z22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>126</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>13</v>
-      </c>
       <c r="AG22" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AH22" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>v1lFWIGb</t>
+          <t>hlWcyC4C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3178,119 +3186,119 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>ITALY - SERIE C</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sakhnin</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.45</v>
+        <v>1.42</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="I23" t="n">
-        <v>2.75</v>
+        <v>7.4</v>
       </c>
       <c r="J23" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K23" t="n">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="N23" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P23" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R23" t="n">
-        <v>1.83</v>
+        <v>2.37</v>
       </c>
       <c r="S23" t="n">
-        <v>1.83</v>
+        <v>1.52</v>
       </c>
       <c r="T23" t="n">
-        <v>8</v>
+        <v>5.1</v>
       </c>
       <c r="U23" t="n">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="V23" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="W23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>175</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG23" t="n">
         <v>26</v>
       </c>
-      <c r="X23" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>301</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>11</v>
-      </c>
       <c r="AH23" t="n">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="AI23" t="n">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="AJ23" t="n">
-        <v>34</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>vu5GggKt</t>
+          <t>YcxfpYOh</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3310,109 +3318,109 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>AlbinoLeffe</t>
+          <t>Giugliano</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Pro Vercelli</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.78</v>
+        <v>2.62</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I24" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="K24" t="n">
-        <v>5.4</v>
+        <v>6.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="M24" t="n">
-        <v>2.32</v>
+        <v>2.8</v>
       </c>
       <c r="N24" t="n">
-        <v>2.57</v>
+        <v>2.12</v>
       </c>
       <c r="O24" t="n">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="P24" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R24" t="n">
-        <v>2.37</v>
+        <v>1.87</v>
       </c>
       <c r="S24" t="n">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="T24" t="n">
-        <v>4.85</v>
+        <v>7.6</v>
       </c>
       <c r="U24" t="n">
-        <v>6.8</v>
+        <v>12.5</v>
       </c>
       <c r="V24" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="W24" t="n">
-        <v>13.5</v>
+        <v>29</v>
       </c>
       <c r="X24" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Y24" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Z24" t="n">
-        <v>5.4</v>
+        <v>6.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AD24" t="n">
-        <v>101</v>
+        <v>700</v>
       </c>
       <c r="AE24" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AF24" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI24" t="n">
         <v>23</v>
       </c>
-      <c r="AG24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>90</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>65</v>
-      </c>
       <c r="AJ24" t="n">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>hlWcyC4C</t>
+          <t>jw3zxCYg</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3422,119 +3430,119 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ITALY - SERIE C</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>Puszcza</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Rakow</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.42</v>
+        <v>5.5</v>
       </c>
       <c r="H25" t="n">
         <v>3.9</v>
       </c>
       <c r="I25" t="n">
-        <v>7.4</v>
+        <v>1.6</v>
       </c>
       <c r="J25" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K25" t="n">
-        <v>6.6</v>
+        <v>9.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="M25" t="n">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="N25" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="O25" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="P25" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R25" t="n">
-        <v>2.37</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
-        <v>1.52</v>
+        <v>1.75</v>
       </c>
       <c r="T25" t="n">
-        <v>5.1</v>
+        <v>13</v>
       </c>
       <c r="U25" t="n">
-        <v>5.5</v>
+        <v>29</v>
       </c>
       <c r="V25" t="n">
-        <v>8.75</v>
+        <v>17</v>
       </c>
       <c r="W25" t="n">
+        <v>51</v>
+      </c>
+      <c r="X25" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>401</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG25" t="n">
         <v>8.5</v>
       </c>
-      <c r="X25" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>175</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>26</v>
-      </c>
       <c r="AH25" t="n">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="AI25" t="n">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="AJ25" t="n">
-        <v>120</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>YcxfpYOh</t>
+          <t>AsEjSvAM</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3544,119 +3552,119 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ITALY - SERIE C</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Giugliano</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="H26" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.47</v>
+        <v>2.9</v>
       </c>
       <c r="J26" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K26" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="L26" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="M26" t="n">
-        <v>2.82</v>
+        <v>2.63</v>
       </c>
       <c r="N26" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="P26" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R26" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="S26" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="T26" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="U26" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="V26" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y26" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Z26" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AA26" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AB26" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AC26" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AD26" t="n">
-        <v>700</v>
+        <v>451</v>
       </c>
       <c r="AE26" t="n">
         <v>7.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AG26" t="n">
-        <v>9.75</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI26" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AJ26" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>jw3zxCYg</t>
+          <t>t2MZVMAc</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3666,32 +3674,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rakow</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5.5</v>
+        <v>1.83</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="J27" t="n">
         <v>1.06</v>
@@ -3700,85 +3708,85 @@
         <v>10</v>
       </c>
       <c r="L27" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M27" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="O27" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="P27" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R27" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S27" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T27" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="U27" t="n">
+        <v>8</v>
+      </c>
+      <c r="V27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W27" t="n">
+        <v>15</v>
+      </c>
+      <c r="X27" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y27" t="n">
         <v>29</v>
       </c>
-      <c r="V27" t="n">
+      <c r="Z27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB27" t="n">
         <v>17</v>
       </c>
-      <c r="W27" t="n">
+      <c r="AC27" t="n">
         <v>51</v>
       </c>
-      <c r="X27" t="n">
+      <c r="AD27" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI27" t="n">
         <v>41</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AJ27" t="n">
         <v>41</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>401</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AsEjSvAM</t>
+          <t>xUFrU0uA</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3788,7 +3796,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3798,109 +3806,109 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.55</v>
+        <v>1.42</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="I28" t="n">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="J28" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="K28" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L28" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="M28" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="N28" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="P28" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="R28" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S28" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T28" t="n">
         <v>7</v>
       </c>
       <c r="U28" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="V28" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="W28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y28" t="n">
         <v>26</v>
       </c>
-      <c r="X28" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y28" t="n">
+      <c r="Z28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF28" t="n">
         <v>41</v>
       </c>
-      <c r="Z28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>451</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>13</v>
-      </c>
       <c r="AG28" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AH28" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AJ28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t2MZVMAc</t>
+          <t>xjwM7eAm</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3910,59 +3918,59 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>ROMANIA - SUPERLIGA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="H29" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="J29" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L29" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="M29" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N29" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="O29" t="n">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="P29" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R29" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S29" t="n">
         <v>1.8</v>
@@ -3971,25 +3979,25 @@
         <v>6.5</v>
       </c>
       <c r="U29" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V29" t="n">
         <v>8.5</v>
       </c>
       <c r="W29" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="X29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y29" t="n">
         <v>29</v>
       </c>
       <c r="Z29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB29" t="n">
         <v>17</v>
@@ -4001,28 +4009,28 @@
         <v>301</v>
       </c>
       <c r="AE29" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AF29" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AG29" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AH29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI29" t="n">
         <v>41</v>
       </c>
       <c r="AJ29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>xUFrU0uA</t>
+          <t>v3muhopm</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4032,89 +4040,89 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>ROMANIA - SUPERLIGA</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Univ. Craiova</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.42</v>
+        <v>1.95</v>
       </c>
       <c r="H30" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="J30" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K30" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L30" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N30" t="n">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O30" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="P30" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="R30" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S30" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T30" t="n">
         <v>7</v>
       </c>
       <c r="U30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W30" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="X30" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Y30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z30" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AA30" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC30" t="n">
         <v>51</v>
@@ -4123,28 +4131,28 @@
         <v>301</v>
       </c>
       <c r="AE30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF30" t="n">
         <v>19</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AG30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH30" t="n">
         <v>41</v>
       </c>
-      <c r="AG30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>81</v>
-      </c>
       <c r="AI30" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AJ30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>xjwM7eAm</t>
+          <t>GldEaJFd</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4154,119 +4162,119 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ROMANIA - SUPERLIGA</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="H31" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="I31" t="n">
-        <v>5.75</v>
+        <v>3.7</v>
       </c>
       <c r="J31" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K31" t="n">
-        <v>11</v>
+        <v>7.1</v>
       </c>
       <c r="L31" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M31" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N31" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O31" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="P31" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="R31" t="n">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="S31" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T31" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="U31" t="n">
-        <v>7.5</v>
+        <v>9.25</v>
       </c>
       <c r="V31" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W31" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="X31" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB31" t="n">
         <v>13</v>
       </c>
-      <c r="Y31" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>17</v>
-      </c>
       <c r="AC31" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AD31" t="n">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="AE31" t="n">
-        <v>15</v>
+        <v>11.75</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AG31" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AI31" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AJ31" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>v3muhopm</t>
+          <t>Cjf73mYR</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4276,119 +4284,119 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ROMANIA - SUPERLIGA</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Univ. Craiova</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.91</v>
+        <v>5.7</v>
       </c>
       <c r="H32" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>1.52</v>
       </c>
       <c r="J32" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K32" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="U32" t="n">
+        <v>32</v>
+      </c>
+      <c r="V32" t="n">
+        <v>20</v>
+      </c>
+      <c r="W32" t="n">
+        <v>120</v>
+      </c>
+      <c r="X32" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>90</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH32" t="n">
         <v>10</v>
       </c>
-      <c r="L32" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M32" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T32" t="n">
-        <v>7</v>
-      </c>
-      <c r="U32" t="n">
-        <v>9</v>
-      </c>
-      <c r="V32" t="n">
-        <v>9</v>
-      </c>
-      <c r="W32" t="n">
-        <v>17</v>
-      </c>
-      <c r="X32" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>301</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>41</v>
-      </c>
       <c r="AI32" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="AJ32" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GldEaJFd</t>
+          <t>rB2j7VY2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4408,58 +4416,58 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H33" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I33" t="n">
         <v>3.7</v>
       </c>
       <c r="J33" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K33" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="M33" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="O33" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="P33" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.65</v>
+        <v>2.77</v>
       </c>
       <c r="R33" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S33" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="T33" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="U33" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="V33" t="n">
         <v>8.25</v>
@@ -4468,31 +4476,31 @@
         <v>18</v>
       </c>
       <c r="X33" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z33" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="AA33" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AD33" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AE33" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AF33" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG33" t="n">
         <v>12.5</v>
@@ -4504,13 +4512,13 @@
         <v>35</v>
       </c>
       <c r="AJ33" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Cjf73mYR</t>
+          <t>ryb61uop</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4530,109 +4538,109 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5.8</v>
+        <v>1.52</v>
       </c>
       <c r="H34" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K34" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M34" t="n">
         <v>3.7</v>
       </c>
-      <c r="I34" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K34" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M34" t="n">
-        <v>2.8</v>
-      </c>
       <c r="N34" t="n">
-        <v>2.12</v>
+        <v>1.7</v>
       </c>
       <c r="O34" t="n">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="P34" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.67</v>
+        <v>2.95</v>
       </c>
       <c r="R34" t="n">
-        <v>2.25</v>
+        <v>1.82</v>
       </c>
       <c r="S34" t="n">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="T34" t="n">
-        <v>12.5</v>
+        <v>7.4</v>
       </c>
       <c r="U34" t="n">
-        <v>35</v>
+        <v>7.4</v>
       </c>
       <c r="V34" t="n">
-        <v>20</v>
+        <v>8.25</v>
       </c>
       <c r="W34" t="n">
-        <v>120</v>
+        <v>10.75</v>
       </c>
       <c r="X34" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="Y34" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="Z34" t="n">
-        <v>6.6</v>
+        <v>8.25</v>
       </c>
       <c r="AA34" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AB34" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AC34" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AD34" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="AE34" t="n">
-        <v>5.3</v>
+        <v>15</v>
       </c>
       <c r="AF34" t="n">
-        <v>6.1</v>
+        <v>32</v>
       </c>
       <c r="AG34" t="n">
-        <v>8.75</v>
+        <v>17</v>
       </c>
       <c r="AH34" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AI34" t="n">
-        <v>14.5</v>
+        <v>50</v>
       </c>
       <c r="AJ34" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>rB2j7VY2</t>
+          <t>GbTo2nAc</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4642,119 +4650,119 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.91</v>
+        <v>1.38</v>
       </c>
       <c r="H35" t="n">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="I35" t="n">
-        <v>3.7</v>
+        <v>7.5</v>
       </c>
       <c r="J35" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K35" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="L35" t="n">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="M35" t="n">
-        <v>3.55</v>
+        <v>2.75</v>
       </c>
       <c r="N35" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O35" t="n">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="P35" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.77</v>
+        <v>2.63</v>
       </c>
       <c r="R35" t="n">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="S35" t="n">
-        <v>2.12</v>
+        <v>1.4</v>
       </c>
       <c r="T35" t="n">
-        <v>8.25</v>
+        <v>5</v>
       </c>
       <c r="U35" t="n">
-        <v>10.25</v>
+        <v>5.5</v>
       </c>
       <c r="V35" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="W35" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="X35" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y35" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="Z35" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AB35" t="n">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="AC35" t="n">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="AD35" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="AE35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF35" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="AG35" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AH35" t="n">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AI35" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="AJ35" t="n">
-        <v>35</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ryb61uop</t>
+          <t>OMX2dTOa</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4764,119 +4772,119 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="H36" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>5.2</v>
+        <v>4.75</v>
       </c>
       <c r="J36" t="n">
         <v>1.04</v>
       </c>
       <c r="K36" t="n">
-        <v>8.25</v>
+        <v>13</v>
       </c>
       <c r="L36" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M36" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="N36" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="O36" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="P36" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="R36" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S36" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="T36" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="U36" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="V36" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W36" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="X36" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z36" t="n">
         <v>12</v>
       </c>
-      <c r="Y36" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AA36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB36" t="n">
         <v>17</v>
       </c>
       <c r="AC36" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AD36" t="n">
-        <v>600</v>
+        <v>251</v>
       </c>
       <c r="AE36" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AF36" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AG36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH36" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AI36" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AJ36" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>GbTo2nAc</t>
+          <t>QgQq4RZo</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4886,119 +4894,119 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.3</v>
+        <v>1.67</v>
       </c>
       <c r="H37" t="n">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="I37" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J37" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K37" t="n">
+        <v>13</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U37" t="n">
+        <v>8</v>
+      </c>
+      <c r="V37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W37" t="n">
+        <v>13</v>
+      </c>
+      <c r="X37" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z37" t="n">
         <v>11</v>
       </c>
-      <c r="L37" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M37" t="n">
-        <v>3</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T37" t="n">
-        <v>5</v>
-      </c>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
-      <c r="V37" t="n">
-        <v>10</v>
-      </c>
-      <c r="W37" t="n">
+      <c r="AA37" t="n">
         <v>7.5</v>
       </c>
-      <c r="X37" t="n">
+      <c r="AB37" t="n">
         <v>15</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="AC37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI37" t="n">
         <v>41</v>
       </c>
-      <c r="Z37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB37" t="n">
+      <c r="AJ37" t="n">
         <v>41</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>151</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>126</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>81</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>OMX2dTOa</t>
+          <t>EFdRopKH</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5008,32 +5016,32 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.67</v>
+        <v>3.25</v>
       </c>
       <c r="H38" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="I38" t="n">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="J38" t="n">
         <v>1.04</v>
@@ -5042,85 +5050,85 @@
         <v>13</v>
       </c>
       <c r="L38" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="M38" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="N38" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="O38" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="P38" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q38" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R38" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="S38" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="T38" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="U38" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="V38" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="W38" t="n">
+        <v>34</v>
+      </c>
+      <c r="X38" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z38" t="n">
         <v>13</v>
       </c>
-      <c r="X38" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z38" t="n">
+      <c r="AA38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB38" t="n">
         <v>12</v>
       </c>
-      <c r="AA38" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>17</v>
-      </c>
       <c r="AC38" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD38" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="AE38" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AF38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ38" t="n">
         <v>23</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>QgQq4RZo</t>
+          <t>zsRShygC</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5130,119 +5138,119 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Kolos Kovalivka</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Rukh Lviv</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.67</v>
+        <v>2.18</v>
       </c>
       <c r="H39" t="n">
-        <v>3.8</v>
+        <v>2.82</v>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="J39" t="n">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
       <c r="K39" t="n">
-        <v>13</v>
+        <v>4.2</v>
       </c>
       <c r="L39" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="M39" t="n">
-        <v>3.75</v>
+        <v>1.98</v>
       </c>
       <c r="N39" t="n">
-        <v>1.83</v>
+        <v>2.87</v>
       </c>
       <c r="O39" t="n">
-        <v>2.03</v>
+        <v>1.31</v>
       </c>
       <c r="P39" t="n">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="Q39" t="n">
-        <v>3</v>
+        <v>1.98</v>
       </c>
       <c r="R39" t="n">
-        <v>1.8</v>
+        <v>2.37</v>
       </c>
       <c r="S39" t="n">
-        <v>1.91</v>
+        <v>1.45</v>
       </c>
       <c r="T39" t="n">
-        <v>7.5</v>
+        <v>4.85</v>
       </c>
       <c r="U39" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V39" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="W39" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="X39" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="Y39" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="Z39" t="n">
-        <v>11</v>
+        <v>4.45</v>
       </c>
       <c r="AA39" t="n">
-        <v>7.5</v>
+        <v>6.1</v>
       </c>
       <c r="AB39" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AC39" t="n">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="AD39" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AE39" t="n">
-        <v>13</v>
+        <v>6.7</v>
       </c>
       <c r="AF39" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="AG39" t="n">
         <v>15</v>
       </c>
       <c r="AH39" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AI39" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AJ39" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EFdRopKH</t>
+          <t>Usq1zTxo</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5252,119 +5260,119 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Polissya Zhytomyr</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Karpaty Lviv</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.25</v>
+        <v>2.27</v>
       </c>
       <c r="H40" t="n">
-        <v>3.4</v>
+        <v>2.87</v>
       </c>
       <c r="I40" t="n">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="J40" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="K40" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L40" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="M40" t="n">
-        <v>4.33</v>
+        <v>2.27</v>
       </c>
       <c r="N40" t="n">
-        <v>1.67</v>
+        <v>2.4</v>
       </c>
       <c r="O40" t="n">
-        <v>2.15</v>
+        <v>1.44</v>
       </c>
       <c r="P40" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="R40" t="n">
-        <v>1.57</v>
+        <v>2.02</v>
       </c>
       <c r="S40" t="n">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="T40" t="n">
-        <v>13</v>
+        <v>5.8</v>
       </c>
       <c r="U40" t="n">
-        <v>19</v>
+        <v>9.75</v>
       </c>
       <c r="V40" t="n">
-        <v>12</v>
+        <v>9.75</v>
       </c>
       <c r="W40" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="X40" t="n">
         <v>23</v>
       </c>
       <c r="Y40" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Z40" t="n">
-        <v>13</v>
+        <v>6.3</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="AB40" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG40" t="n">
         <v>12</v>
       </c>
-      <c r="AC40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>126</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>9</v>
-      </c>
       <c r="AH40" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="AJ40" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>zsRShygC</t>
+          <t>CAbq695m</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5374,356 +5382,112 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.18</v>
+        <v>3.5</v>
       </c>
       <c r="H41" t="n">
-        <v>2.82</v>
+        <v>3.4</v>
       </c>
       <c r="I41" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="K41" t="n">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="L41" t="n">
-        <v>1.65</v>
+        <v>1.29</v>
       </c>
       <c r="M41" t="n">
-        <v>1.98</v>
+        <v>3.5</v>
       </c>
       <c r="N41" t="n">
-        <v>2.87</v>
+        <v>1.95</v>
       </c>
       <c r="O41" t="n">
-        <v>1.31</v>
+        <v>1.9</v>
       </c>
       <c r="P41" t="n">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.98</v>
+        <v>2.75</v>
       </c>
       <c r="R41" t="n">
-        <v>2.37</v>
+        <v>1.73</v>
       </c>
       <c r="S41" t="n">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="T41" t="n">
-        <v>4.85</v>
+        <v>11</v>
       </c>
       <c r="U41" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="V41" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="W41" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="X41" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y41" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="Z41" t="n">
-        <v>4.45</v>
+        <v>10</v>
       </c>
       <c r="AA41" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AC41" t="n">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="AD41" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AE41" t="n">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="AF41" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="AG41" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AH41" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="AI41" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="AJ41" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Usq1zTxo</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>07/04/2025</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Polissya Zhytomyr</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Karpaty Lviv</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K42" t="n">
-        <v>6</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M42" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R42" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="T42" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="U42" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="V42" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W42" t="n">
-        <v>20</v>
-      </c>
-      <c r="X42" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>150</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>CAbq695m</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>07/04/2025</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H43" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K43" t="n">
-        <v>11</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M43" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N43" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>3</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2</v>
-      </c>
-      <c r="T43" t="n">
-        <v>12</v>
-      </c>
-      <c r="U43" t="n">
-        <v>19</v>
-      </c>
-      <c r="V43" t="n">
-        <v>13</v>
-      </c>
-      <c r="W43" t="n">
-        <v>41</v>
-      </c>
-      <c r="X43" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ43" t="n">
         <v>26</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
@@ -704,7 +704,7 @@
         <v>51</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>8.5</v>
@@ -734,7 +734,7 @@
         <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -772,16 +772,16 @@
         <v>2.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>2.6</v>
       </c>
       <c r="J3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.5</v>
@@ -790,10 +790,10 @@
         <v>2.63</v>
       </c>
       <c r="N3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
         <v>1.57</v>
@@ -802,10 +802,10 @@
         <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T3" t="n">
         <v>7</v>
@@ -814,7 +814,7 @@
         <v>13</v>
       </c>
       <c r="V3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W3" t="n">
         <v>29</v>
@@ -826,13 +826,13 @@
         <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA3" t="n">
         <v>6</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
         <v>67</v>
@@ -853,7 +853,7 @@
         <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
@@ -897,40 +897,40 @@
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T4" t="n">
         <v>7</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T4" t="n">
-        <v>7.5</v>
       </c>
       <c r="U4" t="n">
         <v>12</v>
@@ -942,28 +942,28 @@
         <v>26</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="n">
         <v>41</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA4" t="n">
         <v>6</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD4" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AE4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF4" t="n">
         <v>13</v>
@@ -1013,7 +1013,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
         <v>2.75</v>
@@ -1040,10 +1040,10 @@
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
         <v>2.75</v>
@@ -1257,19 +1257,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.53</v>
@@ -1305,7 +1305,7 @@
         <v>10</v>
       </c>
       <c r="W7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X7" t="n">
         <v>21</v>
@@ -1379,19 +1379,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
         <v>2.8</v>
       </c>
       <c r="I8" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.57</v>
@@ -1439,7 +1439,7 @@
         <v>5.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB8" t="n">
         <v>19</v>
@@ -1454,13 +1454,13 @@
         <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
         <v>26</v>
@@ -1510,10 +1510,10 @@
         <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.57</v>
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="J13" t="n">
         <v>1.07</v>
@@ -2022,19 +2022,19 @@
         <v>2.63</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S13" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
       </c>
       <c r="U13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W13" t="n">
         <v>41</v>
@@ -2064,13 +2064,13 @@
         <v>6.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG13" t="n">
         <v>9</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
         <v>17</v>
@@ -2477,13 +2477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J17" t="n">
         <v>1.06</v>
@@ -2522,13 +2522,13 @@
         <v>12</v>
       </c>
       <c r="V17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W17" t="n">
         <v>23</v>
       </c>
       <c r="X17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y17" t="n">
         <v>29</v>
@@ -2537,7 +2537,7 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB17" t="n">
         <v>13</v>
@@ -2564,7 +2564,7 @@
         <v>23</v>
       </c>
       <c r="AJ17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -2599,90 +2599,90 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="H18" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I18" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="M18" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="N18" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="O18" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="P18" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="R18" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S18" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="U18" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="V18" t="n">
         <v>9.25</v>
       </c>
       <c r="W18" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="X18" t="n">
         <v>9.75</v>
       </c>
       <c r="Y18" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB18" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD18" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE18" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF18" t="n">
         <v>75</v>
       </c>
       <c r="AG18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH18" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AI18" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -2720,10 +2720,10 @@
         <v>2.15</v>
       </c>
       <c r="H19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J19" t="n">
         <v>1.03</v>
@@ -2750,49 +2750,49 @@
         <v>3.55</v>
       </c>
       <c r="R19" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S19" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="T19" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="U19" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="V19" t="n">
         <v>9</v>
       </c>
       <c r="W19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X19" t="n">
         <v>14.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z19" t="n">
         <v>9.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AB19" t="n">
         <v>10</v>
       </c>
       <c r="AC19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD19" t="n">
         <v>120</v>
       </c>
       <c r="AE19" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG19" t="n">
         <v>11</v>
@@ -2801,10 +2801,10 @@
         <v>45</v>
       </c>
       <c r="AI19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>21</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="H24" t="n">
         <v>3.15</v>
       </c>
       <c r="I24" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J24" t="n">
         <v>1.08</v>
@@ -3366,10 +3366,10 @@
         <v>1.83</v>
       </c>
       <c r="T24" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="U24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V24" t="n">
         <v>10</v>
@@ -3399,16 +3399,16 @@
         <v>700</v>
       </c>
       <c r="AE24" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AF24" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI24" t="n">
         <v>23</v>
@@ -3452,16 +3452,16 @@
         <v>5.5</v>
       </c>
       <c r="H25" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J25" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K25" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L25" t="n">
         <v>1.3</v>
@@ -3506,7 +3506,7 @@
         <v>51</v>
       </c>
       <c r="Z25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA25" t="n">
         <v>7.5</v>
@@ -3518,10 +3518,10 @@
         <v>67</v>
       </c>
       <c r="AD25" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF25" t="n">
         <v>7</v>
@@ -3693,7 +3693,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H27" t="n">
         <v>3.3</v>
@@ -3702,10 +3702,10 @@
         <v>4.75</v>
       </c>
       <c r="J27" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K27" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.33</v>
@@ -3750,7 +3750,7 @@
         <v>29</v>
       </c>
       <c r="Z27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA27" t="n">
         <v>6.5</v>
@@ -3762,13 +3762,13 @@
         <v>51</v>
       </c>
       <c r="AD27" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
         <v>15</v>
@@ -3815,13 +3815,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="H28" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I28" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J28" t="n">
         <v>1.04</v>
@@ -3830,22 +3830,22 @@
         <v>13</v>
       </c>
       <c r="L28" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N28" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O28" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R28" t="n">
         <v>1.95</v>
@@ -3854,28 +3854,28 @@
         <v>1.8</v>
       </c>
       <c r="T28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V28" t="n">
         <v>8.5</v>
       </c>
       <c r="W28" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y28" t="n">
         <v>26</v>
       </c>
       <c r="Z28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB28" t="n">
         <v>19</v>
@@ -3887,16 +3887,16 @@
         <v>301</v>
       </c>
       <c r="AE28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF28" t="n">
         <v>41</v>
       </c>
       <c r="AG28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH28" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI28" t="n">
         <v>51</v>
@@ -4547,13 +4547,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="H34" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>5.1</v>
+        <v>4.85</v>
       </c>
       <c r="J34" t="n">
         <v>1.04</v>
@@ -4580,58 +4580,58 @@
         <v>2.95</v>
       </c>
       <c r="R34" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S34" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="T34" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="U34" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="V34" t="n">
         <v>8.25</v>
       </c>
       <c r="W34" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="X34" t="n">
         <v>12</v>
       </c>
       <c r="Y34" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z34" t="n">
         <v>8.25</v>
       </c>
       <c r="AA34" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB34" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD34" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE34" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG34" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH34" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI34" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ34" t="n">
         <v>50</v>
@@ -4669,13 +4669,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H35" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I35" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J35" t="n">
         <v>1.06</v>
@@ -4690,22 +4690,22 @@
         <v>2.75</v>
       </c>
       <c r="N35" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O35" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S35" t="n">
         <v>1.44</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.4</v>
       </c>
       <c r="T35" t="n">
         <v>5</v>
@@ -4714,10 +4714,10 @@
         <v>5.5</v>
       </c>
       <c r="V35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X35" t="n">
         <v>15</v>
@@ -4726,13 +4726,13 @@
         <v>41</v>
       </c>
       <c r="Z35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC35" t="n">
         <v>126</v>
@@ -4741,10 +4741,10 @@
         <v>101</v>
       </c>
       <c r="AE35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG35" t="n">
         <v>23</v>
@@ -4756,7 +4756,7 @@
         <v>67</v>
       </c>
       <c r="AJ35" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36">
@@ -4791,46 +4791,46 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I36" t="n">
         <v>4.75</v>
       </c>
       <c r="J36" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K36" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L36" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M36" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N36" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O36" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P36" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R36" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S36" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U36" t="n">
         <v>8</v>
@@ -4845,10 +4845,10 @@
         <v>13</v>
       </c>
       <c r="Y36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA36" t="n">
         <v>7.5</v>
@@ -4860,13 +4860,13 @@
         <v>51</v>
       </c>
       <c r="AD36" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE36" t="n">
         <v>13</v>
       </c>
       <c r="AF36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG36" t="n">
         <v>15</v>
@@ -4913,10 +4913,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H37" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I37" t="n">
         <v>5</v>
@@ -4934,10 +4934,10 @@
         <v>3.75</v>
       </c>
       <c r="N37" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O37" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P37" t="n">
         <v>1.36</v>
@@ -4967,10 +4967,10 @@
         <v>13</v>
       </c>
       <c r="Y37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA37" t="n">
         <v>7.5</v>
@@ -5035,13 +5035,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H38" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
         <v>1.04</v>
@@ -5056,10 +5056,10 @@
         <v>4.33</v>
       </c>
       <c r="N38" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O38" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P38" t="n">
         <v>1.33</v>
@@ -5083,10 +5083,10 @@
         <v>12</v>
       </c>
       <c r="W38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y38" t="n">
         <v>29</v>
@@ -5095,7 +5095,7 @@
         <v>13</v>
       </c>
       <c r="AA38" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB38" t="n">
         <v>12</v>
@@ -5110,19 +5110,19 @@
         <v>9.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG38" t="n">
         <v>9</v>
       </c>
       <c r="AH38" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI38" t="n">
         <v>15</v>
       </c>
       <c r="AJ38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
@@ -5291,7 +5291,7 @@
         <v>1.11</v>
       </c>
       <c r="K40" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L40" t="n">
         <v>1.5</v>
@@ -5410,10 +5410,10 @@
         <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L41" t="n">
         <v>1.29</v>
@@ -5422,10 +5422,10 @@
         <v>3.5</v>
       </c>
       <c r="N41" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O41" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P41" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
@@ -653,7 +653,7 @@
         <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -719,7 +719,7 @@
         <v>301</v>
       </c>
       <c r="AE2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
         <v>8</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="J3" t="n">
         <v>1.11</v>
@@ -802,25 +802,25 @@
         <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T3" t="n">
         <v>7</v>
       </c>
       <c r="U3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W3" t="n">
         <v>29</v>
       </c>
       <c r="X3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y3" t="n">
         <v>41</v>
@@ -832,7 +832,7 @@
         <v>6</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
         <v>67</v>
@@ -841,16 +841,16 @@
         <v>501</v>
       </c>
       <c r="AE3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
         <v>26</v>
@@ -1257,19 +1257,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J7" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
         <v>1.53</v>
@@ -1302,7 +1302,7 @@
         <v>8</v>
       </c>
       <c r="V7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W7" t="n">
         <v>17</v>
@@ -1338,7 +1338,7 @@
         <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI7" t="n">
         <v>41</v>
@@ -1406,7 +1406,7 @@
         <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Q8" t="n">
         <v>2.2</v>
@@ -1528,7 +1528,7 @@
         <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Q9" t="n">
         <v>2.2</v>
@@ -1650,7 +1650,7 @@
         <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Q10" t="n">
         <v>2.1</v>
@@ -1870,7 +1870,7 @@
         <v>1.8</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
         <v>4.5</v>
@@ -1882,22 +1882,22 @@
         <v>10</v>
       </c>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="O12" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="P12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R12" t="n">
         <v>1.83</v>
@@ -1906,10 +1906,10 @@
         <v>1.83</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V12" t="n">
         <v>8.5</v>
@@ -1921,28 +1921,28 @@
         <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
         <v>51</v>
       </c>
       <c r="AD12" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
         <v>15</v>
@@ -1951,7 +1951,7 @@
         <v>51</v>
       </c>
       <c r="AI12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ12" t="n">
         <v>41</v>
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H13" t="n">
         <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
         <v>1.07</v>
@@ -2016,10 +2016,10 @@
         <v>1.67</v>
       </c>
       <c r="P13" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R13" t="n">
         <v>1.91</v>
@@ -2028,7 +2028,7 @@
         <v>1.8</v>
       </c>
       <c r="T13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U13" t="n">
         <v>19</v>
@@ -2064,7 +2064,7 @@
         <v>6.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG13" t="n">
         <v>9</v>
@@ -2076,7 +2076,7 @@
         <v>17</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -2120,10 +2120,10 @@
         <v>3.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L14" t="n">
         <v>1.36</v>
@@ -2132,10 +2132,10 @@
         <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P14" t="n">
         <v>1.5</v>
@@ -2248,16 +2248,16 @@
         <v>11</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O15" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="P15" t="n">
         <v>1.4</v>
@@ -3092,19 +3092,19 @@
         <v>4.5</v>
       </c>
       <c r="J22" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="K22" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="M22" t="n">
         <v>2.32</v>
       </c>
       <c r="N22" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="O22" t="n">
         <v>1.45</v>
@@ -3113,7 +3113,7 @@
         <v>1.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R22" t="n">
         <v>2.37</v>
@@ -3140,7 +3140,7 @@
         <v>50</v>
       </c>
       <c r="Z22" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AA22" t="n">
         <v>6.7</v>
@@ -3164,7 +3164,7 @@
         <v>17</v>
       </c>
       <c r="AH22" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="n">
         <v>65</v>
@@ -3205,13 +3205,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H23" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I23" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="J23" t="n">
         <v>1.08</v>
@@ -3223,13 +3223,13 @@
         <v>1.37</v>
       </c>
       <c r="M23" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="N23" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O23" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P23" t="n">
         <v>1.47</v>
@@ -3244,7 +3244,7 @@
         <v>1.52</v>
       </c>
       <c r="T23" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="U23" t="n">
         <v>5.5</v>
@@ -3256,7 +3256,7 @@
         <v>8.5</v>
       </c>
       <c r="X23" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y23" t="n">
         <v>40</v>
@@ -3271,19 +3271,19 @@
         <v>27</v>
       </c>
       <c r="AC23" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AD23" t="n">
         <v>101</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH23" t="n">
         <v>250</v>
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="H24" t="n">
         <v>3.15</v>
       </c>
       <c r="I24" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="J24" t="n">
         <v>1.08</v>
@@ -3342,10 +3342,10 @@
         <v>6.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M24" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="N24" t="n">
         <v>2.12</v>
@@ -3354,19 +3354,19 @@
         <v>1.65</v>
       </c>
       <c r="P24" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R24" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S24" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T24" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="U24" t="n">
         <v>12</v>
@@ -3375,10 +3375,10 @@
         <v>10</v>
       </c>
       <c r="W24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y24" t="n">
         <v>37</v>
@@ -3399,10 +3399,10 @@
         <v>700</v>
       </c>
       <c r="AE24" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AF24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG24" t="n">
         <v>10</v>
@@ -3411,10 +3411,10 @@
         <v>28</v>
       </c>
       <c r="AI24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ24" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="J26" t="n">
         <v>1.1</v>
@@ -3595,7 +3595,7 @@
         <v>2.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P26" t="n">
         <v>1.53</v>
@@ -3610,19 +3610,19 @@
         <v>1.75</v>
       </c>
       <c r="T26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V26" t="n">
         <v>10</v>
       </c>
       <c r="W26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y26" t="n">
         <v>41</v>
@@ -3643,16 +3643,16 @@
         <v>451</v>
       </c>
       <c r="AE26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG26" t="n">
         <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI26" t="n">
         <v>29</v>
@@ -3702,10 +3702,10 @@
         <v>4.75</v>
       </c>
       <c r="J27" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K27" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L27" t="n">
         <v>1.33</v>
@@ -3714,10 +3714,10 @@
         <v>3.25</v>
       </c>
       <c r="N27" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O27" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="P27" t="n">
         <v>1.44</v>
@@ -3836,10 +3836,10 @@
         <v>4.33</v>
       </c>
       <c r="N28" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O28" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P28" t="n">
         <v>1.3</v>
@@ -3857,7 +3857,7 @@
         <v>7.5</v>
       </c>
       <c r="U28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V28" t="n">
         <v>8.5</v>
@@ -4080,10 +4080,10 @@
         <v>3.25</v>
       </c>
       <c r="N30" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="O30" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="P30" t="n">
         <v>1.44</v>
@@ -4190,85 +4190,85 @@
         <v>3.7</v>
       </c>
       <c r="J31" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K31" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="L31" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M31" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="N31" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="O31" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="P31" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="R31" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T31" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="U31" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="V31" t="n">
         <v>8.25</v>
       </c>
       <c r="W31" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="X31" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y31" t="n">
         <v>26</v>
       </c>
       <c r="Z31" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AA31" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC31" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AD31" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AE31" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH31" t="n">
         <v>60</v>
       </c>
       <c r="AI31" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ31" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
@@ -4375,13 +4375,13 @@
         <v>900</v>
       </c>
       <c r="AE32" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AF32" t="n">
         <v>6.2</v>
       </c>
       <c r="AG32" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH32" t="n">
         <v>10</v>
@@ -4455,16 +4455,16 @@
         <v>1.39</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="R33" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S33" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="T33" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U33" t="n">
         <v>10.25</v>
@@ -4476,7 +4476,7 @@
         <v>18</v>
       </c>
       <c r="X33" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y33" t="n">
         <v>22</v>
@@ -4497,22 +4497,22 @@
         <v>350</v>
       </c>
       <c r="AE33" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG33" t="n">
         <v>12.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI33" t="n">
         <v>35</v>
       </c>
       <c r="AJ33" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34">
@@ -4550,10 +4550,10 @@
         <v>1.55</v>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I34" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="J34" t="n">
         <v>1.04</v>
@@ -4562,13 +4562,13 @@
         <v>8.25</v>
       </c>
       <c r="L34" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M34" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="N34" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O34" t="n">
         <v>2.02</v>
@@ -4577,7 +4577,7 @@
         <v>1.35</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="R34" t="n">
         <v>1.8</v>
@@ -4586,13 +4586,13 @@
         <v>1.91</v>
       </c>
       <c r="T34" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="U34" t="n">
         <v>7.6</v>
       </c>
       <c r="V34" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W34" t="n">
         <v>11.25</v>
@@ -4607,7 +4607,7 @@
         <v>8.25</v>
       </c>
       <c r="AA34" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AB34" t="n">
         <v>16.5</v>
@@ -4622,16 +4622,16 @@
         <v>14.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG34" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH34" t="n">
         <v>90</v>
       </c>
       <c r="AI34" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ34" t="n">
         <v>50</v>
@@ -4669,19 +4669,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H35" t="n">
         <v>4.5</v>
       </c>
       <c r="I35" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J35" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K35" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L35" t="n">
         <v>1.4</v>
@@ -4690,10 +4690,10 @@
         <v>2.75</v>
       </c>
       <c r="N35" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O35" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P35" t="n">
         <v>1.5</v>
@@ -4702,13 +4702,13 @@
         <v>2.5</v>
       </c>
       <c r="R35" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S35" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="T35" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="U35" t="n">
         <v>5.5</v>
@@ -4732,10 +4732,10 @@
         <v>9.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC35" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AD35" t="n">
         <v>101</v>
@@ -4744,7 +4744,7 @@
         <v>12</v>
       </c>
       <c r="AF35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG35" t="n">
         <v>23</v>
@@ -4756,7 +4756,7 @@
         <v>67</v>
       </c>
       <c r="AJ35" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
@@ -4824,10 +4824,10 @@
         <v>2.75</v>
       </c>
       <c r="R36" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S36" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T36" t="n">
         <v>7</v>
@@ -4946,10 +4946,10 @@
         <v>3</v>
       </c>
       <c r="R37" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S37" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T37" t="n">
         <v>7.5</v>
@@ -5035,19 +5035,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H38" t="n">
         <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J38" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L38" t="n">
         <v>1.2</v>
@@ -5068,7 +5068,7 @@
         <v>3.25</v>
       </c>
       <c r="R38" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S38" t="n">
         <v>2.25</v>
@@ -5077,10 +5077,10 @@
         <v>13</v>
       </c>
       <c r="U38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W38" t="n">
         <v>41</v>
@@ -5116,7 +5116,7 @@
         <v>9</v>
       </c>
       <c r="AH38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI38" t="n">
         <v>15</v>
@@ -5157,13 +5157,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="H39" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I39" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J39" t="n">
         <v>1.15</v>
@@ -5175,52 +5175,52 @@
         <v>1.65</v>
       </c>
       <c r="M39" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="N39" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="O39" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P39" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R39" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="S39" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="T39" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="U39" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="V39" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="W39" t="n">
         <v>21</v>
       </c>
       <c r="X39" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y39" t="n">
         <v>60</v>
       </c>
       <c r="Z39" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AB39" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC39" t="n">
         <v>200</v>
@@ -5229,19 +5229,19 @@
         <v>101</v>
       </c>
       <c r="AE39" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AF39" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG39" t="n">
         <v>15</v>
       </c>
       <c r="AH39" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI39" t="n">
         <v>55</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>50</v>
       </c>
       <c r="AJ39" t="n">
         <v>90</v>
@@ -5279,94 +5279,94 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="H40" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="I40" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J40" t="n">
         <v>1.11</v>
       </c>
       <c r="K40" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="L40" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O40" t="n">
         <v>1.5</v>
       </c>
-      <c r="M40" t="n">
+      <c r="P40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q40" t="n">
         <v>2.27</v>
       </c>
-      <c r="N40" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.2</v>
-      </c>
       <c r="R40" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="S40" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T40" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="U40" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="V40" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="W40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y40" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z40" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="AA40" t="n">
         <v>5.8</v>
       </c>
       <c r="AB40" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC40" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AD40" t="n">
         <v>101</v>
       </c>
       <c r="AE40" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AF40" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI40" t="n">
         <v>37</v>
       </c>
       <c r="AJ40" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41">
@@ -5401,55 +5401,55 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K41" t="n">
+        <v>10</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M41" t="n">
         <v>3.4</v>
       </c>
-      <c r="I41" t="n">
-        <v>2</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K41" t="n">
-        <v>11</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M41" t="n">
-        <v>3.5</v>
-      </c>
       <c r="N41" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O41" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P41" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R41" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V41" t="n">
         <v>12</v>
       </c>
       <c r="W41" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X41" t="n">
         <v>29</v>
@@ -5458,7 +5458,7 @@
         <v>34</v>
       </c>
       <c r="Z41" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA41" t="n">
         <v>6.5</v>
@@ -5470,10 +5470,10 @@
         <v>51</v>
       </c>
       <c r="AD41" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE41" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF41" t="n">
         <v>10</v>
@@ -5488,7 +5488,7 @@
         <v>17</v>
       </c>
       <c r="AJ41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ41"/>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,31 +647,31 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="J2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
         <v>1.33</v>
@@ -680,10 +680,10 @@
         <v>3.25</v>
       </c>
       <c r="R2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.8</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.95</v>
       </c>
       <c r="T2" t="n">
         <v>21</v>
@@ -695,7 +695,7 @@
         <v>23</v>
       </c>
       <c r="W2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="X2" t="n">
         <v>51</v>
@@ -704,25 +704,25 @@
         <v>51</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
         <v>8.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD2" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG2" t="n">
         <v>9</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
@@ -930,10 +930,10 @@
         <v>1.7</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V4" t="n">
         <v>11</v>
@@ -969,13 +969,13 @@
         <v>13</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
         <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1040,16 +1040,16 @@
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R5" t="n">
         <v>2.75</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T5" t="n">
         <v>5.5</v>
@@ -1171,7 +1171,7 @@
         <v>2.2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T6" t="n">
         <v>6</v>
@@ -1293,7 +1293,7 @@
         <v>2.25</v>
       </c>
       <c r="S7" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T7" t="n">
         <v>5.5</v>
@@ -1406,7 +1406,7 @@
         <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Q8" t="n">
         <v>2.2</v>
@@ -1415,7 +1415,7 @@
         <v>2.25</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T8" t="n">
         <v>7</v>
@@ -1528,16 +1528,16 @@
         <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Q9" t="n">
         <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="S9" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T9" t="n">
         <v>4.5</v>
@@ -1650,7 +1650,7 @@
         <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Q10" t="n">
         <v>2.1</v>
@@ -1659,7 +1659,7 @@
         <v>2.5</v>
       </c>
       <c r="S10" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1778,10 +1778,10 @@
         <v>2.08</v>
       </c>
       <c r="R11" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T11" t="n">
         <v>4.75</v>
@@ -1989,19 +1989,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L13" t="n">
         <v>1.36</v>
@@ -2010,10 +2010,10 @@
         <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P13" t="n">
         <v>1.5</v>
@@ -2028,13 +2028,13 @@
         <v>1.8</v>
       </c>
       <c r="T13" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="U13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W13" t="n">
         <v>41</v>
@@ -2046,19 +2046,19 @@
         <v>41</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC13" t="n">
         <v>51</v>
       </c>
       <c r="AD13" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE13" t="n">
         <v>6.5</v>
@@ -2076,7 +2076,7 @@
         <v>17</v>
       </c>
       <c r="AJ13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H14" t="n">
         <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
         <v>1.08</v>
@@ -2192,7 +2192,7 @@
         <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI14" t="n">
         <v>29</v>
@@ -2233,19 +2233,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H15" t="n">
         <v>3.75</v>
       </c>
       <c r="I15" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L15" t="n">
         <v>1.29</v>
@@ -2254,10 +2254,10 @@
         <v>3.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O15" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="P15" t="n">
         <v>1.4</v>
@@ -2266,37 +2266,37 @@
         <v>2.75</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S15" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U15" t="n">
         <v>29</v>
       </c>
       <c r="V15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="X15" t="n">
         <v>41</v>
       </c>
       <c r="Y15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA15" t="n">
         <v>7.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC15" t="n">
         <v>51</v>
@@ -2308,13 +2308,13 @@
         <v>6.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG15" t="n">
         <v>8.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI15" t="n">
         <v>13</v>
@@ -2326,7 +2326,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>W0WjLrLN</t>
+          <t>hj5X0lat</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2336,119 +2336,115 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHNL</t>
+          <t>COLOMBIA - PRIMERA B</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ostrava B</t>
+          <t>Inter Palmira</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Sigma Olomouc B</t>
+          <t>Atletico F.C.</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.05</v>
+        <v>1.39</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>4.15</v>
       </c>
       <c r="I16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K16" t="n">
-        <v>11</v>
-      </c>
+        <v>7.7</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="M16" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N16" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="P16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.75</v>
+        <v>2.42</v>
       </c>
       <c r="R16" t="n">
-        <v>1.67</v>
+        <v>2.32</v>
       </c>
       <c r="S16" t="n">
-        <v>2.1</v>
+        <v>1.47</v>
       </c>
       <c r="T16" t="n">
-        <v>8.5</v>
+        <v>5.2</v>
       </c>
       <c r="U16" t="n">
-        <v>10</v>
+        <v>5.4</v>
       </c>
       <c r="V16" t="n">
         <v>9</v>
       </c>
       <c r="W16" t="n">
-        <v>17</v>
+        <v>8.25</v>
       </c>
       <c r="X16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>200</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE16" t="n">
         <v>15</v>
       </c>
-      <c r="Y16" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>12</v>
-      </c>
       <c r="AF16" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AH16" t="n">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="AI16" t="n">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="AJ16" t="n">
-        <v>34</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Iu9iRG77</t>
+          <t>z9VdgOcU</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2458,110 +2454,106 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>COLOMBIA - PRIMERA B</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.45</v>
+        <v>4.35</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I17" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K17" t="n">
-        <v>10</v>
-      </c>
+        <v>1.78</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M17" t="n">
-        <v>3.5</v>
+        <v>2.85</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O17" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="P17" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.75</v>
+        <v>2.42</v>
       </c>
       <c r="R17" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="T17" t="n">
-        <v>8.5</v>
+        <v>11.25</v>
       </c>
       <c r="U17" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="V17" t="n">
-        <v>10</v>
+        <v>14.5</v>
       </c>
       <c r="W17" t="n">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="Y17" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="Z17" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="AA17" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AC17" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="n">
-        <v>201</v>
+        <v>700</v>
       </c>
       <c r="AE17" t="n">
-        <v>9.5</v>
+        <v>6.4</v>
       </c>
       <c r="AF17" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI17" t="n">
         <v>15</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>23</v>
       </c>
       <c r="AJ17" t="n">
         <v>29</v>
@@ -2570,7 +2562,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>hzNvz3qA</t>
+          <t>W0WjLrLN</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2580,115 +2572,119 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ICELAND - BESTA DEILD KARLA</t>
+          <t>CZECH REPUBLIC - CHNL</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Vikingur Reykjavik</t>
+          <t>Ostrava B</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vestmannaeyjar</t>
+          <t>Sigma Olomouc B</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.28</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>3.75</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K18" t="n">
+        <v>11</v>
+      </c>
       <c r="L18" t="n">
-        <v>1.09</v>
+        <v>1.29</v>
       </c>
       <c r="M18" t="n">
-        <v>6.1</v>
+        <v>3.5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.31</v>
+        <v>1.93</v>
       </c>
       <c r="O18" t="n">
-        <v>3.15</v>
+        <v>1.88</v>
       </c>
       <c r="P18" t="n">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.15</v>
+        <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="S18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T18" t="n">
-        <v>12.5</v>
+        <v>8.5</v>
       </c>
       <c r="U18" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="V18" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W18" t="n">
-        <v>9.75</v>
+        <v>19</v>
       </c>
       <c r="X18" t="n">
-        <v>9.75</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="Z18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI18" t="n">
         <v>29</v>
       </c>
-      <c r="AA18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>250</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>37</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>200</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>75</v>
-      </c>
       <c r="AJ18" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EkBmYtEM</t>
+          <t>Iu9iRG77</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2698,119 +2694,119 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ICELAND - BESTA DEILD KARLA</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Stjarnan</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Hafnarfjordur</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="H19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K19" t="n">
+        <v>11</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M19" t="n">
         <v>3.5</v>
       </c>
-      <c r="I19" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="N19" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>12</v>
+      </c>
+      <c r="V19" t="n">
         <v>9.5</v>
       </c>
-      <c r="L19" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="U19" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="V19" t="n">
-        <v>9</v>
-      </c>
       <c r="W19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X19" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="Z19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE19" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA19" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>120</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
         <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AI19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ19" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ry8U1nfA</t>
+          <t>hzNvz3qA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2820,119 +2816,115 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>ICELAND - BESTA DEILD KARLA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Vikingur Reykjavik</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>H. Beer Sheva</t>
+          <t>Vestmannaeyjar</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.55</v>
+        <v>1.24</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="I20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K20" t="n">
-        <v>15</v>
-      </c>
+        <v>9.75</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="M20" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="N20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="R20" t="n">
         <v>1.6</v>
       </c>
-      <c r="O20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.53</v>
-      </c>
       <c r="S20" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="T20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U20" t="n">
-        <v>15</v>
+        <v>9.25</v>
       </c>
       <c r="V20" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="W20" t="n">
-        <v>29</v>
+        <v>9.5</v>
       </c>
       <c r="X20" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y20" t="n">
         <v>19</v>
       </c>
-      <c r="Y20" t="n">
-        <v>23</v>
-      </c>
       <c r="Z20" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AA20" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AB20" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AD20" t="n">
-        <v>126</v>
+        <v>300</v>
       </c>
       <c r="AE20" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AF20" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.5</v>
+        <v>30</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>300</v>
       </c>
       <c r="AI20" t="n">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>v1lFWIGb</t>
+          <t>EkBmYtEM</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2942,119 +2934,119 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>ICELAND - BESTA DEILD KARLA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>Stjarnan</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Sakhnin</t>
+          <t>Hafnarfjordur</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.45</v>
+        <v>2.18</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="I21" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="J21" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="K21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="T21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="V21" t="n">
         <v>9</v>
       </c>
-      <c r="L21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M21" t="n">
-        <v>3</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T21" t="n">
-        <v>8</v>
-      </c>
-      <c r="U21" t="n">
-        <v>12</v>
-      </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
+        <v>25</v>
+      </c>
+      <c r="X21" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB21" t="n">
         <v>10</v>
       </c>
-      <c r="W21" t="n">
+      <c r="AC21" t="n">
         <v>26</v>
       </c>
-      <c r="X21" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>51</v>
-      </c>
       <c r="AD21" t="n">
-        <v>301</v>
+        <v>120</v>
       </c>
       <c r="AE21" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AI21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>34</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>vu5GggKt</t>
+          <t>ry8U1nfA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3064,119 +3056,119 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ITALY - SERIE C</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>AlbinoLeffe</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Pro Vercelli</t>
+          <t>H. Beer Sheva</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.78</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="J22" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="K22" t="n">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="L22" t="n">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
       <c r="M22" t="n">
-        <v>2.32</v>
+        <v>5</v>
       </c>
       <c r="N22" t="n">
-        <v>2.55</v>
+        <v>1.54</v>
       </c>
       <c r="O22" t="n">
-        <v>1.45</v>
+        <v>2.35</v>
       </c>
       <c r="P22" t="n">
-        <v>1.6</v>
+        <v>1.29</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.22</v>
+        <v>3.5</v>
       </c>
       <c r="R22" t="n">
-        <v>2.37</v>
+        <v>1.47</v>
       </c>
       <c r="S22" t="n">
-        <v>1.52</v>
+        <v>2.5</v>
       </c>
       <c r="T22" t="n">
-        <v>4.85</v>
+        <v>13</v>
       </c>
       <c r="U22" t="n">
-        <v>6.8</v>
+        <v>17</v>
       </c>
       <c r="V22" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="W22" t="n">
-        <v>13.5</v>
+        <v>29</v>
       </c>
       <c r="X22" t="n">
         <v>19</v>
       </c>
       <c r="Y22" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="Z22" t="n">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="AA22" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AC22" t="n">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="AD22" t="n">
         <v>101</v>
       </c>
       <c r="AE22" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH22" t="n">
         <v>23</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AI22" t="n">
         <v>17</v>
       </c>
-      <c r="AH22" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>65</v>
-      </c>
       <c r="AJ22" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>hlWcyC4C</t>
+          <t>v1lFWIGb</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3186,119 +3178,119 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ITALY - SERIE C</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>Hapoel Hadera</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Sakhnin</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="H23" t="n">
-        <v>3.95</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>7.7</v>
+        <v>2.75</v>
       </c>
       <c r="J23" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K23" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M23" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O23" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="P23" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R23" t="n">
-        <v>2.37</v>
+        <v>1.8</v>
       </c>
       <c r="S23" t="n">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
       <c r="T23" t="n">
-        <v>5.2</v>
+        <v>8</v>
       </c>
       <c r="U23" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="V23" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="W23" t="n">
+        <v>26</v>
+      </c>
+      <c r="X23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z23" t="n">
         <v>8.5</v>
       </c>
-      <c r="X23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AA23" t="n">
-        <v>8.25</v>
+        <v>6</v>
       </c>
       <c r="AB23" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="AD23" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="AE23" t="n">
-        <v>15.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="AG23" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="AI23" t="n">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="AJ23" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>YcxfpYOh</t>
+          <t>vu5GggKt</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3318,109 +3310,109 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Giugliano</t>
+          <t>AlbinoLeffe</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Pro Vercelli</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N24" t="n">
         <v>2.55</v>
       </c>
-      <c r="H24" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M24" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.12</v>
-      </c>
       <c r="O24" t="n">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="P24" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="R24" t="n">
-        <v>1.88</v>
+        <v>2.37</v>
       </c>
       <c r="S24" t="n">
-        <v>1.82</v>
+        <v>1.52</v>
       </c>
       <c r="T24" t="n">
-        <v>7.5</v>
+        <v>4.85</v>
       </c>
       <c r="U24" t="n">
-        <v>12</v>
+        <v>6.8</v>
       </c>
       <c r="V24" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="W24" t="n">
-        <v>28</v>
+        <v>13.5</v>
       </c>
       <c r="X24" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>175</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF24" t="n">
         <v>23</v>
       </c>
-      <c r="Y24" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC24" t="n">
+      <c r="AG24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH24" t="n">
         <v>80</v>
       </c>
-      <c r="AD24" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>28</v>
-      </c>
       <c r="AI24" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AJ24" t="n">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>jw3zxCYg</t>
+          <t>hlWcyC4C</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3430,119 +3422,119 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>ITALY - SERIE C</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rakow</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="G25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T25" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="U25" t="n">
         <v>5.5</v>
       </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K25" t="n">
-        <v>11</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T25" t="n">
-        <v>13</v>
-      </c>
-      <c r="U25" t="n">
-        <v>29</v>
-      </c>
       <c r="V25" t="n">
-        <v>17</v>
+        <v>8.75</v>
       </c>
       <c r="W25" t="n">
-        <v>51</v>
+        <v>8.5</v>
       </c>
       <c r="X25" t="n">
-        <v>41</v>
+        <v>13.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="Z25" t="n">
-        <v>10</v>
+        <v>6.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB25" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AC25" t="n">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="AD25" t="n">
-        <v>451</v>
+        <v>101</v>
       </c>
       <c r="AE25" t="n">
-        <v>6</v>
+        <v>15.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="AG25" t="n">
-        <v>8.5</v>
+        <v>27</v>
       </c>
       <c r="AH25" t="n">
-        <v>11</v>
+        <v>250</v>
       </c>
       <c r="AI25" t="n">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="AJ25" t="n">
-        <v>29</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AsEjSvAM</t>
+          <t>YcxfpYOh</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3552,119 +3544,119 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>ITALY - SERIE C</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>Giugliano</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.35</v>
+        <v>2.62</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="J26" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K26" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="M26" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="N26" t="n">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="O26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P26" t="n">
         <v>1.5</v>
       </c>
-      <c r="P26" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q26" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="S26" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="T26" t="n">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="U26" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="V26" t="n">
         <v>10</v>
       </c>
       <c r="W26" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="X26" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y26" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Z26" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AA26" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC26" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="n">
-        <v>451</v>
+        <v>700</v>
       </c>
       <c r="AE26" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AF26" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AI26" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AJ26" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t2MZVMAc</t>
+          <t>jw3zxCYg</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3674,119 +3666,119 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Puszcza</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Rakow</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="H27" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>4.75</v>
+        <v>1.57</v>
       </c>
       <c r="J27" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K27" t="n">
+        <v>11</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T27" t="n">
+        <v>13</v>
+      </c>
+      <c r="U27" t="n">
+        <v>29</v>
+      </c>
+      <c r="V27" t="n">
+        <v>17</v>
+      </c>
+      <c r="W27" t="n">
+        <v>51</v>
+      </c>
+      <c r="X27" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z27" t="n">
         <v>10</v>
       </c>
-      <c r="L27" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M27" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="U27" t="n">
-        <v>8</v>
-      </c>
-      <c r="V27" t="n">
+      <c r="AA27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>451</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG27" t="n">
         <v>8.5</v>
       </c>
-      <c r="W27" t="n">
-        <v>15</v>
-      </c>
-      <c r="X27" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y27" t="n">
+      <c r="AH27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>29</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>xUFrU0uA</t>
+          <t>AsEjSvAM</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3796,7 +3788,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3806,109 +3798,109 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.36</v>
+        <v>2.3</v>
       </c>
       <c r="H28" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="J28" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="K28" t="n">
+        <v>7</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>10</v>
+      </c>
+      <c r="V28" t="n">
+        <v>10</v>
+      </c>
+      <c r="W28" t="n">
+        <v>21</v>
+      </c>
+      <c r="X28" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>451</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG28" t="n">
         <v>13</v>
       </c>
-      <c r="L28" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M28" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N28" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="O28" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="U28" t="n">
-        <v>7</v>
-      </c>
-      <c r="V28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W28" t="n">
-        <v>9</v>
-      </c>
-      <c r="X28" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>301</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF28" t="n">
+      <c r="AH28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>41</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>101</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>xjwM7eAm</t>
+          <t>t2MZVMAc</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3918,50 +3910,50 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ROMANIA - SUPERLIGA</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="H29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M29" t="n">
         <v>3.5</v>
       </c>
-      <c r="I29" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K29" t="n">
-        <v>11</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M29" t="n">
-        <v>3.75</v>
-      </c>
       <c r="N29" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="O29" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="P29" t="n">
         <v>1.4</v>
@@ -3970,67 +3962,67 @@
         <v>2.75</v>
       </c>
       <c r="R29" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="S29" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="T29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U29" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="V29" t="n">
         <v>8.5</v>
       </c>
       <c r="W29" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="X29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC29" t="n">
         <v>51</v>
       </c>
       <c r="AD29" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG29" t="n">
         <v>15</v>
       </c>
-      <c r="AF29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>19</v>
-      </c>
       <c r="AH29" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI29" t="n">
         <v>41</v>
       </c>
       <c r="AJ29" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>v3muhopm</t>
+          <t>xUFrU0uA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4040,89 +4032,89 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ROMANIA - SUPERLIGA</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Univ. Craiova</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.95</v>
+        <v>1.33</v>
       </c>
       <c r="H30" t="n">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="I30" t="n">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="J30" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K30" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L30" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="M30" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="N30" t="n">
-        <v>2.07</v>
+        <v>1.67</v>
       </c>
       <c r="O30" t="n">
-        <v>1.69</v>
+        <v>2.15</v>
       </c>
       <c r="P30" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="R30" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="S30" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="T30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U30" t="n">
         <v>7</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W30" t="n">
         <v>9</v>
       </c>
-      <c r="V30" t="n">
+      <c r="X30" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA30" t="n">
         <v>9</v>
       </c>
-      <c r="W30" t="n">
-        <v>17</v>
-      </c>
-      <c r="X30" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AB30" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AC30" t="n">
         <v>51</v>
@@ -4131,28 +4123,28 @@
         <v>301</v>
       </c>
       <c r="AE30" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AF30" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AH30" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AI30" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AJ30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GldEaJFd</t>
+          <t>xjwM7eAm</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4162,119 +4154,119 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>ROMANIA - SUPERLIGA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="H31" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>3.7</v>
+        <v>5.25</v>
       </c>
       <c r="J31" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K31" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L31" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="M31" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="N31" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="O31" t="n">
-        <v>1.78</v>
+        <v>2.03</v>
       </c>
       <c r="P31" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.57</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S31" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="T31" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="U31" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="V31" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W31" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="X31" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Y31" t="n">
         <v>26</v>
       </c>
       <c r="Z31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA31" t="n">
         <v>7</v>
       </c>
-      <c r="AA31" t="n">
-        <v>6.2</v>
-      </c>
       <c r="AB31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC31" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="AE31" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AH31" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AI31" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AJ31" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cjf73mYR</t>
+          <t>v3muhopm</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4284,119 +4276,119 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>ROMANIA - SUPERLIGA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Univ. Craiova</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>5.7</v>
+        <v>1.92</v>
       </c>
       <c r="H32" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="I32" t="n">
-        <v>1.52</v>
+        <v>3.6</v>
       </c>
       <c r="J32" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K32" t="n">
-        <v>6.7</v>
+        <v>10</v>
       </c>
       <c r="L32" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M32" t="n">
-        <v>2.87</v>
+        <v>3.25</v>
       </c>
       <c r="N32" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O32" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="P32" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="R32" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="S32" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="T32" t="n">
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="U32" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="V32" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="W32" t="n">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="X32" t="n">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="Y32" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="Z32" t="n">
-        <v>6.7</v>
+        <v>9</v>
       </c>
       <c r="AA32" t="n">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AC32" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AD32" t="n">
-        <v>900</v>
+        <v>301</v>
       </c>
       <c r="AE32" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="AF32" t="n">
-        <v>6.2</v>
+        <v>19</v>
       </c>
       <c r="AG32" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AH32" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="AI32" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AJ32" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>rB2j7VY2</t>
+          <t>GldEaJFd</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4416,58 +4408,58 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H33" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I33" t="n">
         <v>3.7</v>
       </c>
       <c r="J33" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K33" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="L33" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="M33" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="N33" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="R33" t="n">
         <v>1.75</v>
       </c>
-      <c r="O33" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.65</v>
-      </c>
       <c r="S33" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="T33" t="n">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="U33" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="V33" t="n">
         <v>8.25</v>
@@ -4476,28 +4468,28 @@
         <v>18</v>
       </c>
       <c r="X33" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB33" t="n">
         <v>14</v>
       </c>
-      <c r="Y33" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AC33" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AD33" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="AE33" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AF33" t="n">
         <v>21</v>
@@ -4506,19 +4498,19 @@
         <v>12.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI33" t="n">
         <v>35</v>
       </c>
       <c r="AJ33" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ryb61uop</t>
+          <t>Cjf73mYR</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4538,109 +4530,109 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.55</v>
+        <v>6.1</v>
       </c>
       <c r="H34" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I34" t="n">
-        <v>4.9</v>
+        <v>1.47</v>
       </c>
       <c r="J34" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K34" t="n">
-        <v>8.25</v>
+        <v>7</v>
       </c>
       <c r="L34" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="M34" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="N34" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" t="n">
         <v>1.72</v>
       </c>
-      <c r="O34" t="n">
-        <v>2.02</v>
-      </c>
       <c r="P34" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.92</v>
+        <v>2.77</v>
       </c>
       <c r="R34" t="n">
-        <v>1.8</v>
+        <v>2.18</v>
       </c>
       <c r="S34" t="n">
-        <v>1.91</v>
+        <v>1.6</v>
       </c>
       <c r="T34" t="n">
-        <v>7.4</v>
+        <v>13.5</v>
       </c>
       <c r="U34" t="n">
-        <v>7.6</v>
+        <v>37</v>
       </c>
       <c r="V34" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="W34" t="n">
-        <v>11.25</v>
+        <v>150</v>
       </c>
       <c r="X34" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="n">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="Z34" t="n">
-        <v>8.25</v>
+        <v>7</v>
       </c>
       <c r="AA34" t="n">
         <v>7.9</v>
       </c>
       <c r="AB34" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AC34" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AD34" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AE34" t="n">
-        <v>14.5</v>
+        <v>5.6</v>
       </c>
       <c r="AF34" t="n">
-        <v>30</v>
+        <v>6.1</v>
       </c>
       <c r="AG34" t="n">
-        <v>16.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>90</v>
+        <v>9.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>50</v>
+        <v>13.5</v>
       </c>
       <c r="AJ34" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GbTo2nAc</t>
+          <t>rB2j7VY2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4650,119 +4642,119 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.4</v>
+        <v>1.78</v>
       </c>
       <c r="H35" t="n">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="I35" t="n">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="J35" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K35" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T35" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="U35" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="V35" t="n">
         <v>8</v>
       </c>
-      <c r="L35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M35" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="T35" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="U35" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="V35" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W35" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="X35" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y35" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="Z35" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AA35" t="n">
-        <v>9.5</v>
+        <v>6.7</v>
       </c>
       <c r="AB35" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AC35" t="n">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="AD35" t="n">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="AE35" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF35" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="AG35" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="AI35" t="n">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="AJ35" t="n">
-        <v>81</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>OMX2dTOa</t>
+          <t>ryb61uop</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4772,119 +4764,119 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H36" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I36" t="n">
-        <v>4.75</v>
+        <v>4.45</v>
       </c>
       <c r="J36" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K36" t="n">
-        <v>11</v>
+        <v>8.25</v>
       </c>
       <c r="L36" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="M36" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="N36" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="O36" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="P36" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.75</v>
+        <v>2.92</v>
       </c>
       <c r="R36" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="S36" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="T36" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="U36" t="n">
         <v>8</v>
       </c>
       <c r="V36" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W36" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X36" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z36" t="n">
-        <v>11</v>
+        <v>8.25</v>
       </c>
       <c r="AA36" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AB36" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AD36" t="n">
-        <v>301</v>
+        <v>500</v>
       </c>
       <c r="AE36" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF36" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AG36" t="n">
         <v>15</v>
       </c>
       <c r="AH36" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AI36" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ36" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>QgQq4RZo</t>
+          <t>GbTo2nAc</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4894,119 +4886,119 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G37" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K37" t="n">
+        <v>10</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O37" t="n">
         <v>1.65</v>
       </c>
-      <c r="H37" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I37" t="n">
-        <v>5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K37" t="n">
-        <v>13</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M37" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N37" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="O37" t="n">
-        <v>2</v>
-      </c>
       <c r="P37" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R37" t="n">
-        <v>1.77</v>
+        <v>2.75</v>
       </c>
       <c r="S37" t="n">
-        <v>1.87</v>
+        <v>1.4</v>
       </c>
       <c r="T37" t="n">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="U37" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W37" t="n">
         <v>8</v>
       </c>
-      <c r="V37" t="n">
+      <c r="X37" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z37" t="n">
         <v>8.5</v>
       </c>
-      <c r="W37" t="n">
-        <v>13</v>
-      </c>
-      <c r="X37" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>12</v>
-      </c>
       <c r="AA37" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AB37" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AC37" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AD37" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AE37" t="n">
         <v>13</v>
       </c>
       <c r="AF37" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AH37" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AI37" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AJ37" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EFdRopKH</t>
+          <t>OMX2dTOa</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5016,119 +5008,119 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.6</v>
+        <v>1.66</v>
       </c>
       <c r="H38" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I38" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K38" t="n">
+        <v>11</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O38" t="n">
         <v>1.95</v>
       </c>
-      <c r="J38" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="P38" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T38" t="n">
+        <v>7</v>
+      </c>
+      <c r="U38" t="n">
+        <v>8</v>
+      </c>
+      <c r="V38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W38" t="n">
+        <v>13</v>
+      </c>
+      <c r="X38" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG38" t="n">
         <v>15</v>
       </c>
-      <c r="L38" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M38" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O38" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S38" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T38" t="n">
-        <v>13</v>
-      </c>
-      <c r="U38" t="n">
-        <v>21</v>
-      </c>
-      <c r="V38" t="n">
-        <v>13</v>
-      </c>
-      <c r="W38" t="n">
+      <c r="AH38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI38" t="n">
         <v>41</v>
       </c>
-      <c r="X38" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC38" t="n">
+      <c r="AJ38" t="n">
         <v>41</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>126</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>zsRShygC</t>
+          <t>QgQq4RZo</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5138,119 +5130,119 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="H39" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="I39" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="K39" t="n">
-        <v>4.2</v>
+        <v>13</v>
       </c>
       <c r="L39" t="n">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="N39" t="n">
-        <v>2.8</v>
+        <v>1.83</v>
       </c>
       <c r="O39" t="n">
-        <v>1.33</v>
+        <v>2.03</v>
       </c>
       <c r="P39" t="n">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.02</v>
+        <v>3</v>
       </c>
       <c r="R39" t="n">
-        <v>2.32</v>
+        <v>1.8</v>
       </c>
       <c r="S39" t="n">
-        <v>1.47</v>
+        <v>1.91</v>
       </c>
       <c r="T39" t="n">
-        <v>4.9</v>
+        <v>7.5</v>
       </c>
       <c r="U39" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="V39" t="n">
-        <v>10.25</v>
+        <v>8.5</v>
       </c>
       <c r="W39" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="X39" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Y39" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="Z39" t="n">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="AA39" t="n">
-        <v>5.9</v>
+        <v>7.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AC39" t="n">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="AD39" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="AE39" t="n">
-        <v>7.1</v>
+        <v>13</v>
       </c>
       <c r="AF39" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="AG39" t="n">
         <v>15</v>
       </c>
       <c r="AH39" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AI39" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AJ39" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Usq1zTxo</t>
+          <t>EFdRopKH</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5260,234 +5252,478 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Polissya Zhytomyr</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Karpaty Lviv</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K40" t="n">
+        <v>15</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O40" t="n">
         <v>2.2</v>
       </c>
-      <c r="H40" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="I40" t="n">
+      <c r="P40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q40" t="n">
         <v>3.4</v>
       </c>
-      <c r="J40" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K40" t="n">
-        <v>6</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M40" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="N40" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.27</v>
-      </c>
       <c r="R40" t="n">
-        <v>1.98</v>
+        <v>1.57</v>
       </c>
       <c r="S40" t="n">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="T40" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="U40" t="n">
+        <v>21</v>
+      </c>
+      <c r="V40" t="n">
+        <v>13</v>
+      </c>
+      <c r="W40" t="n">
+        <v>41</v>
+      </c>
+      <c r="X40" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE40" t="n">
         <v>9.5</v>
       </c>
-      <c r="V40" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="W40" t="n">
+      <c r="AF40" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ40" t="n">
         <v>21</v>
-      </c>
-      <c r="X40" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>37</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>zsRShygC</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>07/04/2025</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Kolos Kovalivka</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Rukh Lviv</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T41" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="U41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W41" t="n">
+        <v>21</v>
+      </c>
+      <c r="X41" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>200</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Usq1zTxo</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>07/04/2025</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Polissya Zhytomyr</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Karpaty Lviv</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K42" t="n">
+        <v>6</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T42" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U42" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="V42" t="n">
+        <v>9</v>
+      </c>
+      <c r="W42" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="X42" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>CAbq695m</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>07/04/2025</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>Wanderers</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Defensor Sp.</t>
         </is>
       </c>
-      <c r="G41" t="n">
+      <c r="G43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H43" t="n">
         <v>3.3</v>
       </c>
-      <c r="H41" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J41" t="n">
+      <c r="I43" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J43" t="n">
         <v>1.06</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K43" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T43" t="n">
         <v>10</v>
       </c>
-      <c r="L41" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M41" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N41" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T41" t="n">
+      <c r="U43" t="n">
+        <v>17</v>
+      </c>
+      <c r="V43" t="n">
+        <v>12</v>
+      </c>
+      <c r="W43" t="n">
+        <v>41</v>
+      </c>
+      <c r="X43" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF43" t="n">
         <v>10</v>
       </c>
-      <c r="U41" t="n">
+      <c r="AG43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI43" t="n">
         <v>17</v>
       </c>
-      <c r="V41" t="n">
-        <v>12</v>
-      </c>
-      <c r="W41" t="n">
-        <v>34</v>
-      </c>
-      <c r="X41" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ41" t="n">
+      <c r="AJ43" t="n">
         <v>29</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
@@ -647,31 +647,31 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
         <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P2" t="n">
         <v>1.33</v>
@@ -692,7 +692,7 @@
         <v>41</v>
       </c>
       <c r="V2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="W2" t="n">
         <v>101</v>
@@ -707,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB2" t="n">
         <v>21</v>
@@ -725,7 +725,7 @@
         <v>7.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH2" t="n">
         <v>11</v>
@@ -1013,19 +1013,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="J5" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>1.83</v>
@@ -1040,22 +1040,22 @@
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
         <v>2.75</v>
       </c>
       <c r="S5" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V5" t="n">
         <v>15</v>
@@ -1070,7 +1070,7 @@
         <v>67</v>
       </c>
       <c r="Z5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AA5" t="n">
         <v>6.5</v>
@@ -1085,19 +1085,19 @@
         <v>101</v>
       </c>
       <c r="AE5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AF5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI5" t="n">
         <v>29</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>34</v>
       </c>
       <c r="AJ5" t="n">
         <v>51</v>
@@ -1135,19 +1135,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I6" t="n">
         <v>3</v>
       </c>
-      <c r="I6" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J6" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
         <v>1.53</v>
@@ -1171,19 +1171,19 @@
         <v>2.2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T6" t="n">
         <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V6" t="n">
         <v>11</v>
       </c>
       <c r="W6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X6" t="n">
         <v>26</v>
@@ -1219,7 +1219,7 @@
         <v>34</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
         <v>41</v>
@@ -1266,22 +1266,22 @@
         <v>4.33</v>
       </c>
       <c r="J7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N7" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
         <v>1.62</v>
@@ -1293,16 +1293,16 @@
         <v>2.25</v>
       </c>
       <c r="S7" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U7" t="n">
         <v>8</v>
       </c>
       <c r="V7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W7" t="n">
         <v>17</v>
@@ -1335,7 +1335,7 @@
         <v>19</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
         <v>51</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
         <v>2.8</v>
       </c>
       <c r="I8" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J8" t="n">
         <v>1.14</v>
@@ -1415,7 +1415,7 @@
         <v>2.25</v>
       </c>
       <c r="S8" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T8" t="n">
         <v>7</v>
@@ -1439,7 +1439,7 @@
         <v>5.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB8" t="n">
         <v>19</v>
@@ -1454,13 +1454,13 @@
         <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
         <v>26</v>
@@ -1501,10 +1501,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
         <v>5.5</v>
@@ -1522,10 +1522,10 @@
         <v>2.25</v>
       </c>
       <c r="N9" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
         <v>1.62</v>
@@ -1534,13 +1534,13 @@
         <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="S9" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="U9" t="n">
         <v>6.5</v>
@@ -1549,10 +1549,10 @@
         <v>10</v>
       </c>
       <c r="W9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
         <v>41</v>
@@ -1659,7 +1659,7 @@
         <v>2.5</v>
       </c>
       <c r="S10" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1778,10 +1778,10 @@
         <v>2.08</v>
       </c>
       <c r="R11" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="S11" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
         <v>4.75</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J12" t="n">
         <v>1.06</v>
@@ -1888,10 +1888,10 @@
         <v>3.25</v>
       </c>
       <c r="N12" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O12" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P12" t="n">
         <v>1.44</v>
@@ -1900,10 +1900,10 @@
         <v>2.63</v>
       </c>
       <c r="R12" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T12" t="n">
         <v>6.5</v>
@@ -1924,7 +1924,7 @@
         <v>29</v>
       </c>
       <c r="Z12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA12" t="n">
         <v>6.5</v>
@@ -1936,10 +1936,10 @@
         <v>51</v>
       </c>
       <c r="AD12" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H13" t="n">
         <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J13" t="n">
         <v>1.08</v>
@@ -2010,16 +2010,16 @@
         <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P13" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R13" t="n">
         <v>1.91</v>
@@ -2064,7 +2064,7 @@
         <v>6.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG13" t="n">
         <v>9</v>
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H14" t="n">
         <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J14" t="n">
         <v>1.08</v>
@@ -2132,10 +2132,10 @@
         <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P14" t="n">
         <v>1.5</v>
@@ -2153,13 +2153,13 @@
         <v>7</v>
       </c>
       <c r="U14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V14" t="n">
         <v>9.5</v>
       </c>
       <c r="W14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X14" t="n">
         <v>19</v>
@@ -2192,10 +2192,10 @@
         <v>13</v>
       </c>
       <c r="AH14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI14" t="n">
         <v>34</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>29</v>
       </c>
       <c r="AJ14" t="n">
         <v>41</v>
@@ -2233,7 +2233,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H15" t="n">
         <v>3.75</v>
@@ -2242,10 +2242,10 @@
         <v>1.6</v>
       </c>
       <c r="J15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L15" t="n">
         <v>1.29</v>
@@ -2254,10 +2254,10 @@
         <v>3.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O15" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P15" t="n">
         <v>1.4</v>
@@ -2272,7 +2272,7 @@
         <v>1.8</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U15" t="n">
         <v>29</v>
@@ -2302,7 +2302,7 @@
         <v>51</v>
       </c>
       <c r="AD15" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE15" t="n">
         <v>6.5</v>
@@ -2320,7 +2320,7 @@
         <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
@@ -2361,39 +2361,39 @@
         <v>4.15</v>
       </c>
       <c r="I16" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M16" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O16" t="n">
         <v>1.65</v>
       </c>
       <c r="P16" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="R16" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="S16" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T16" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="U16" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="V16" t="n">
         <v>9</v>
@@ -2402,40 +2402,40 @@
         <v>8.25</v>
       </c>
       <c r="X16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA16" t="n">
         <v>8.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC16" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AD16" t="n">
         <v>101</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF16" t="n">
         <v>45</v>
       </c>
       <c r="AG16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH16" t="n">
         <v>200</v>
       </c>
       <c r="AI16" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ16" t="n">
         <v>120</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="H17" t="n">
         <v>3.35</v>
@@ -2541,7 +2541,7 @@
         <v>700</v>
       </c>
       <c r="AE17" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AF17" t="n">
         <v>7.9</v>
@@ -2591,67 +2591,67 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K18" t="n">
+        <v>10</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="n">
+        <v>8</v>
+      </c>
+      <c r="U18" t="n">
         <v>11</v>
       </c>
-      <c r="L18" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="U18" t="n">
-        <v>10</v>
-      </c>
       <c r="V18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>21</v>
+      </c>
+      <c r="X18" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z18" t="n">
         <v>9</v>
       </c>
-      <c r="W18" t="n">
-        <v>19</v>
-      </c>
-      <c r="X18" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>11</v>
-      </c>
       <c r="AA18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB18" t="n">
         <v>13</v>
@@ -2660,13 +2660,13 @@
         <v>41</v>
       </c>
       <c r="AD18" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
@@ -2713,19 +2713,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H19" t="n">
         <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J19" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L19" t="n">
         <v>1.29</v>
@@ -2734,10 +2734,10 @@
         <v>3.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="O19" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="P19" t="n">
         <v>1.4</v>
@@ -2746,7 +2746,7 @@
         <v>2.75</v>
       </c>
       <c r="R19" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S19" t="n">
         <v>2</v>
@@ -2758,13 +2758,13 @@
         <v>12</v>
       </c>
       <c r="V19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W19" t="n">
         <v>23</v>
       </c>
       <c r="X19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
         <v>29</v>
@@ -2797,10 +2797,10 @@
         <v>29</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -3075,13 +3075,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H22" t="n">
         <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J22" t="n">
         <v>1.03</v>
@@ -3090,40 +3090,40 @@
         <v>17</v>
       </c>
       <c r="L22" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N22" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="O22" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P22" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R22" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S22" t="n">
         <v>2.5</v>
       </c>
       <c r="T22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V22" t="n">
         <v>10</v>
       </c>
       <c r="W22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X22" t="n">
         <v>19</v>
@@ -3156,13 +3156,13 @@
         <v>10</v>
       </c>
       <c r="AH22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>23</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -3218,10 +3218,10 @@
         <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>
@@ -3230,10 +3230,10 @@
         <v>2.63</v>
       </c>
       <c r="R23" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S23" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T23" t="n">
         <v>8</v>
@@ -3447,16 +3447,16 @@
         <v>3.95</v>
       </c>
       <c r="I25" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K25" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="L25" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M25" t="n">
         <v>2.87</v>
@@ -3471,7 +3471,7 @@
         <v>1.47</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R25" t="n">
         <v>2.37</v>
@@ -3486,7 +3486,7 @@
         <v>5.5</v>
       </c>
       <c r="V25" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W25" t="n">
         <v>8.5</v>
@@ -3498,7 +3498,7 @@
         <v>40</v>
       </c>
       <c r="Z25" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA25" t="n">
         <v>8.25</v>
@@ -3513,7 +3513,7 @@
         <v>101</v>
       </c>
       <c r="AE25" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>50</v>
@@ -3522,7 +3522,7 @@
         <v>27</v>
       </c>
       <c r="AH25" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AI25" t="n">
         <v>120</v>
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="I27" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="J27" t="n">
         <v>1.05</v>
@@ -3700,16 +3700,16 @@
         <v>11</v>
       </c>
       <c r="L27" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N27" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="O27" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P27" t="n">
         <v>1.4</v>
@@ -3718,25 +3718,25 @@
         <v>2.75</v>
       </c>
       <c r="R27" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S27" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="T27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V27" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="W27" t="n">
+        <v>81</v>
+      </c>
+      <c r="X27" t="n">
         <v>51</v>
-      </c>
-      <c r="X27" t="n">
-        <v>41</v>
       </c>
       <c r="Y27" t="n">
         <v>51</v>
@@ -3745,28 +3745,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC27" t="n">
         <v>67</v>
       </c>
       <c r="AD27" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE27" t="n">
         <v>6</v>
       </c>
       <c r="AF27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG27" t="n">
         <v>8.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AI27" t="n">
         <v>13</v>
@@ -3807,13 +3807,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J28" t="n">
         <v>1.1</v>
@@ -3828,10 +3828,10 @@
         <v>2.63</v>
       </c>
       <c r="N28" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O28" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P28" t="n">
         <v>1.53</v>
@@ -3843,19 +3843,19 @@
         <v>2</v>
       </c>
       <c r="S28" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T28" t="n">
         <v>6.5</v>
       </c>
       <c r="U28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V28" t="n">
         <v>10</v>
       </c>
       <c r="W28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X28" t="n">
         <v>21</v>
@@ -3873,10 +3873,10 @@
         <v>17</v>
       </c>
       <c r="AC28" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD28" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE28" t="n">
         <v>8</v>
@@ -3885,7 +3885,7 @@
         <v>15</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH28" t="n">
         <v>34</v>
@@ -3929,10 +3929,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
         <v>4.75</v>
@@ -3941,7 +3941,7 @@
         <v>1.06</v>
       </c>
       <c r="K29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L29" t="n">
         <v>1.29</v>
@@ -3950,10 +3950,10 @@
         <v>3.5</v>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O29" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P29" t="n">
         <v>1.4</v>
@@ -3962,10 +3962,10 @@
         <v>2.75</v>
       </c>
       <c r="R29" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S29" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T29" t="n">
         <v>7</v>
@@ -3986,7 +3986,7 @@
         <v>26</v>
       </c>
       <c r="Z29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA29" t="n">
         <v>6.5</v>
@@ -4051,13 +4051,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="H30" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J30" t="n">
         <v>1.03</v>
@@ -4084,10 +4084,10 @@
         <v>3.4</v>
       </c>
       <c r="R30" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S30" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="T30" t="n">
         <v>7.5</v>
@@ -4099,7 +4099,7 @@
         <v>8.5</v>
       </c>
       <c r="W30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X30" t="n">
         <v>11</v>
@@ -4111,7 +4111,7 @@
         <v>13</v>
       </c>
       <c r="AA30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB30" t="n">
         <v>19</v>
@@ -4120,7 +4120,7 @@
         <v>51</v>
       </c>
       <c r="AD30" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE30" t="n">
         <v>21</v>
@@ -4132,7 +4132,7 @@
         <v>23</v>
       </c>
       <c r="AH30" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="n">
         <v>51</v>
@@ -4173,19 +4173,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H31" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I31" t="n">
         <v>5.25</v>
       </c>
       <c r="J31" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L31" t="n">
         <v>1.25</v>
@@ -4209,7 +4209,7 @@
         <v>1.8</v>
       </c>
       <c r="S31" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T31" t="n">
         <v>7.5</v>
@@ -4227,7 +4227,7 @@
         <v>13</v>
       </c>
       <c r="Y31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z31" t="n">
         <v>11</v>
@@ -4242,7 +4242,7 @@
         <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -4295,7 +4295,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H32" t="n">
         <v>3.25</v>
@@ -4316,10 +4316,10 @@
         <v>3.25</v>
       </c>
       <c r="N32" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O32" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P32" t="n">
         <v>1.44</v>
@@ -4328,10 +4328,10 @@
         <v>2.63</v>
       </c>
       <c r="R32" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S32" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T32" t="n">
         <v>7</v>
@@ -4447,31 +4447,31 @@
         <v>1.44</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="R33" t="n">
         <v>1.75</v>
       </c>
       <c r="S33" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T33" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="U33" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="V33" t="n">
         <v>8.25</v>
       </c>
       <c r="W33" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="X33" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y33" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z33" t="n">
         <v>7</v>
@@ -4480,7 +4480,7 @@
         <v>6.2</v>
       </c>
       <c r="AB33" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC33" t="n">
         <v>65</v>
@@ -4489,7 +4489,7 @@
         <v>500</v>
       </c>
       <c r="AE33" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AF33" t="n">
         <v>21</v>
@@ -4504,7 +4504,7 @@
         <v>35</v>
       </c>
       <c r="AJ33" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34">
@@ -4727,7 +4727,7 @@
         <v>13</v>
       </c>
       <c r="AC35" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD35" t="n">
         <v>350</v>
@@ -4748,7 +4748,7 @@
         <v>37</v>
       </c>
       <c r="AJ35" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36">
@@ -4798,37 +4798,37 @@
         <v>8.25</v>
       </c>
       <c r="L36" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M36" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="N36" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O36" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="P36" t="n">
         <v>1.35</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="R36" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S36" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T36" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="U36" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="V36" t="n">
         <v>8</v>
-      </c>
-      <c r="V36" t="n">
-        <v>8.25</v>
       </c>
       <c r="W36" t="n">
         <v>12.5</v>
@@ -4837,7 +4837,7 @@
         <v>12.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z36" t="n">
         <v>8.25</v>
@@ -4846,13 +4846,13 @@
         <v>7.7</v>
       </c>
       <c r="AB36" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC36" t="n">
         <v>65</v>
       </c>
       <c r="AD36" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE36" t="n">
         <v>14</v>
@@ -4905,7 +4905,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="H37" t="n">
         <v>4.75</v>
@@ -4947,10 +4947,10 @@
         <v>4.75</v>
       </c>
       <c r="U37" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W37" t="n">
         <v>8</v>
@@ -4962,7 +4962,7 @@
         <v>41</v>
       </c>
       <c r="Z37" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA37" t="n">
         <v>10</v>
@@ -4983,13 +4983,13 @@
         <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH37" t="n">
         <v>101</v>
       </c>
       <c r="AI37" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ37" t="n">
         <v>81</v>
@@ -5027,7 +5027,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
         <v>3.9</v>
@@ -5042,10 +5042,10 @@
         <v>11</v>
       </c>
       <c r="L38" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M38" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N38" t="n">
         <v>1.9</v>
@@ -5096,7 +5096,7 @@
         <v>51</v>
       </c>
       <c r="AD38" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE38" t="n">
         <v>13</v>
@@ -5149,19 +5149,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H39" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J39" t="n">
         <v>1.04</v>
       </c>
       <c r="K39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L39" t="n">
         <v>1.25</v>
@@ -5170,10 +5170,10 @@
         <v>3.75</v>
       </c>
       <c r="N39" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O39" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P39" t="n">
         <v>1.36</v>
@@ -5197,7 +5197,7 @@
         <v>8.5</v>
       </c>
       <c r="W39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X39" t="n">
         <v>13</v>
@@ -5212,7 +5212,7 @@
         <v>7.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC39" t="n">
         <v>51</v>
@@ -5221,13 +5221,13 @@
         <v>251</v>
       </c>
       <c r="AE39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF39" t="n">
         <v>26</v>
       </c>
       <c r="AG39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH39" t="n">
         <v>51</v>
@@ -5298,7 +5298,7 @@
         <v>2.2</v>
       </c>
       <c r="P40" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Q40" t="n">
         <v>3.4</v>
@@ -5393,94 +5393,94 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="H41" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="I41" t="n">
         <v>3.8</v>
       </c>
       <c r="J41" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="K41" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="L41" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="M41" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="N41" t="n">
-        <v>2.95</v>
+        <v>2.72</v>
       </c>
       <c r="O41" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="P41" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R41" t="n">
-        <v>2.42</v>
+        <v>2.15</v>
       </c>
       <c r="S41" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="T41" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="U41" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="V41" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="W41" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="X41" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y41" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="Z41" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AA41" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="AB41" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AD41" t="n">
         <v>101</v>
       </c>
       <c r="AE41" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="AF41" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AH41" t="n">
         <v>65</v>
       </c>
       <c r="AI41" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ41" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
@@ -5515,13 +5515,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I42" t="n">
-        <v>3.9</v>
+        <v>4.15</v>
       </c>
       <c r="J42" t="n">
         <v>1.11</v>
@@ -5530,16 +5530,16 @@
         <v>6</v>
       </c>
       <c r="L42" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M42" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="N42" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="O42" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P42" t="n">
         <v>1.5</v>
@@ -5557,25 +5557,25 @@
         <v>5.5</v>
       </c>
       <c r="U42" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="V42" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W42" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="X42" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y42" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z42" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA42" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB42" t="n">
         <v>18.5</v>
@@ -5587,22 +5587,22 @@
         <v>1000</v>
       </c>
       <c r="AE42" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF42" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AG42" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH42" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ42" t="n">
         <v>65</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>45</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="43">
@@ -5649,7 +5649,7 @@
         <v>1.06</v>
       </c>
       <c r="K43" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L43" t="n">
         <v>1.3</v>
@@ -5658,13 +5658,13 @@
         <v>3.4</v>
       </c>
       <c r="N43" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O43" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P43" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q43" t="n">
         <v>2.75</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -692,7 +692,7 @@
         <v>41</v>
       </c>
       <c r="V2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W2" t="n">
         <v>101</v>
@@ -704,7 +704,7 @@
         <v>51</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>9</v>
@@ -719,7 +719,7 @@
         <v>401</v>
       </c>
       <c r="AE2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
         <v>7.5</v>
@@ -728,7 +728,7 @@
         <v>9.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
@@ -900,22 +900,22 @@
         <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K4" t="n">
         <v>6.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M4" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="N4" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="P4" t="n">
         <v>1.57</v>
@@ -1019,13 +1019,13 @@
         <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.83</v>
@@ -1097,7 +1097,7 @@
         <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
         <v>51</v>
@@ -1266,10 +1266,10 @@
         <v>4.33</v>
       </c>
       <c r="J7" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
         <v>1.57</v>
@@ -1388,10 +1388,10 @@
         <v>2.6</v>
       </c>
       <c r="J8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L8" t="n">
         <v>1.57</v>
@@ -1463,7 +1463,7 @@
         <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ8" t="n">
         <v>41</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J9" t="n">
         <v>1.11</v>
@@ -1540,10 +1540,10 @@
         <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="U9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V9" t="n">
         <v>10</v>
@@ -1561,10 +1561,10 @@
         <v>6</v>
       </c>
       <c r="AA9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
         <v>126</v>
@@ -1573,10 +1573,10 @@
         <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG9" t="n">
         <v>21</v>
@@ -1748,46 +1748,46 @@
         <v>2.05</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="R11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T11" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="U11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V11" t="n">
         <v>11</v>
@@ -1796,22 +1796,22 @@
         <v>19</v>
       </c>
       <c r="X11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y11" t="n">
         <v>51</v>
       </c>
       <c r="Z11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA11" t="n">
         <v>6.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AD11" t="n">
         <v>101</v>
@@ -1829,10 +1829,10 @@
         <v>51</v>
       </c>
       <c r="AI11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
@@ -1876,10 +1876,10 @@
         <v>4.75</v>
       </c>
       <c r="J12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L12" t="n">
         <v>1.33</v>
@@ -1900,10 +1900,10 @@
         <v>2.63</v>
       </c>
       <c r="R12" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T12" t="n">
         <v>6.5</v>
@@ -1924,7 +1924,7 @@
         <v>29</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA12" t="n">
         <v>6.5</v>
@@ -1936,13 +1936,13 @@
         <v>51</v>
       </c>
       <c r="AD12" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG12" t="n">
         <v>15</v>
@@ -2114,7 +2114,7 @@
         <v>2.15</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
         <v>3.6</v>
@@ -2132,10 +2132,10 @@
         <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P14" t="n">
         <v>1.5</v>
@@ -2144,13 +2144,13 @@
         <v>2.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="T14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U14" t="n">
         <v>9.5</v>
@@ -2159,31 +2159,31 @@
         <v>9.5</v>
       </c>
       <c r="W14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
         <v>34</v>
       </c>
       <c r="Z14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA14" t="n">
         <v>6</v>
       </c>
       <c r="AB14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC14" t="n">
         <v>51</v>
       </c>
       <c r="AD14" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF14" t="n">
         <v>17</v>
@@ -2248,16 +2248,16 @@
         <v>11</v>
       </c>
       <c r="L15" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M15" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O15" t="n">
         <v>1.95</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.9</v>
       </c>
       <c r="P15" t="n">
         <v>1.4</v>
@@ -2591,94 +2591,94 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.15</v>
+        <v>1.57</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K18" t="n">
+        <v>11</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M18" t="n">
         <v>3.5</v>
       </c>
-      <c r="J18" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K18" t="n">
-        <v>10</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M18" t="n">
-        <v>3.4</v>
-      </c>
       <c r="N18" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="O18" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="P18" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q18" t="n">
         <v>2.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T18" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="U18" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="V18" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="W18" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
         <v>29</v>
       </c>
       <c r="Z18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB18" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AC18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI18" t="n">
         <v>41</v>
       </c>
-      <c r="AD18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH18" t="n">
+      <c r="AJ18" t="n">
         <v>41</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -2713,31 +2713,31 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
         <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="P19" t="n">
         <v>1.4</v>
@@ -2746,31 +2746,31 @@
         <v>2.75</v>
       </c>
       <c r="R19" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U19" t="n">
         <v>12</v>
       </c>
       <c r="V19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W19" t="n">
         <v>23</v>
       </c>
       <c r="X19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA19" t="n">
         <v>6.5</v>
@@ -2782,10 +2782,10 @@
         <v>41</v>
       </c>
       <c r="AD19" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF19" t="n">
         <v>15</v>
@@ -2797,7 +2797,7 @@
         <v>29</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ19" t="n">
         <v>29</v>
@@ -2835,13 +2835,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="H20" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2849,13 +2849,13 @@
         <v>1.09</v>
       </c>
       <c r="M20" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="N20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="O20" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P20" t="n">
         <v>1.19</v>
@@ -2864,22 +2864,22 @@
         <v>4.2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="T20" t="n">
         <v>13</v>
       </c>
       <c r="U20" t="n">
+        <v>9</v>
+      </c>
+      <c r="V20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W20" t="n">
         <v>9.25</v>
-      </c>
-      <c r="V20" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="W20" t="n">
-        <v>9.5</v>
       </c>
       <c r="X20" t="n">
         <v>9.75</v>
@@ -2888,13 +2888,13 @@
         <v>19</v>
       </c>
       <c r="Z20" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="n">
         <v>55</v>
@@ -2903,13 +2903,13 @@
         <v>300</v>
       </c>
       <c r="AE20" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AF20" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG20" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH20" t="n">
         <v>300</v>
@@ -2953,13 +2953,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="H21" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="J21" t="n">
         <v>1.03</v>
@@ -2977,7 +2977,7 @@
         <v>1.42</v>
       </c>
       <c r="O21" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="P21" t="n">
         <v>1.26</v>
@@ -2986,28 +2986,28 @@
         <v>3.5</v>
       </c>
       <c r="R21" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S21" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="T21" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="U21" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="V21" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z21" t="n">
         <v>9.5</v>
@@ -3025,10 +3025,10 @@
         <v>120</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
@@ -3037,10 +3037,10 @@
         <v>45</v>
       </c>
       <c r="AI21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>21</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>19.5</v>
       </c>
     </row>
     <row r="22">
@@ -3075,13 +3075,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="H22" t="n">
         <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="J22" t="n">
         <v>1.03</v>
@@ -3096,7 +3096,7 @@
         <v>4.5</v>
       </c>
       <c r="N22" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O22" t="n">
         <v>2.3</v>
@@ -3117,16 +3117,16 @@
         <v>12</v>
       </c>
       <c r="U22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y22" t="n">
         <v>23</v>
@@ -3144,25 +3144,25 @@
         <v>34</v>
       </c>
       <c r="AD22" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -3206,37 +3206,37 @@
         <v>2.75</v>
       </c>
       <c r="J23" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L23" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N23" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P23" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R23" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S23" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U23" t="n">
         <v>12</v>
@@ -3245,7 +3245,7 @@
         <v>10</v>
       </c>
       <c r="W23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X23" t="n">
         <v>21</v>
@@ -3254,7 +3254,7 @@
         <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA23" t="n">
         <v>6</v>
@@ -3269,7 +3269,7 @@
         <v>301</v>
       </c>
       <c r="AE23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF23" t="n">
         <v>13</v>
@@ -3281,7 +3281,7 @@
         <v>29</v>
       </c>
       <c r="AI23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ23" t="n">
         <v>34</v>
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="H27" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I27" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="J27" t="n">
         <v>1.05</v>
@@ -3706,10 +3706,10 @@
         <v>3.5</v>
       </c>
       <c r="N27" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O27" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P27" t="n">
         <v>1.4</v>
@@ -3718,40 +3718,40 @@
         <v>2.75</v>
       </c>
       <c r="R27" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S27" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="V27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W27" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="X27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Y27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z27" t="n">
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC27" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="n">
         <v>501</v>
@@ -3760,19 +3760,19 @@
         <v>6</v>
       </c>
       <c r="AF27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH27" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>9.5</v>
       </c>
       <c r="AI27" t="n">
         <v>13</v>
       </c>
       <c r="AJ27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -3813,19 +3813,19 @@
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J28" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M28" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N28" t="n">
         <v>2.35</v>
@@ -3840,13 +3840,13 @@
         <v>2.38</v>
       </c>
       <c r="R28" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S28" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U28" t="n">
         <v>11</v>
@@ -3864,7 +3864,7 @@
         <v>34</v>
       </c>
       <c r="Z28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA28" t="n">
         <v>6</v>
@@ -3938,10 +3938,10 @@
         <v>4.75</v>
       </c>
       <c r="J29" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L29" t="n">
         <v>1.29</v>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H30" t="n">
         <v>4.5</v>
@@ -4072,10 +4072,10 @@
         <v>4.33</v>
       </c>
       <c r="N30" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O30" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P30" t="n">
         <v>1.3</v>
@@ -4084,10 +4084,10 @@
         <v>3.4</v>
       </c>
       <c r="R30" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S30" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T30" t="n">
         <v>7.5</v>
@@ -4111,7 +4111,7 @@
         <v>13</v>
       </c>
       <c r="AA30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB30" t="n">
         <v>19</v>
@@ -4120,7 +4120,7 @@
         <v>51</v>
       </c>
       <c r="AD30" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE30" t="n">
         <v>21</v>
@@ -4173,19 +4173,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="H31" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J31" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L31" t="n">
         <v>1.25</v>
@@ -4206,10 +4206,10 @@
         <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S31" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T31" t="n">
         <v>7.5</v>
@@ -4221,13 +4221,13 @@
         <v>8.5</v>
       </c>
       <c r="W31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X31" t="n">
         <v>13</v>
       </c>
       <c r="Y31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z31" t="n">
         <v>11</v>
@@ -4248,7 +4248,7 @@
         <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG31" t="n">
         <v>17</v>
@@ -4304,13 +4304,13 @@
         <v>3.6</v>
       </c>
       <c r="J32" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K32" t="n">
         <v>10</v>
       </c>
       <c r="L32" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M32" t="n">
         <v>3.25</v>
@@ -4539,37 +4539,37 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="H34" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="I34" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="J34" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K34" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="L34" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O34" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="P34" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="R34" t="n">
         <v>2.18</v>
@@ -4578,28 +4578,28 @@
         <v>1.6</v>
       </c>
       <c r="T34" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="U34" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W34" t="n">
         <v>150</v>
       </c>
       <c r="X34" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Y34" t="n">
         <v>90</v>
       </c>
       <c r="Z34" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AA34" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AB34" t="n">
         <v>23</v>
@@ -4611,19 +4611,19 @@
         <v>900</v>
       </c>
       <c r="AE34" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AF34" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AG34" t="n">
         <v>8.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI34" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ34" t="n">
         <v>35</v>
@@ -4661,37 +4661,37 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="H35" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="J35" t="n">
         <v>1.05</v>
       </c>
       <c r="K35" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="L35" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="M35" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="N35" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="O35" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="P35" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="R35" t="n">
         <v>1.7</v>
@@ -4700,55 +4700,55 @@
         <v>2.05</v>
       </c>
       <c r="T35" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="U35" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="V35" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="W35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X35" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB35" t="n">
         <v>14</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>13</v>
       </c>
       <c r="AC35" t="n">
         <v>55</v>
       </c>
       <c r="AD35" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE35" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AG35" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AH35" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AI35" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AJ35" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36">
@@ -4905,7 +4905,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H37" t="n">
         <v>4.75</v>
@@ -4986,7 +4986,7 @@
         <v>26</v>
       </c>
       <c r="AH37" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI37" t="n">
         <v>81</v>
@@ -5027,10 +5027,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H38" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I38" t="n">
         <v>4.75</v>
@@ -5042,28 +5042,28 @@
         <v>11</v>
       </c>
       <c r="L38" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M38" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N38" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O38" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S38" t="n">
         <v>1.95</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>3</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.91</v>
       </c>
       <c r="T38" t="n">
         <v>7</v>
@@ -5087,10 +5087,10 @@
         <v>11</v>
       </c>
       <c r="AA38" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC38" t="n">
         <v>51</v>
@@ -5149,37 +5149,37 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I39" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J39" t="n">
         <v>1.04</v>
       </c>
       <c r="K39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L39" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M39" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N39" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O39" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P39" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q39" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R39" t="n">
         <v>1.8</v>
@@ -5191,25 +5191,25 @@
         <v>7.5</v>
       </c>
       <c r="U39" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V39" t="n">
         <v>8.5</v>
       </c>
       <c r="W39" t="n">
+        <v>11</v>
+      </c>
+      <c r="X39" t="n">
         <v>12</v>
-      </c>
-      <c r="X39" t="n">
-        <v>13</v>
       </c>
       <c r="Y39" t="n">
         <v>23</v>
       </c>
       <c r="Z39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB39" t="n">
         <v>17</v>
@@ -5221,10 +5221,10 @@
         <v>251</v>
       </c>
       <c r="AE39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG39" t="n">
         <v>17</v>
@@ -5271,34 +5271,34 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H40" t="n">
         <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J40" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K40" t="n">
         <v>15</v>
       </c>
       <c r="L40" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="M40" t="n">
         <v>4.5</v>
       </c>
       <c r="N40" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O40" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P40" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q40" t="n">
         <v>3.4</v>
@@ -5310,7 +5310,7 @@
         <v>2.25</v>
       </c>
       <c r="T40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U40" t="n">
         <v>21</v>
@@ -5349,10 +5349,10 @@
         <v>11</v>
       </c>
       <c r="AG40" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI40" t="n">
         <v>15</v>
@@ -5515,13 +5515,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="H42" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>4.15</v>
+        <v>3.8</v>
       </c>
       <c r="J42" t="n">
         <v>1.11</v>
@@ -5530,79 +5530,79 @@
         <v>6</v>
       </c>
       <c r="L42" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M42" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="N42" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="O42" t="n">
         <v>1.5</v>
       </c>
       <c r="P42" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="R42" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S42" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T42" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="U42" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="V42" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W42" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="X42" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y42" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z42" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AA42" t="n">
         <v>6.1</v>
       </c>
       <c r="AB42" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC42" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD42" t="n">
         <v>1000</v>
       </c>
       <c r="AE42" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG42" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AI42" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AJ42" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43">
@@ -5640,13 +5640,13 @@
         <v>3.4</v>
       </c>
       <c r="H43" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I43" t="n">
         <v>2.05</v>
       </c>
       <c r="J43" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K43" t="n">
         <v>10</v>
@@ -5655,25 +5655,25 @@
         <v>1.3</v>
       </c>
       <c r="M43" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N43" t="n">
         <v>2.05</v>
       </c>
       <c r="O43" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P43" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R43" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S43" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -5691,7 +5691,7 @@
         <v>29</v>
       </c>
       <c r="Y43" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z43" t="n">
         <v>9.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -680,22 +680,22 @@
         <v>3.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U2" t="n">
         <v>41</v>
       </c>
       <c r="V2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="X2" t="n">
         <v>51</v>
@@ -704,7 +704,7 @@
         <v>51</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
         <v>9</v>
@@ -713,22 +713,22 @@
         <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
@@ -772,10 +772,10 @@
         <v>2.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
         <v>1.11</v>
@@ -820,7 +820,7 @@
         <v>29</v>
       </c>
       <c r="X3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y3" t="n">
         <v>41</v>
@@ -841,7 +841,7 @@
         <v>501</v>
       </c>
       <c r="AE3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF3" t="n">
         <v>12</v>
@@ -891,31 +891,31 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
         <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K4" t="n">
         <v>6.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="N4" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="O4" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
         <v>1.57</v>
@@ -933,13 +933,13 @@
         <v>6.5</v>
       </c>
       <c r="U4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V4" t="n">
         <v>11</v>
       </c>
       <c r="W4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X4" t="n">
         <v>26</v>
@@ -951,7 +951,7 @@
         <v>6.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB4" t="n">
         <v>17</v>
@@ -1019,40 +1019,40 @@
         <v>2.8</v>
       </c>
       <c r="I5" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R5" t="n">
         <v>2.5</v>
       </c>
-      <c r="J5" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.75</v>
-      </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U5" t="n">
         <v>15</v>
@@ -1067,37 +1067,37 @@
         <v>41</v>
       </c>
       <c r="Y5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="Z5" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AD5" t="n">
         <v>101</v>
       </c>
       <c r="AE5" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AF5" t="n">
         <v>9.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
         <v>51</v>
@@ -1266,22 +1266,22 @@
         <v>4.33</v>
       </c>
       <c r="J7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="M7" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N7" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="P7" t="n">
         <v>1.62</v>
@@ -1335,7 +1335,7 @@
         <v>19</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
         <v>51</v>
@@ -1388,10 +1388,10 @@
         <v>2.6</v>
       </c>
       <c r="J8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.57</v>
@@ -1463,7 +1463,7 @@
         <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ8" t="n">
         <v>41</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
         <v>1.11</v>
@@ -1534,10 +1534,10 @@
         <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
         <v>4.5</v>
@@ -1549,7 +1549,7 @@
         <v>10</v>
       </c>
       <c r="W9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X9" t="n">
         <v>19</v>
@@ -1582,13 +1582,13 @@
         <v>21</v>
       </c>
       <c r="AH9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI9" t="n">
         <v>67</v>
       </c>
-      <c r="AI9" t="n">
-        <v>51</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -1644,10 +1644,10 @@
         <v>2.2</v>
       </c>
       <c r="N10" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
         <v>1.67</v>
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
         <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
         <v>1.17</v>
@@ -1784,10 +1784,10 @@
         <v>1.4</v>
       </c>
       <c r="T11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="U11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V11" t="n">
         <v>11</v>
@@ -1808,10 +1808,10 @@
         <v>6.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AD11" t="n">
         <v>101</v>
@@ -1829,7 +1829,7 @@
         <v>51</v>
       </c>
       <c r="AI11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ11" t="n">
         <v>67</v>
@@ -1888,10 +1888,10 @@
         <v>3.25</v>
       </c>
       <c r="N12" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O12" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P12" t="n">
         <v>1.44</v>
@@ -2233,31 +2233,31 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="J15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L15" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O15" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="P15" t="n">
         <v>1.4</v>
@@ -2266,19 +2266,19 @@
         <v>2.75</v>
       </c>
       <c r="R15" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U15" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="V15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W15" t="n">
         <v>51</v>
@@ -2293,10 +2293,10 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC15" t="n">
         <v>51</v>
@@ -2305,19 +2305,19 @@
         <v>301</v>
       </c>
       <c r="AE15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG15" t="n">
         <v>8.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>26</v>
@@ -2355,10 +2355,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H16" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="I16" t="n">
         <v>7.6</v>
@@ -2366,55 +2366,55 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="N16" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="P16" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="R16" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="S16" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T16" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="U16" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="V16" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W16" t="n">
         <v>8.25</v>
       </c>
       <c r="X16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
         <v>40</v>
       </c>
       <c r="Z16" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA16" t="n">
         <v>8.75</v>
       </c>
-      <c r="AA16" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AB16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC16" t="n">
         <v>175</v>
@@ -2423,10 +2423,10 @@
         <v>101</v>
       </c>
       <c r="AE16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF16" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG16" t="n">
         <v>26</v>
@@ -2438,7 +2438,7 @@
         <v>110</v>
       </c>
       <c r="AJ16" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
@@ -2473,90 +2473,90 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="H17" t="n">
         <v>3.35</v>
       </c>
       <c r="I17" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="M17" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="N17" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="O17" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S17" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="T17" t="n">
         <v>11.25</v>
       </c>
       <c r="U17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="V17" t="n">
+        <v>13</v>
+      </c>
+      <c r="W17" t="n">
+        <v>60</v>
+      </c>
+      <c r="X17" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB17" t="n">
         <v>14.5</v>
       </c>
-      <c r="W17" t="n">
-        <v>75</v>
-      </c>
-      <c r="X17" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z17" t="n">
+      <c r="AC17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AF17" t="n">
         <v>8.75</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>7.9</v>
       </c>
       <c r="AG17" t="n">
         <v>8.25</v>
       </c>
       <c r="AH17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI17" t="n">
         <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
@@ -2713,13 +2713,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H19" t="n">
         <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J19" t="n">
         <v>1.05</v>
@@ -2734,10 +2734,10 @@
         <v>3.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O19" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P19" t="n">
         <v>1.4</v>
@@ -2758,7 +2758,7 @@
         <v>12</v>
       </c>
       <c r="V19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W19" t="n">
         <v>23</v>
@@ -2767,7 +2767,7 @@
         <v>19</v>
       </c>
       <c r="Y19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z19" t="n">
         <v>11</v>
@@ -2782,7 +2782,7 @@
         <v>41</v>
       </c>
       <c r="AD19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE19" t="n">
         <v>10</v>
@@ -2797,7 +2797,7 @@
         <v>29</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ19" t="n">
         <v>29</v>
@@ -2835,39 +2835,39 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="I20" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="M20" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="N20" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="O20" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="P20" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S20" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="T20" t="n">
         <v>13</v>
@@ -2876,49 +2876,49 @@
         <v>9</v>
       </c>
       <c r="V20" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W20" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="X20" t="n">
         <v>9.75</v>
       </c>
       <c r="Y20" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA20" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB20" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD20" t="n">
         <v>300</v>
       </c>
       <c r="AE20" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AF20" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AG20" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AH20" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AI20" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AJ20" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -3075,13 +3075,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="n">
         <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="J22" t="n">
         <v>1.03</v>
@@ -3090,16 +3090,16 @@
         <v>17</v>
       </c>
       <c r="L22" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M22" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N22" t="n">
         <v>1.57</v>
       </c>
       <c r="O22" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P22" t="n">
         <v>1.3</v>
@@ -3108,7 +3108,7 @@
         <v>3.4</v>
       </c>
       <c r="R22" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S22" t="n">
         <v>2.5</v>
@@ -3117,16 +3117,16 @@
         <v>12</v>
       </c>
       <c r="U22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="n">
         <v>23</v>
@@ -3144,16 +3144,16 @@
         <v>34</v>
       </c>
       <c r="AD22" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
         <v>23</v>
@@ -3197,43 +3197,43 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I23" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J23" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L23" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M23" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N23" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="P23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R23" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T23" t="n">
         <v>7.5</v>
@@ -3242,34 +3242,34 @@
         <v>12</v>
       </c>
       <c r="V23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W23" t="n">
+        <v>26</v>
+      </c>
+      <c r="X23" t="n">
         <v>23</v>
       </c>
-      <c r="X23" t="n">
-        <v>21</v>
-      </c>
       <c r="Y23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA23" t="n">
         <v>6</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC23" t="n">
         <v>51</v>
       </c>
       <c r="AD23" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF23" t="n">
         <v>13</v>
@@ -3284,7 +3284,7 @@
         <v>26</v>
       </c>
       <c r="AJ23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -3563,94 +3563,94 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.62</v>
+        <v>2.77</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I26" t="n">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="J26" t="n">
         <v>1.08</v>
       </c>
       <c r="K26" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="M26" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="N26" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="O26" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P26" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="S26" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="T26" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="U26" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="V26" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y26" t="n">
         <v>35</v>
       </c>
       <c r="Z26" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AA26" t="n">
         <v>6.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD26" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE26" t="n">
         <v>7.3</v>
       </c>
       <c r="AF26" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AG26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI26" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="H27" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I27" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="J27" t="n">
         <v>1.05</v>
@@ -3700,16 +3700,16 @@
         <v>11</v>
       </c>
       <c r="L27" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M27" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N27" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O27" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="P27" t="n">
         <v>1.4</v>
@@ -3718,13 +3718,13 @@
         <v>2.75</v>
       </c>
       <c r="R27" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S27" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U27" t="n">
         <v>41</v>
@@ -3736,16 +3736,16 @@
         <v>101</v>
       </c>
       <c r="X27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="Y27" t="n">
         <v>67</v>
       </c>
       <c r="Z27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB27" t="n">
         <v>23</v>
@@ -3757,7 +3757,7 @@
         <v>501</v>
       </c>
       <c r="AE27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF27" t="n">
         <v>6</v>
@@ -3766,7 +3766,7 @@
         <v>9</v>
       </c>
       <c r="AH27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI27" t="n">
         <v>13</v>
@@ -3807,22 +3807,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J28" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K28" t="n">
         <v>8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M28" t="n">
         <v>2.75</v>
@@ -3846,16 +3846,16 @@
         <v>1.8</v>
       </c>
       <c r="T28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V28" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X28" t="n">
         <v>21</v>
@@ -3879,7 +3879,7 @@
         <v>401</v>
       </c>
       <c r="AE28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF28" t="n">
         <v>15</v>
@@ -3929,7 +3929,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H29" t="n">
         <v>3.5</v>
@@ -3938,10 +3938,10 @@
         <v>4.75</v>
       </c>
       <c r="J29" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L29" t="n">
         <v>1.29</v>
@@ -3950,10 +3950,10 @@
         <v>3.5</v>
       </c>
       <c r="N29" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O29" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P29" t="n">
         <v>1.4</v>
@@ -4051,13 +4051,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H30" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I30" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J30" t="n">
         <v>1.03</v>
@@ -4066,16 +4066,16 @@
         <v>15</v>
       </c>
       <c r="L30" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M30" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O30" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P30" t="n">
         <v>1.3</v>
@@ -4090,7 +4090,7 @@
         <v>1.8</v>
       </c>
       <c r="T30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U30" t="n">
         <v>7</v>
@@ -4099,7 +4099,7 @@
         <v>8.5</v>
       </c>
       <c r="W30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X30" t="n">
         <v>11</v>
@@ -4295,31 +4295,31 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="H32" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I32" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="J32" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L32" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M32" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N32" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P32" t="n">
         <v>1.44</v>
@@ -4328,34 +4328,34 @@
         <v>2.63</v>
       </c>
       <c r="R32" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S32" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T32" t="n">
         <v>7</v>
       </c>
       <c r="U32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V32" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W32" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="X32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y32" t="n">
         <v>29</v>
       </c>
       <c r="Z32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB32" t="n">
         <v>15</v>
@@ -4367,19 +4367,19 @@
         <v>301</v>
       </c>
       <c r="AE32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH32" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ32" t="n">
         <v>41</v>
@@ -4417,94 +4417,94 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="H33" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="J33" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K33" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T33" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U33" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="V33" t="n">
+        <v>8</v>
+      </c>
+      <c r="W33" t="n">
+        <v>13</v>
+      </c>
+      <c r="X33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA33" t="n">
         <v>7</v>
       </c>
-      <c r="L33" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M33" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T33" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="U33" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="V33" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="W33" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="X33" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>6.2</v>
-      </c>
       <c r="AB33" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AD33" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE33" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF33" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AG33" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="AJ33" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34">
@@ -4539,64 +4539,64 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="H34" t="n">
         <v>4.05</v>
       </c>
       <c r="I34" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="J34" t="n">
         <v>1.06</v>
       </c>
       <c r="K34" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="L34" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M34" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N34" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O34" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P34" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.87</v>
+        <v>2.67</v>
       </c>
       <c r="R34" t="n">
         <v>2.18</v>
       </c>
       <c r="S34" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T34" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="U34" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="V34" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="W34" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="X34" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y34" t="n">
         <v>90</v>
       </c>
       <c r="Z34" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AA34" t="n">
         <v>8.25</v>
@@ -4605,7 +4605,7 @@
         <v>23</v>
       </c>
       <c r="AC34" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD34" t="n">
         <v>900</v>
@@ -4614,16 +4614,16 @@
         <v>5.7</v>
       </c>
       <c r="AF34" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AG34" t="n">
         <v>8.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AI34" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ34" t="n">
         <v>35</v>
@@ -4661,94 +4661,94 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="H35" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I35" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="J35" t="n">
         <v>1.05</v>
       </c>
       <c r="K35" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L35" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M35" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="N35" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O35" t="n">
         <v>2.02</v>
       </c>
       <c r="P35" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="R35" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S35" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T35" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="U35" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="V35" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="W35" t="n">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="X35" t="n">
         <v>12</v>
       </c>
       <c r="Y35" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z35" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AA35" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="AB35" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC35" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI35" t="n">
         <v>55</v>
       </c>
-      <c r="AD35" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>100</v>
-      </c>
-      <c r="AI35" t="n">
+      <c r="AJ35" t="n">
         <v>50</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="36">
@@ -4783,94 +4783,94 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="H36" t="n">
-        <v>3.85</v>
+        <v>4.35</v>
       </c>
       <c r="I36" t="n">
-        <v>4.45</v>
+        <v>5.3</v>
       </c>
       <c r="J36" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K36" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T36" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V36" t="n">
         <v>8.25</v>
       </c>
-      <c r="L36" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M36" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O36" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2</v>
-      </c>
-      <c r="T36" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="U36" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="V36" t="n">
-        <v>8</v>
-      </c>
       <c r="W36" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="X36" t="n">
-        <v>12.5</v>
+        <v>10.75</v>
       </c>
       <c r="Y36" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Z36" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="AA36" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="AB36" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AD36" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AE36" t="n">
-        <v>14</v>
+        <v>19.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AG36" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AI36" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ36" t="n">
         <v>40</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="37">
@@ -4905,52 +4905,52 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H37" t="n">
         <v>4.75</v>
       </c>
       <c r="I37" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J37" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K37" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M37" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N37" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O37" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P37" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R37" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="S37" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T37" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W37" t="n">
         <v>8</v>
@@ -4962,7 +4962,7 @@
         <v>41</v>
       </c>
       <c r="Z37" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA37" t="n">
         <v>10</v>
@@ -4971,7 +4971,7 @@
         <v>34</v>
       </c>
       <c r="AC37" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AD37" t="n">
         <v>101</v>
@@ -4983,16 +4983,16 @@
         <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH37" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI37" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ37" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38">
@@ -5027,13 +5027,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H38" t="n">
         <v>3.8</v>
       </c>
       <c r="I38" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J38" t="n">
         <v>1.05</v>
@@ -5048,16 +5048,16 @@
         <v>3.75</v>
       </c>
       <c r="N38" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O38" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P38" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R38" t="n">
         <v>1.8</v>
@@ -5066,25 +5066,25 @@
         <v>1.95</v>
       </c>
       <c r="T38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U38" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V38" t="n">
         <v>8.5</v>
       </c>
       <c r="W38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X38" t="n">
         <v>13</v>
       </c>
       <c r="Y38" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA38" t="n">
         <v>7</v>
@@ -5111,7 +5111,7 @@
         <v>51</v>
       </c>
       <c r="AI38" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ38" t="n">
         <v>41</v>
@@ -5149,19 +5149,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I39" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J39" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L39" t="n">
         <v>1.22</v>
@@ -5188,7 +5188,7 @@
         <v>1.91</v>
       </c>
       <c r="T39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U39" t="n">
         <v>7.5</v>
@@ -5209,7 +5209,7 @@
         <v>13</v>
       </c>
       <c r="AA39" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB39" t="n">
         <v>17</v>
@@ -5218,19 +5218,19 @@
         <v>51</v>
       </c>
       <c r="AD39" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE39" t="n">
         <v>17</v>
       </c>
       <c r="AF39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH39" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI39" t="n">
         <v>41</v>
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H40" t="n">
         <v>3.6</v>
@@ -5280,37 +5280,37 @@
         <v>1.95</v>
       </c>
       <c r="J40" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K40" t="n">
+        <v>17</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T40" t="n">
         <v>15</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M40" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="N40" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="O40" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T40" t="n">
-        <v>13</v>
       </c>
       <c r="U40" t="n">
         <v>21</v>
@@ -5331,22 +5331,22 @@
         <v>15</v>
       </c>
       <c r="AA40" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB40" t="n">
         <v>12</v>
       </c>
       <c r="AC40" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD40" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE40" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG40" t="n">
         <v>9</v>
@@ -5637,16 +5637,16 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H43" t="n">
         <v>3.25</v>
       </c>
       <c r="I43" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K43" t="n">
         <v>10</v>
@@ -5655,13 +5655,13 @@
         <v>1.3</v>
       </c>
       <c r="M43" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N43" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O43" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="P43" t="n">
         <v>1.44</v>
@@ -5670,10 +5670,10 @@
         <v>2.63</v>
       </c>
       <c r="R43" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S43" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -5685,13 +5685,13 @@
         <v>12</v>
       </c>
       <c r="W43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X43" t="n">
         <v>29</v>
       </c>
       <c r="Y43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z43" t="n">
         <v>9.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AJ42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,7 +618,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>d8snL7bk</t>
+          <t>MwRDTF6E</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -628,119 +628,119 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ENGLAND - PREMIER LEAGUE</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K2" t="n">
         <v>6.5</v>
       </c>
-      <c r="H2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K2" t="n">
-        <v>13</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="M2" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="N2" t="n">
-        <v>1.73</v>
+        <v>2.45</v>
       </c>
       <c r="O2" t="n">
-        <v>2.1</v>
+        <v>1.49</v>
       </c>
       <c r="P2" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S2" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="T2" t="n">
-        <v>19</v>
+        <v>6.5</v>
       </c>
       <c r="U2" t="n">
+        <v>10</v>
+      </c>
+      <c r="V2" t="n">
+        <v>10</v>
+      </c>
+      <c r="W2" t="n">
+        <v>23</v>
+      </c>
+      <c r="X2" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y2" t="n">
         <v>41</v>
       </c>
-      <c r="V2" t="n">
-        <v>21</v>
-      </c>
-      <c r="W2" t="n">
-        <v>81</v>
-      </c>
-      <c r="X2" t="n">
-        <v>51</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>51</v>
-      </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD2" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MwRDTF6E</t>
+          <t>WY1k6dAN</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -750,32 +750,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>1.11</v>
@@ -808,19 +808,19 @@
         <v>1.7</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V3" t="n">
         <v>11</v>
       </c>
       <c r="W3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y3" t="n">
         <v>41</v>
@@ -829,7 +829,7 @@
         <v>6.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB3" t="n">
         <v>17</v>
@@ -841,19 +841,19 @@
         <v>501</v>
       </c>
       <c r="AE3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG3" t="n">
         <v>12</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
@@ -862,7 +862,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WY1k6dAN</t>
+          <t>hxMMcyJk</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -872,119 +872,119 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="I4" t="n">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="J4" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="K4" t="n">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="M4" t="n">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="N4" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="S4" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="W4" t="n">
+        <v>41</v>
+      </c>
+      <c r="X4" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>67</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB4" t="n">
         <v>29</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AC4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH4" t="n">
         <v>26</v>
       </c>
-      <c r="Y4" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>501</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>29</v>
-      </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hxMMcyJk</t>
+          <t>d6zi3ceS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1004,109 +1004,109 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Atl. Tucuman</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="K5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="M5" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N5" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>1.73</v>
+        <v>1.54</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="R5" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="T5" t="n">
         <v>6.5</v>
       </c>
       <c r="U5" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="V5" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="W5" t="n">
+        <v>26</v>
+      </c>
+      <c r="X5" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y5" t="n">
         <v>41</v>
       </c>
-      <c r="X5" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>51</v>
-      </c>
       <c r="Z5" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AA5" t="n">
         <v>6</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AD5" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="AE5" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
         <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>d6zi3ceS</t>
+          <t>W0p736kB</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1126,28 +1126,28 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Atl. Tucuman</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Newells Old Boys</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.53</v>
@@ -1162,10 +1162,10 @@
         <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
         <v>2.2</v>
@@ -1174,31 +1174,31 @@
         <v>1.62</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V6" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="W6" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="X6" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
         <v>41</v>
       </c>
       <c r="Z6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA6" t="n">
         <v>6</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
         <v>81</v>
@@ -1207,28 +1207,28 @@
         <v>501</v>
       </c>
       <c r="AE6" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AJ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W0p736kB</t>
+          <t>EBUsBj87</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1238,53 +1238,53 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Newells Old Boys</t>
+          <t>Colon Santa Fe</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="I7" t="n">
-        <v>4.33</v>
+        <v>2.6</v>
       </c>
       <c r="J7" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="M7" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N7" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="O7" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Q7" t="n">
         <v>2.2</v>
@@ -1296,61 +1296,61 @@
         <v>1.57</v>
       </c>
       <c r="T7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="V7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="W7" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="Y7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="n">
         <v>81</v>
       </c>
       <c r="AD7" t="n">
-        <v>501</v>
+        <v>101</v>
       </c>
       <c r="AE7" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>41</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EBUsBj87</t>
+          <t>rqfCxHqh</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1370,28 +1370,28 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Ferro</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Colon Santa Fe</t>
+          <t>Arsenal Sarandi</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>1.62</v>
       </c>
       <c r="H8" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="K8" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.57</v>
@@ -1400,10 +1400,10 @@
         <v>2.25</v>
       </c>
       <c r="N8" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
         <v>1.62</v>
@@ -1412,67 +1412,67 @@
         <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="U8" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="V8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="W8" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA8" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AD8" t="n">
         <v>101</v>
       </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="AJ8" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>rqfCxHqh</t>
+          <t>WfmREDio</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1492,109 +1492,109 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ferro</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Arsenal Sarandi</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L9" t="n">
         <v>1.62</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.57</v>
-      </c>
       <c r="M9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N9" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T9" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="U9" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="V9" t="n">
         <v>10</v>
       </c>
       <c r="W9" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
         <v>41</v>
       </c>
       <c r="Z9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA9" t="n">
         <v>6</v>
       </c>
-      <c r="AA9" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AD9" t="n">
         <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AI9" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>WfmREDio</t>
+          <t>8juxXCDT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:10</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1614,109 +1614,109 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>2.1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="M10" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="R10" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="S10" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="U10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W10" t="n">
         <v>19</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD10" t="n">
         <v>101</v>
       </c>
       <c r="AE10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG10" t="n">
         <v>17</v>
       </c>
-      <c r="AG10" t="n">
-        <v>15</v>
-      </c>
       <c r="AH10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI10" t="n">
         <v>41</v>
       </c>
       <c r="AJ10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8juxXCDT</t>
+          <t>tI0YOdwH</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1726,101 +1726,101 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>21:10</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ARGENTINA - PRIMERA NACIONAL</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="H11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K11" t="n">
+        <v>9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M11" t="n">
         <v>3</v>
       </c>
-      <c r="I11" t="n">
-        <v>4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
         <v>1.73</v>
       </c>
-      <c r="M11" t="n">
-        <v>2</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.4</v>
-      </c>
       <c r="T11" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="U11" t="n">
         <v>8</v>
       </c>
       <c r="V11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="W11" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X11" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="Z11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA11" t="n">
         <v>6.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AD11" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
         <v>17</v>
@@ -1832,13 +1832,13 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>tI0YOdwH</t>
+          <t>xIss5RHO</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1848,50 +1848,50 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.8</v>
+        <v>4.33</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="J12" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M12" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N12" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P12" t="n">
         <v>1.44</v>
@@ -1900,37 +1900,37 @@
         <v>2.63</v>
       </c>
       <c r="R12" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T12" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="U12" t="n">
+        <v>21</v>
+      </c>
+      <c r="V12" t="n">
+        <v>15</v>
+      </c>
+      <c r="W12" t="n">
+        <v>41</v>
+      </c>
+      <c r="X12" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z12" t="n">
         <v>8</v>
       </c>
-      <c r="V12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W12" t="n">
+      <c r="AA12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB12" t="n">
         <v>15</v>
-      </c>
-      <c r="X12" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>17</v>
       </c>
       <c r="AC12" t="n">
         <v>51</v>
@@ -1939,28 +1939,28 @@
         <v>301</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>23</v>
+        <v>8.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AH12" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>xIss5RHO</t>
+          <t>n9nIAVmm</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1980,22 +1980,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Lok. Plovdiv</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.33</v>
+        <v>2.15</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="J13" t="n">
         <v>1.08</v>
@@ -2010,79 +2010,79 @@
         <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P13" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R13" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="T13" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="U13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W13" t="n">
         <v>21</v>
       </c>
-      <c r="V13" t="n">
-        <v>15</v>
-      </c>
-      <c r="W13" t="n">
-        <v>41</v>
-      </c>
       <c r="X13" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y13" t="n">
         <v>34</v>
       </c>
-      <c r="Y13" t="n">
-        <v>41</v>
-      </c>
       <c r="Z13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA13" t="n">
         <v>6</v>
       </c>
       <c r="AB13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC13" t="n">
         <v>51</v>
       </c>
       <c r="AD13" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE13" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AI13" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>n9nIAVmm</t>
+          <t>0IDahlYI</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2102,109 +2102,109 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lok. Plovdiv</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="J14" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L14" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N14" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="O14" t="n">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="P14" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S14" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="T14" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="U14" t="n">
-        <v>9.5</v>
+        <v>23</v>
       </c>
       <c r="V14" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="W14" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="Y14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA14" t="n">
         <v>7</v>
       </c>
-      <c r="AA14" t="n">
-        <v>6</v>
-      </c>
       <c r="AB14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
         <v>51</v>
       </c>
       <c r="AD14" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AF14" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AG14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH14" t="n">
         <v>13</v>
       </c>
-      <c r="AH14" t="n">
-        <v>41</v>
-      </c>
       <c r="AI14" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0IDahlYI</t>
+          <t>hj5X0lat</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2214,119 +2214,115 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>COLOMBIA - PRIMERA B</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>Inter Palmira</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Atletico F.C.</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.5</v>
+        <v>1.34</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K15" t="n">
-        <v>10</v>
-      </c>
+        <v>9.25</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="M15" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="N15" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="O15" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="P15" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="R15" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="S15" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="T15" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="U15" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="V15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>8</v>
+      </c>
+      <c r="X15" t="n">
         <v>12</v>
       </c>
-      <c r="U15" t="n">
-        <v>23</v>
-      </c>
-      <c r="V15" t="n">
-        <v>15</v>
-      </c>
-      <c r="W15" t="n">
-        <v>51</v>
-      </c>
-      <c r="X15" t="n">
-        <v>41</v>
-      </c>
       <c r="Y15" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="Z15" t="n">
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>7</v>
+        <v>8.75</v>
       </c>
       <c r="AB15" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AC15" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="AD15" t="n">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="AE15" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="AF15" t="n">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="AG15" t="n">
-        <v>8.5</v>
+        <v>29</v>
       </c>
       <c r="AH15" t="n">
-        <v>13</v>
+        <v>300</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="AJ15" t="n">
-        <v>26</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hj5X0lat</t>
+          <t>z9VdgOcU</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2336,7 +2332,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2346,105 +2342,105 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Inter Palmira</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Atletico F.C.</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.38</v>
+        <v>3.95</v>
       </c>
       <c r="H16" t="n">
-        <v>4.25</v>
+        <v>3.35</v>
       </c>
       <c r="I16" t="n">
-        <v>7.6</v>
+        <v>1.87</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M16" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="N16" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O16" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P16" t="n">
         <v>1.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R16" t="n">
-        <v>2.22</v>
+        <v>1.75</v>
       </c>
       <c r="S16" t="n">
-        <v>1.52</v>
+        <v>1.87</v>
       </c>
       <c r="T16" t="n">
-        <v>5.5</v>
+        <v>11.25</v>
       </c>
       <c r="U16" t="n">
-        <v>5.6</v>
+        <v>22</v>
       </c>
       <c r="V16" t="n">
-        <v>8.75</v>
+        <v>13</v>
       </c>
       <c r="W16" t="n">
-        <v>8.25</v>
+        <v>60</v>
       </c>
       <c r="X16" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="Y16" t="n">
         <v>40</v>
       </c>
       <c r="Z16" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AA16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AF16" t="n">
         <v>8.75</v>
       </c>
-      <c r="AB16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>175</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE16" t="n">
+      <c r="AG16" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH16" t="n">
         <v>16</v>
       </c>
-      <c r="AF16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>200</v>
-      </c>
       <c r="AI16" t="n">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
-        <v>110</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>z9VdgOcU</t>
+          <t>W0WjLrLN</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2454,115 +2450,119 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA B</t>
+          <t>CZECH REPUBLIC - CHNL</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Ostrava B</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Sigma Olomouc B</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.95</v>
+        <v>1.57</v>
       </c>
       <c r="H17" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>5.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K17" t="n">
+        <v>11</v>
+      </c>
       <c r="L17" t="n">
         <v>1.29</v>
       </c>
       <c r="M17" t="n">
-        <v>2.95</v>
+        <v>3.5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="O17" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="P17" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="S17" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="T17" t="n">
-        <v>11.25</v>
+        <v>6.5</v>
       </c>
       <c r="U17" t="n">
-        <v>22</v>
+        <v>7.5</v>
       </c>
       <c r="V17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>12</v>
+      </c>
+      <c r="X17" t="n">
         <v>13</v>
       </c>
-      <c r="W17" t="n">
-        <v>60</v>
-      </c>
-      <c r="X17" t="n">
-        <v>37</v>
-      </c>
       <c r="Y17" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="Z17" t="n">
         <v>9.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB17" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AC17" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>301</v>
       </c>
       <c r="AE17" t="n">
-        <v>6.9</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.75</v>
+        <v>29</v>
       </c>
       <c r="AG17" t="n">
-        <v>8.25</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AJ17" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>W0WjLrLN</t>
+          <t>Iu9iRG77</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2572,32 +2572,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHNL</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ostrava B</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Sigma Olomouc B</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.57</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="J18" t="n">
         <v>1.05</v>
@@ -2606,85 +2606,85 @@
         <v>11</v>
       </c>
       <c r="L18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N18" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O18" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="P18" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q18" t="n">
         <v>2.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="S18" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T18" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="U18" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="V18" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="W18" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="X18" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Y18" t="n">
         <v>29</v>
       </c>
       <c r="Z18" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD18" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AF18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>29</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Iu9iRG77</t>
+          <t>hzNvz3qA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2694,119 +2694,115 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>ICELAND - BESTA DEILD KARLA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Vikingur Reykjavik</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Vestmannaeyjar</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.5</v>
+        <v>1.21</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K19" t="n">
-        <v>11</v>
-      </c>
+        <v>11.25</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>1.25</v>
+        <v>1.08</v>
       </c>
       <c r="M19" t="n">
-        <v>3.75</v>
+        <v>6.3</v>
       </c>
       <c r="N19" t="n">
-        <v>1.93</v>
+        <v>1.28</v>
       </c>
       <c r="O19" t="n">
-        <v>1.93</v>
+        <v>3.35</v>
       </c>
       <c r="P19" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.75</v>
+        <v>4.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T19" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="U19" t="n">
-        <v>12</v>
+        <v>9.25</v>
       </c>
       <c r="V19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W19" t="n">
-        <v>23</v>
+        <v>9.25</v>
       </c>
       <c r="X19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y19" t="n">
         <v>19</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Z19" t="n">
         <v>29</v>
       </c>
-      <c r="Z19" t="n">
-        <v>11</v>
-      </c>
       <c r="AA19" t="n">
-        <v>6.5</v>
+        <v>14</v>
       </c>
       <c r="AB19" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AD19" t="n">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="AE19" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="AH19" t="n">
-        <v>29</v>
+        <v>400</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="AJ19" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>hzNvz3qA</t>
+          <t>EkBmYtEM</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2816,7 +2812,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2826,105 +2822,109 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Vikingur Reykjavik</t>
+          <t>Stjarnan</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vestmannaeyjar</t>
+          <t>Hafnarfjordur</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.21</v>
+        <v>2.07</v>
       </c>
       <c r="H20" t="n">
-        <v>6.1</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>3.15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K20" t="n">
+        <v>9.75</v>
+      </c>
       <c r="L20" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="M20" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="N20" t="n">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="O20" t="n">
-        <v>3.35</v>
+        <v>2.75</v>
       </c>
       <c r="P20" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.25</v>
+        <v>3.6</v>
       </c>
       <c r="R20" t="n">
-        <v>1.65</v>
+        <v>1.36</v>
       </c>
       <c r="S20" t="n">
-        <v>2.12</v>
+        <v>2.92</v>
       </c>
       <c r="T20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="U20" t="n">
+        <v>15</v>
+      </c>
+      <c r="V20" t="n">
         <v>9</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
+        <v>23</v>
+      </c>
+      <c r="X20" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z20" t="n">
         <v>9.75</v>
       </c>
-      <c r="W20" t="n">
-        <v>9</v>
-      </c>
-      <c r="X20" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>29</v>
-      </c>
       <c r="AA20" t="n">
-        <v>14</v>
+        <v>8.25</v>
       </c>
       <c r="AB20" t="n">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="AC20" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="AD20" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="AE20" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="AF20" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
-        <v>35</v>
+        <v>11.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="AI20" t="n">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="AJ20" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EkBmYtEM</t>
+          <t>ry8U1nfA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2934,110 +2934,110 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ICELAND - BESTA DEILD KARLA</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Stjarnan</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Hafnarfjordur</t>
+          <t>H. Beer Sheva</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="H21" t="n">
         <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>3.05</v>
+        <v>2.35</v>
       </c>
       <c r="J21" t="n">
         <v>1.03</v>
       </c>
       <c r="K21" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="L21" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="N21" t="n">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="O21" t="n">
-        <v>2.67</v>
+        <v>2.35</v>
       </c>
       <c r="P21" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R21" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="S21" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="T21" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="U21" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="V21" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="W21" t="n">
         <v>26</v>
       </c>
       <c r="X21" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="Y21" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Z21" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AA21" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AB21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG21" t="n">
         <v>10</v>
       </c>
-      <c r="AC21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>120</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>11</v>
-      </c>
       <c r="AH21" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AJ21" t="n">
         <v>21</v>
@@ -3046,7 +3046,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ry8U1nfA</t>
+          <t>v1lFWIGb</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3066,109 +3066,109 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Hapoel Hadera</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>H. Beer Sheva</t>
+          <t>Sakhnin</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="I22" t="n">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="J22" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="K22" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>2.63</v>
       </c>
       <c r="N22" t="n">
-        <v>1.57</v>
+        <v>2.4</v>
       </c>
       <c r="O22" t="n">
-        <v>2.35</v>
+        <v>1.53</v>
       </c>
       <c r="P22" t="n">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="R22" t="n">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>2.5</v>
+        <v>1.73</v>
       </c>
       <c r="T22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U22" t="n">
         <v>12</v>
       </c>
-      <c r="U22" t="n">
-        <v>15</v>
-      </c>
       <c r="V22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W22" t="n">
         <v>26</v>
       </c>
       <c r="X22" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y22" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="Z22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB22" t="n">
         <v>17</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AC22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE22" t="n">
         <v>7.5</v>
       </c>
-      <c r="AB22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>12</v>
-      </c>
       <c r="AF22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AI22" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>v1lFWIGb</t>
+          <t>vu5GggKt</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3178,119 +3178,119 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>ITALY - SERIE C</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>AlbinoLeffe</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sakhnin</t>
+          <t>Pro Vercelli</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.6</v>
+        <v>1.78</v>
       </c>
       <c r="H23" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K23" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M23" t="n">
-        <v>2.63</v>
+        <v>2.32</v>
       </c>
       <c r="N23" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="O23" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="P23" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>2.37</v>
       </c>
       <c r="S23" t="n">
-        <v>1.73</v>
+        <v>1.52</v>
       </c>
       <c r="T23" t="n">
-        <v>7.5</v>
+        <v>4.85</v>
       </c>
       <c r="U23" t="n">
-        <v>12</v>
+        <v>6.8</v>
       </c>
       <c r="V23" t="n">
-        <v>11</v>
+        <v>9.25</v>
       </c>
       <c r="W23" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="X23" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>175</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF23" t="n">
         <v>23</v>
       </c>
-      <c r="Y23" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB23" t="n">
+      <c r="AG23" t="n">
         <v>17</v>
       </c>
-      <c r="AC23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>11</v>
-      </c>
       <c r="AH23" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="AJ23" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>vu5GggKt</t>
+          <t>hlWcyC4C</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3310,109 +3310,109 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>AlbinoLeffe</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Pro Vercelli</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.78</v>
+        <v>1.35</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>4.15</v>
       </c>
       <c r="I24" t="n">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="K24" t="n">
-        <v>5.5</v>
+        <v>6.9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.53</v>
+        <v>1.34</v>
       </c>
       <c r="M24" t="n">
-        <v>2.32</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
+        <v>2</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2.55</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.22</v>
-      </c>
       <c r="R24" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="S24" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="T24" t="n">
-        <v>4.85</v>
+        <v>5.2</v>
       </c>
       <c r="U24" t="n">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
       <c r="V24" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W24" t="n">
-        <v>13.5</v>
+        <v>7.8</v>
       </c>
       <c r="X24" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Y24" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z24" t="n">
-        <v>5.5</v>
+        <v>6.9</v>
       </c>
       <c r="AA24" t="n">
-        <v>6.7</v>
+        <v>8.75</v>
       </c>
       <c r="AB24" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AC24" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AD24" t="n">
         <v>101</v>
       </c>
       <c r="AE24" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AF24" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AH24" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="AI24" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AJ24" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>hlWcyC4C</t>
+          <t>YcxfpYOh</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3432,34 +3432,34 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>Giugliano</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.4</v>
+        <v>2.77</v>
       </c>
       <c r="H25" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="I25" t="n">
-        <v>7.5</v>
+        <v>2.37</v>
       </c>
       <c r="J25" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K25" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="L25" t="n">
         <v>1.36</v>
       </c>
       <c r="M25" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="N25" t="n">
         <v>2.05</v>
@@ -3471,70 +3471,70 @@
         <v>1.47</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R25" t="n">
-        <v>2.37</v>
+        <v>1.83</v>
       </c>
       <c r="S25" t="n">
-        <v>1.52</v>
+        <v>1.88</v>
       </c>
       <c r="T25" t="n">
-        <v>5.2</v>
+        <v>8.25</v>
       </c>
       <c r="U25" t="n">
-        <v>5.5</v>
+        <v>14</v>
       </c>
       <c r="V25" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="W25" t="n">
-        <v>8.5</v>
+        <v>32</v>
       </c>
       <c r="X25" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="Y25" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z25" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>8.25</v>
+        <v>6.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>27</v>
+        <v>14.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="AD25" t="n">
-        <v>101</v>
+        <v>600</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>7.3</v>
       </c>
       <c r="AF25" t="n">
-        <v>50</v>
+        <v>11.25</v>
       </c>
       <c r="AG25" t="n">
-        <v>27</v>
+        <v>9.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="AI25" t="n">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="AJ25" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>YcxfpYOh</t>
+          <t>jw3zxCYg</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3544,119 +3544,119 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ITALY - SERIE C</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Giugliano</t>
+          <t>Puszcza</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Rakow</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.77</v>
+        <v>7.5</v>
       </c>
       <c r="H26" t="n">
-        <v>3.15</v>
+        <v>4.5</v>
       </c>
       <c r="I26" t="n">
-        <v>2.37</v>
+        <v>1.42</v>
       </c>
       <c r="J26" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K26" t="n">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="L26" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M26" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N26" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O26" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="P26" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R26" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="S26" t="n">
-        <v>1.88</v>
+        <v>1.57</v>
       </c>
       <c r="T26" t="n">
-        <v>8.25</v>
+        <v>15</v>
       </c>
       <c r="U26" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="V26" t="n">
-        <v>10.25</v>
+        <v>23</v>
       </c>
       <c r="W26" t="n">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="X26" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="Y26" t="n">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="Z26" t="n">
-        <v>6.6</v>
+        <v>9.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>6.1</v>
+        <v>8.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="AC26" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="n">
-        <v>600</v>
+        <v>501</v>
       </c>
       <c r="AE26" t="n">
-        <v>7.3</v>
+        <v>5.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>11.25</v>
+        <v>6</v>
       </c>
       <c r="AG26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AJ26" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>jw3zxCYg</t>
+          <t>AsEjSvAM</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3666,119 +3666,119 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rakow</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K27" t="n">
+        <v>8</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U27" t="n">
+        <v>10</v>
+      </c>
+      <c r="V27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W27" t="n">
+        <v>21</v>
+      </c>
+      <c r="X27" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z27" t="n">
         <v>7.5</v>
       </c>
-      <c r="H27" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K27" t="n">
-        <v>11</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T27" t="n">
+      <c r="AA27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>401</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF27" t="n">
         <v>15</v>
       </c>
-      <c r="U27" t="n">
+      <c r="AG27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>41</v>
-      </c>
-      <c r="V27" t="n">
-        <v>23</v>
-      </c>
-      <c r="W27" t="n">
-        <v>101</v>
-      </c>
-      <c r="X27" t="n">
-        <v>51</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>67</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>501</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AsEjSvAM</t>
+          <t>t2MZVMAc</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3798,109 +3798,109 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="J28" t="n">
         <v>1.05</v>
       </c>
       <c r="K28" t="n">
+        <v>11</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T28" t="n">
         <v>8</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T28" t="n">
-        <v>6.5</v>
       </c>
       <c r="U28" t="n">
         <v>10</v>
       </c>
       <c r="V28" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="W28" t="n">
+        <v>17</v>
+      </c>
+      <c r="X28" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF28" t="n">
         <v>21</v>
       </c>
-      <c r="X28" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>401</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>15</v>
-      </c>
       <c r="AG28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI28" t="n">
         <v>29</v>
       </c>
       <c r="AJ28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t2MZVMAc</t>
+          <t>xUFrU0uA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3920,109 +3920,109 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.72</v>
+        <v>1.38</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="I29" t="n">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="J29" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L29" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="M29" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="O29" t="n">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="P29" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="R29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S29" t="n">
         <v>1.8</v>
       </c>
-      <c r="S29" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U29" t="n">
         <v>7</v>
-      </c>
-      <c r="U29" t="n">
-        <v>8.5</v>
       </c>
       <c r="V29" t="n">
         <v>8.5</v>
       </c>
       <c r="W29" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="X29" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y29" t="n">
         <v>26</v>
       </c>
       <c r="Z29" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AA29" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AB29" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AC29" t="n">
         <v>51</v>
       </c>
       <c r="AD29" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AF29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG29" t="n">
         <v>23</v>
       </c>
-      <c r="AG29" t="n">
-        <v>15</v>
-      </c>
       <c r="AH29" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI29" t="n">
         <v>51</v>
       </c>
-      <c r="AI29" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>xUFrU0uA</t>
+          <t>xjwM7eAm</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4032,119 +4032,119 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>ROMANIA - SUPERLIGA</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K30" t="n">
+        <v>11</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P30" t="n">
         <v>1.36</v>
       </c>
-      <c r="H30" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I30" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K30" t="n">
-        <v>15</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M30" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="N30" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.3</v>
-      </c>
       <c r="Q30" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="S30" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="T30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U30" t="n">
         <v>8</v>
-      </c>
-      <c r="U30" t="n">
-        <v>7</v>
       </c>
       <c r="V30" t="n">
         <v>8.5</v>
       </c>
       <c r="W30" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="X30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y30" t="n">
         <v>26</v>
       </c>
       <c r="Z30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AB30" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC30" t="n">
         <v>51</v>
       </c>
       <c r="AD30" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AE30" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI30" t="n">
         <v>41</v>
       </c>
-      <c r="AG30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>51</v>
-      </c>
       <c r="AJ30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>xjwM7eAm</t>
+          <t>v3muhopm</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4164,76 +4164,76 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Univ. Craiova</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.63</v>
+        <v>2.15</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="J31" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L31" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="M31" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N31" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="O31" t="n">
-        <v>2.03</v>
+        <v>1.7</v>
       </c>
       <c r="P31" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R31" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S31" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="T31" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U31" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W31" t="n">
+        <v>21</v>
+      </c>
+      <c r="X31" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z31" t="n">
         <v>8.5</v>
       </c>
-      <c r="W31" t="n">
-        <v>13</v>
-      </c>
-      <c r="X31" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>11</v>
-      </c>
       <c r="AA31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB31" t="n">
         <v>15</v>
@@ -4242,22 +4242,22 @@
         <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AE31" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AG31" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AI31" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AJ31" t="n">
         <v>41</v>
@@ -4266,7 +4266,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>v3muhopm</t>
+          <t>GldEaJFd</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4276,119 +4276,119 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ROMANIA - SUPERLIGA</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Univ. Craiova</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="H32" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="J32" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K32" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N32" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O32" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="P32" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R32" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S32" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T32" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U32" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="V32" t="n">
+        <v>8</v>
+      </c>
+      <c r="W32" t="n">
+        <v>13</v>
+      </c>
+      <c r="X32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA32" t="n">
         <v>7</v>
       </c>
-      <c r="U32" t="n">
-        <v>10</v>
-      </c>
-      <c r="V32" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W32" t="n">
-        <v>21</v>
-      </c>
-      <c r="X32" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>6</v>
-      </c>
       <c r="AB32" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AD32" t="n">
-        <v>301</v>
+        <v>600</v>
       </c>
       <c r="AE32" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AF32" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AG32" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AI32" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AJ32" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GldEaJFd</t>
+          <t>Cjf73mYR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4408,109 +4408,109 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.65</v>
+        <v>7.4</v>
       </c>
       <c r="H33" t="n">
-        <v>3.5</v>
+        <v>4.05</v>
       </c>
       <c r="I33" t="n">
-        <v>4.7</v>
+        <v>1.39</v>
       </c>
       <c r="J33" t="n">
         <v>1.06</v>
       </c>
       <c r="K33" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="L33" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M33" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N33" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O33" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="P33" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="R33" t="n">
-        <v>1.82</v>
+        <v>2.18</v>
       </c>
       <c r="S33" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="T33" t="n">
-        <v>6.8</v>
+        <v>17.5</v>
       </c>
       <c r="U33" t="n">
-        <v>7.8</v>
+        <v>50</v>
       </c>
       <c r="V33" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="W33" t="n">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="X33" t="n">
-        <v>13.5</v>
+        <v>100</v>
       </c>
       <c r="Y33" t="n">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="Z33" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AA33" t="n">
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="AB33" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="AC33" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AD33" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="AE33" t="n">
-        <v>13</v>
+        <v>5.7</v>
       </c>
       <c r="AF33" t="n">
-        <v>28</v>
+        <v>5.8</v>
       </c>
       <c r="AG33" t="n">
-        <v>15.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>90</v>
+        <v>8.75</v>
       </c>
       <c r="AI33" t="n">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="AJ33" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Cjf73mYR</t>
+          <t>rB2j7VY2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4530,109 +4530,109 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>7.4</v>
+        <v>1.53</v>
       </c>
       <c r="H34" t="n">
-        <v>4.05</v>
+        <v>3.75</v>
       </c>
       <c r="I34" t="n">
-        <v>1.39</v>
+        <v>5.6</v>
       </c>
       <c r="J34" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K34" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="L34" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="M34" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N34" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="O34" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="P34" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.67</v>
+        <v>2.9</v>
       </c>
       <c r="R34" t="n">
-        <v>2.18</v>
+        <v>1.75</v>
       </c>
       <c r="S34" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="T34" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="U34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="W34" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="X34" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE34" t="n">
         <v>17.5</v>
       </c>
-      <c r="U34" t="n">
+      <c r="AF34" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ34" t="n">
         <v>50</v>
-      </c>
-      <c r="V34" t="n">
-        <v>24</v>
-      </c>
-      <c r="W34" t="n">
-        <v>200</v>
-      </c>
-      <c r="X34" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>120</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>900</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>rB2j7VY2</t>
+          <t>ryb61uop</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4652,88 +4652,88 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="H35" t="n">
-        <v>3.75</v>
+        <v>4.35</v>
       </c>
       <c r="I35" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="J35" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K35" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="L35" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="M35" t="n">
-        <v>3.75</v>
+        <v>4.55</v>
       </c>
       <c r="N35" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O35" t="n">
-        <v>2.02</v>
+        <v>2.4</v>
       </c>
       <c r="P35" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="R35" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="S35" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="T35" t="n">
-        <v>7.2</v>
+        <v>9.25</v>
       </c>
       <c r="U35" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="V35" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="W35" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="X35" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="Y35" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Z35" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="AA35" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AB35" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AD35" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AE35" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF35" t="n">
         <v>37</v>
@@ -4742,19 +4742,19 @@
         <v>17.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AI35" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AJ35" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ryb61uop</t>
+          <t>GbTo2nAc</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4764,119 +4764,119 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="H36" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="I36" t="n">
-        <v>5.3</v>
+        <v>8.5</v>
       </c>
       <c r="J36" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="K36" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="L36" t="n">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="M36" t="n">
-        <v>4.55</v>
+        <v>2.75</v>
       </c>
       <c r="N36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P36" t="n">
         <v>1.5</v>
       </c>
-      <c r="O36" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.28</v>
-      </c>
       <c r="Q36" t="n">
-        <v>3.35</v>
+        <v>2.5</v>
       </c>
       <c r="R36" t="n">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="S36" t="n">
-        <v>2.12</v>
+        <v>1.4</v>
       </c>
       <c r="T36" t="n">
-        <v>9.25</v>
+        <v>4.75</v>
       </c>
       <c r="U36" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W36" t="n">
         <v>8.5</v>
       </c>
-      <c r="V36" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="W36" t="n">
-        <v>11</v>
-      </c>
       <c r="X36" t="n">
-        <v>10.75</v>
+        <v>15</v>
       </c>
       <c r="Y36" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="Z36" t="n">
-        <v>9.25</v>
+        <v>8</v>
       </c>
       <c r="AA36" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>15.5</v>
+        <v>34</v>
       </c>
       <c r="AC36" t="n">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="AD36" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="AE36" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="AF36" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG36" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="AH36" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AI36" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AJ36" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>GbTo2nAc</t>
+          <t>OMX2dTOa</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4886,119 +4886,119 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="H37" t="n">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="I37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K37" t="n">
+        <v>11</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W37" t="n">
+        <v>15</v>
+      </c>
+      <c r="X37" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA37" t="n">
         <v>7</v>
       </c>
-      <c r="J37" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M37" t="n">
-        <v>3</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T37" t="n">
-        <v>5</v>
-      </c>
-      <c r="U37" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="V37" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W37" t="n">
-        <v>8</v>
-      </c>
-      <c r="X37" t="n">
+      <c r="AB37" t="n">
         <v>15</v>
       </c>
-      <c r="Y37" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>34</v>
-      </c>
       <c r="AC37" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AD37" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="AE37" t="n">
         <v>13</v>
       </c>
       <c r="AF37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>41</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>101</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>67</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>OMX2dTOa</t>
+          <t>QgQq4RZo</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5008,110 +5008,110 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="I38" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="J38" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K38" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L38" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M38" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N38" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O38" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="P38" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q38" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R38" t="n">
         <v>1.8</v>
       </c>
       <c r="S38" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T38" t="n">
+        <v>8</v>
+      </c>
+      <c r="U38" t="n">
         <v>7.5</v>
-      </c>
-      <c r="U38" t="n">
-        <v>8.5</v>
       </c>
       <c r="V38" t="n">
         <v>8.5</v>
       </c>
       <c r="W38" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="X38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y38" t="n">
         <v>23</v>
       </c>
       <c r="Z38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA38" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC38" t="n">
         <v>51</v>
       </c>
       <c r="AD38" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE38" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF38" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AG38" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AH38" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ38" t="n">
         <v>41</v>
@@ -5120,7 +5120,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>QgQq4RZo</t>
+          <t>EFdRopKH</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5140,109 +5140,109 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H39" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="J39" t="n">
         <v>1.03</v>
       </c>
       <c r="K39" t="n">
+        <v>17</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T39" t="n">
         <v>15</v>
       </c>
-      <c r="L39" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M39" t="n">
-        <v>4</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O39" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T39" t="n">
-        <v>8</v>
-      </c>
       <c r="U39" t="n">
+        <v>21</v>
+      </c>
+      <c r="V39" t="n">
+        <v>13</v>
+      </c>
+      <c r="W39" t="n">
+        <v>41</v>
+      </c>
+      <c r="X39" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA39" t="n">
         <v>7.5</v>
       </c>
-      <c r="V39" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W39" t="n">
-        <v>11</v>
-      </c>
-      <c r="X39" t="n">
+      <c r="AB39" t="n">
         <v>12</v>
       </c>
-      <c r="Y39" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>17</v>
-      </c>
       <c r="AC39" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AD39" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AE39" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AF39" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AG39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH39" t="n">
         <v>19</v>
       </c>
-      <c r="AH39" t="n">
-        <v>67</v>
-      </c>
       <c r="AI39" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AJ39" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EFdRopKH</t>
+          <t>zsRShygC</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5252,119 +5252,119 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Kolos Kovalivka</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Rukh Lviv</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.5</v>
+        <v>2.27</v>
       </c>
       <c r="H40" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="I40" t="n">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="J40" t="n">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="K40" t="n">
-        <v>17</v>
+        <v>4.15</v>
       </c>
       <c r="L40" t="n">
-        <v>1.17</v>
+        <v>1.6</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N40" t="n">
-        <v>1.57</v>
+        <v>2.72</v>
       </c>
       <c r="O40" t="n">
-        <v>2.35</v>
+        <v>1.35</v>
       </c>
       <c r="P40" t="n">
-        <v>1.29</v>
+        <v>1.62</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.5</v>
+        <v>2.02</v>
       </c>
       <c r="R40" t="n">
-        <v>1.53</v>
+        <v>2.15</v>
       </c>
       <c r="S40" t="n">
-        <v>2.38</v>
+        <v>1.55</v>
       </c>
       <c r="T40" t="n">
-        <v>15</v>
+        <v>5.3</v>
       </c>
       <c r="U40" t="n">
-        <v>21</v>
+        <v>9.5</v>
       </c>
       <c r="V40" t="n">
-        <v>13</v>
+        <v>9.75</v>
       </c>
       <c r="W40" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="X40" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y40" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="Z40" t="n">
-        <v>15</v>
+        <v>4.4</v>
       </c>
       <c r="AA40" t="n">
-        <v>7.5</v>
+        <v>5.4</v>
       </c>
       <c r="AB40" t="n">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="AD40" t="n">
         <v>101</v>
       </c>
       <c r="AE40" t="n">
-        <v>10</v>
+        <v>7.3</v>
       </c>
       <c r="AF40" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AH40" t="n">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="AI40" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="AJ40" t="n">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>zsRShygC</t>
+          <t>Usq1zTxo</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5374,7 +5374,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -5384,109 +5384,109 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Polissya Zhytomyr</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Karpaty Lviv</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.27</v>
+        <v>1.98</v>
       </c>
       <c r="H41" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="I41" t="n">
         <v>3.8</v>
       </c>
       <c r="J41" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="K41" t="n">
-        <v>4.15</v>
+        <v>6</v>
       </c>
       <c r="L41" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="M41" t="n">
-        <v>2.05</v>
+        <v>2.42</v>
       </c>
       <c r="N41" t="n">
-        <v>2.72</v>
+        <v>2.25</v>
       </c>
       <c r="O41" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="P41" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.02</v>
+        <v>2.32</v>
       </c>
       <c r="R41" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="S41" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="T41" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="U41" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="V41" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="W41" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="X41" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Y41" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Z41" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
       <c r="AA41" t="n">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="AB41" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AC41" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AD41" t="n">
-        <v>101</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.3</v>
+        <v>8.75</v>
       </c>
       <c r="AF41" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG41" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI41" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AJ41" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Usq1zTxo</t>
+          <t>CAbq695m</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5496,234 +5496,112 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Polissya Zhytomyr</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Karpaty Lviv</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.98</v>
+        <v>3.7</v>
       </c>
       <c r="H42" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I42" t="n">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="J42" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="K42" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="L42" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="M42" t="n">
-        <v>2.42</v>
+        <v>3.4</v>
       </c>
       <c r="N42" t="n">
-        <v>2.25</v>
+        <v>2.03</v>
       </c>
       <c r="O42" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="P42" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.32</v>
+        <v>2.75</v>
       </c>
       <c r="R42" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S42" t="n">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="T42" t="n">
-        <v>5.6</v>
+        <v>11</v>
       </c>
       <c r="U42" t="n">
-        <v>8.25</v>
+        <v>19</v>
       </c>
       <c r="V42" t="n">
+        <v>13</v>
+      </c>
+      <c r="W42" t="n">
+        <v>41</v>
+      </c>
+      <c r="X42" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF42" t="n">
         <v>9</v>
       </c>
-      <c r="W42" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="X42" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>19</v>
-      </c>
       <c r="AG42" t="n">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="AH42" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="AI42" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AJ42" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>CAbq695m</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>07/04/2025</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H43" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K43" t="n">
-        <v>10</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M43" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N43" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T43" t="n">
-        <v>10</v>
-      </c>
-      <c r="U43" t="n">
-        <v>17</v>
-      </c>
-      <c r="V43" t="n">
-        <v>12</v>
-      </c>
-      <c r="W43" t="n">
-        <v>34</v>
-      </c>
-      <c r="X43" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ43" t="n">
         <v>29</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ42"/>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,7 +618,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MwRDTF6E</t>
+          <t>d8snL7bk</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -628,119 +628,119 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>ENGLAND - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="J2" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="M2" t="n">
-        <v>2.63</v>
+        <v>4.33</v>
       </c>
       <c r="N2" t="n">
-        <v>2.45</v>
+        <v>1.67</v>
       </c>
       <c r="O2" t="n">
-        <v>1.49</v>
+        <v>2.2</v>
       </c>
       <c r="P2" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="R2" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S2" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="T2" t="n">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="U2" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="V2" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="W2" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="Y2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z2" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AE2" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WY1k6dAN</t>
+          <t>MwRDTF6E</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -750,32 +750,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
         <v>1.11</v>
@@ -790,10 +790,10 @@
         <v>2.63</v>
       </c>
       <c r="N3" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P3" t="n">
         <v>1.57</v>
@@ -811,16 +811,16 @@
         <v>6.5</v>
       </c>
       <c r="U3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="n">
         <v>41</v>
@@ -829,7 +829,7 @@
         <v>6.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB3" t="n">
         <v>17</v>
@@ -841,16 +841,16 @@
         <v>501</v>
       </c>
       <c r="AE3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
         <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
         <v>29</v>
@@ -862,7 +862,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hxMMcyJk</t>
+          <t>WY1k6dAN</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -872,119 +872,119 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M4" t="n">
         <v>2.63</v>
       </c>
-      <c r="I4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.83</v>
-      </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="V4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="W4" t="n">
+        <v>26</v>
+      </c>
+      <c r="X4" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y4" t="n">
         <v>41</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>41</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>67</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>d6zi3ceS</t>
+          <t>hxMMcyJk</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1004,109 +1004,109 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Atl. Tucuman</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="I5" t="n">
         <v>2.55</v>
       </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.9</v>
-      </c>
       <c r="J5" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="K5" t="n">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="L5" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="M5" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="N5" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>1.54</v>
+        <v>1.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="R5" t="n">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="S5" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="W5" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="Y5" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AA5" t="n">
         <v>6</v>
       </c>
       <c r="AB5" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="AD5" t="n">
-        <v>501</v>
+        <v>101</v>
       </c>
       <c r="AE5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG5" t="n">
         <v>13</v>
       </c>
-      <c r="AG5" t="n">
-        <v>12</v>
-      </c>
       <c r="AH5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI5" t="n">
         <v>34</v>
       </c>
-      <c r="AI5" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W0p736kB</t>
+          <t>d6zi3ceS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1126,67 +1126,67 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Atl. Tucuman</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Newells Old Boys</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N6" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P6" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q6" t="n">
         <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W6" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y6" t="n">
         <v>41</v>
@@ -1198,37 +1198,37 @@
         <v>6</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD6" t="n">
         <v>501</v>
       </c>
       <c r="AE6" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>41</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EBUsBj87</t>
+          <t>W0p736kB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1238,53 +1238,53 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ARGENTINA - PRIMERA NACIONAL</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Colon Santa Fe</t>
+          <t>Newells Old Boys</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="N7" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Q7" t="n">
         <v>2.2</v>
@@ -1296,61 +1296,61 @@
         <v>1.57</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U7" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="V7" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="W7" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="X7" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
         <v>81</v>
       </c>
       <c r="AD7" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="AE7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AJ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>rqfCxHqh</t>
+          <t>EBUsBj87</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1370,28 +1370,28 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ferro</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Arsenal Sarandi</t>
+          <t>Colon Santa Fe</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.62</v>
+        <v>2.88</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="I8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K8" t="n">
         <v>6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K8" t="n">
-        <v>6.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.57</v>
@@ -1400,10 +1400,10 @@
         <v>2.25</v>
       </c>
       <c r="N8" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
         <v>1.62</v>
@@ -1412,67 +1412,67 @@
         <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="T8" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="U8" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="V8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W8" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="Y8" t="n">
         <v>41</v>
       </c>
       <c r="Z8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="n">
         <v>101</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AF8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH8" t="n">
         <v>29</v>
       </c>
-      <c r="AG8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>81</v>
-      </c>
       <c r="AI8" t="n">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="AJ8" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WfmREDio</t>
+          <t>rqfCxHqh</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1492,109 +1492,109 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Ferro</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Arsenal Sarandi</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="J9" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="K9" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="L9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P9" t="n">
         <v>1.62</v>
       </c>
-      <c r="M9" t="n">
+      <c r="Q9" t="n">
         <v>2.2</v>
       </c>
-      <c r="N9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.1</v>
-      </c>
       <c r="R9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="U9" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="V9" t="n">
         <v>10</v>
       </c>
       <c r="W9" t="n">
+        <v>12</v>
+      </c>
+      <c r="X9" t="n">
         <v>19</v>
-      </c>
-      <c r="X9" t="n">
-        <v>23</v>
       </c>
       <c r="Y9" t="n">
         <v>41</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA9" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD9" t="n">
         <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AI9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8juxXCDT</t>
+          <t>WfmREDio</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21:10</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1614,109 +1614,109 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>2.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T10" t="n">
         <v>5</v>
       </c>
-      <c r="L10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>4.75</v>
-      </c>
       <c r="U10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W10" t="n">
         <v>19</v>
       </c>
       <c r="X10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AD10" t="n">
         <v>101</v>
       </c>
       <c r="AE10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI10" t="n">
         <v>41</v>
       </c>
       <c r="AJ10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tI0YOdwH</t>
+          <t>8juxXCDT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1726,101 +1726,101 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:10</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P11" t="n">
         <v>1.83</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K11" t="n">
-        <v>9</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M11" t="n">
-        <v>3</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Q11" t="n">
-        <v>2.5</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="S11" t="n">
-        <v>1.73</v>
+        <v>1.4</v>
       </c>
       <c r="T11" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="U11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W11" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Y11" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="Z11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA11" t="n">
         <v>6.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="AD11" t="n">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AG11" t="n">
         <v>17</v>
@@ -1829,16 +1829,16 @@
         <v>51</v>
       </c>
       <c r="AI11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>xIss5RHO</t>
+          <t>tI0YOdwH</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1848,119 +1848,119 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I12" t="n">
         <v>4.33</v>
       </c>
-      <c r="H12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.95</v>
-      </c>
       <c r="J12" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K12" t="n">
+        <v>9</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T12" t="n">
+        <v>6</v>
+      </c>
+      <c r="U12" t="n">
         <v>8</v>
       </c>
-      <c r="L12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M12" t="n">
-        <v>3</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T12" t="n">
-        <v>11</v>
-      </c>
-      <c r="U12" t="n">
-        <v>21</v>
-      </c>
       <c r="V12" t="n">
+        <v>9</v>
+      </c>
+      <c r="W12" t="n">
         <v>15</v>
       </c>
-      <c r="W12" t="n">
-        <v>41</v>
-      </c>
       <c r="X12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y12" t="n">
         <v>34</v>
       </c>
-      <c r="Y12" t="n">
-        <v>41</v>
-      </c>
       <c r="Z12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD12" t="n">
         <v>301</v>
       </c>
       <c r="AE12" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AI12" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AJ12" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>n9nIAVmm</t>
+          <t>xIss5RHO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1980,22 +1980,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lok. Plovdiv</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>4.33</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="J13" t="n">
         <v>1.08</v>
@@ -2010,79 +2010,79 @@
         <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P13" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S13" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="T13" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="U13" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="V13" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="W13" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="Y13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA13" t="n">
         <v>6</v>
       </c>
       <c r="AB13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC13" t="n">
         <v>51</v>
       </c>
       <c r="AD13" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG13" t="n">
         <v>9</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AH13" t="n">
         <v>17</v>
       </c>
-      <c r="AG13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>41</v>
-      </c>
       <c r="AI13" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0IDahlYI</t>
+          <t>n9nIAVmm</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2102,109 +2102,109 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>Lok. Plovdiv</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M14" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="P14" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="T14" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="U14" t="n">
-        <v>23</v>
+        <v>9.5</v>
       </c>
       <c r="V14" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="W14" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="X14" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AA14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC14" t="n">
         <v>51</v>
       </c>
       <c r="AD14" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AG14" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AJ14" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>hj5X0lat</t>
+          <t>0IDahlYI</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2214,115 +2214,119 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA B</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inter Palmira</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Atletico F.C.</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.34</v>
+        <v>4.5</v>
       </c>
       <c r="H15" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1.75</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K15" t="n">
+        <v>10</v>
+      </c>
       <c r="L15" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="O15" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="P15" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="R15" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="S15" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="T15" t="n">
-        <v>5.8</v>
+        <v>12</v>
       </c>
       <c r="U15" t="n">
-        <v>5.7</v>
+        <v>23</v>
       </c>
       <c r="V15" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="Y15" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="n">
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>8.75</v>
+        <v>7</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AC15" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AD15" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="AE15" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="AF15" t="n">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="AG15" t="n">
-        <v>29</v>
+        <v>8.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>300</v>
+        <v>13</v>
       </c>
       <c r="AI15" t="n">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>z9VdgOcU</t>
+          <t>hj5X0lat</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2332,7 +2336,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2342,105 +2346,105 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Inter Palmira</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Atletico F.C.</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.95</v>
+        <v>1.33</v>
       </c>
       <c r="H16" t="n">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="I16" t="n">
-        <v>1.87</v>
+        <v>8.5</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M16" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="N16" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="O16" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P16" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="R16" t="n">
-        <v>1.75</v>
+        <v>2.27</v>
       </c>
       <c r="S16" t="n">
-        <v>1.87</v>
+        <v>1.5</v>
       </c>
       <c r="T16" t="n">
-        <v>11.25</v>
+        <v>5.6</v>
       </c>
       <c r="U16" t="n">
-        <v>22</v>
+        <v>5.4</v>
       </c>
       <c r="V16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="W16" t="n">
-        <v>60</v>
+        <v>7.6</v>
       </c>
       <c r="X16" t="n">
-        <v>37</v>
+        <v>12.5</v>
       </c>
       <c r="Y16" t="n">
         <v>40</v>
       </c>
       <c r="Z16" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA16" t="n">
-        <v>6.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB16" t="n">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="AC16" t="n">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="AD16" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="AE16" t="n">
-        <v>6.9</v>
+        <v>18</v>
       </c>
       <c r="AF16" t="n">
-        <v>8.75</v>
+        <v>55</v>
       </c>
       <c r="AG16" t="n">
-        <v>8.25</v>
+        <v>29</v>
       </c>
       <c r="AH16" t="n">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="AJ16" t="n">
-        <v>27</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>W0WjLrLN</t>
+          <t>z9VdgOcU</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2450,119 +2454,115 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHNL</t>
+          <t>COLOMBIA - PRIMERA B</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ostrava B</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Sigma Olomouc B</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.57</v>
+        <v>3.95</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K17" t="n">
-        <v>11</v>
-      </c>
+        <v>1.87</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1.29</v>
       </c>
       <c r="M17" t="n">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="N17" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="O17" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="P17" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="S17" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="T17" t="n">
-        <v>6.5</v>
+        <v>11.25</v>
       </c>
       <c r="U17" t="n">
-        <v>7.5</v>
+        <v>22</v>
       </c>
       <c r="V17" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="W17" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="X17" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="Y17" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="Z17" t="n">
         <v>9.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AD17" t="n">
-        <v>301</v>
+        <v>500</v>
       </c>
       <c r="AE17" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI17" t="n">
         <v>15</v>
       </c>
-      <c r="AF17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ17" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Iu9iRG77</t>
+          <t>W0WjLrLN</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2572,32 +2572,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>CZECH REPUBLIC - CHNL</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Ostrava B</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Sigma Olomouc B</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>1.57</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="J18" t="n">
         <v>1.05</v>
@@ -2606,85 +2606,85 @@
         <v>11</v>
       </c>
       <c r="L18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O18" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="P18" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q18" t="n">
         <v>2.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="S18" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T18" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="U18" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="V18" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="W18" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="X18" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
         <v>29</v>
       </c>
       <c r="Z18" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB18" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AC18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI18" t="n">
         <v>41</v>
       </c>
-      <c r="AD18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ18" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>hzNvz3qA</t>
+          <t>Iu9iRG77</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2694,115 +2694,119 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ICELAND - BESTA DEILD KARLA</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Vikingur Reykjavik</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vestmannaeyjar</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.21</v>
+        <v>2.8</v>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K19" t="n">
+        <v>11</v>
+      </c>
       <c r="L19" t="n">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="M19" t="n">
-        <v>6.3</v>
+        <v>3.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.28</v>
+        <v>1.93</v>
       </c>
       <c r="O19" t="n">
-        <v>3.35</v>
+        <v>1.93</v>
       </c>
       <c r="P19" t="n">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="R19" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T19" t="n">
+        <v>10</v>
+      </c>
+      <c r="U19" t="n">
+        <v>15</v>
+      </c>
+      <c r="V19" t="n">
+        <v>11</v>
+      </c>
+      <c r="W19" t="n">
+        <v>29</v>
+      </c>
+      <c r="X19" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB19" t="n">
         <v>13</v>
       </c>
-      <c r="U19" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="V19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W19" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="X19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y19" t="n">
+      <c r="AC19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI19" t="n">
         <v>19</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AJ19" t="n">
         <v>29</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>300</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>45</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>35</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>400</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EkBmYtEM</t>
+          <t>hzNvz3qA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2812,7 +2816,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2822,109 +2826,105 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Stjarnan</t>
+          <t>Vikingur Reykjavik</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Hafnarfjordur</t>
+          <t>Vestmannaeyjar</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.07</v>
+        <v>1.21</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K20" t="n">
-        <v>9.75</v>
-      </c>
+        <v>11.25</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="M20" t="n">
-        <v>5.3</v>
+        <v>6.3</v>
       </c>
       <c r="N20" t="n">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="O20" t="n">
-        <v>2.75</v>
+        <v>3.35</v>
       </c>
       <c r="P20" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.6</v>
+        <v>4.25</v>
       </c>
       <c r="R20" t="n">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
-        <v>2.92</v>
+        <v>2.15</v>
       </c>
       <c r="T20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="U20" t="n">
-        <v>15</v>
+        <v>9.25</v>
       </c>
       <c r="V20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W20" t="n">
-        <v>23</v>
+        <v>9.25</v>
       </c>
       <c r="X20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA20" t="n">
         <v>14</v>
       </c>
-      <c r="Y20" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AB20" t="n">
-        <v>10</v>
+        <v>19.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AD20" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>45</v>
+      </c>
+      <c r="AF20" t="n">
         <v>110</v>
       </c>
-      <c r="AE20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>25</v>
-      </c>
       <c r="AG20" t="n">
-        <v>11.5</v>
+        <v>35</v>
       </c>
       <c r="AH20" t="n">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="AI20" t="n">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="AJ20" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ry8U1nfA</t>
+          <t>EkBmYtEM</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2934,119 +2934,119 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>ICELAND - BESTA DEILD KARLA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Stjarnan</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>H. Beer Sheva</t>
+          <t>Hafnarfjordur</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.5</v>
+        <v>2.07</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>2.35</v>
+        <v>3.15</v>
       </c>
       <c r="J21" t="n">
         <v>1.03</v>
       </c>
       <c r="K21" t="n">
-        <v>17</v>
+        <v>9.75</v>
       </c>
       <c r="L21" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="N21" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="O21" t="n">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="P21" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="R21" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="S21" t="n">
-        <v>2.5</v>
+        <v>2.92</v>
       </c>
       <c r="T21" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="U21" t="n">
         <v>15</v>
       </c>
       <c r="V21" t="n">
+        <v>9</v>
+      </c>
+      <c r="W21" t="n">
+        <v>23</v>
+      </c>
+      <c r="X21" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB21" t="n">
         <v>10</v>
       </c>
-      <c r="W21" t="n">
+      <c r="AC21" t="n">
         <v>26</v>
       </c>
-      <c r="X21" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>34</v>
-      </c>
       <c r="AD21" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AE21" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AF21" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="AI21" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AJ21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>v1lFWIGb</t>
+          <t>ry8U1nfA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3066,109 +3066,109 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sakhnin</t>
+          <t>H. Beer Sheva</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="J22" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="K22" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="L22" t="n">
-        <v>1.44</v>
+        <v>1.17</v>
       </c>
       <c r="M22" t="n">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="N22" t="n">
-        <v>2.4</v>
+        <v>1.57</v>
       </c>
       <c r="O22" t="n">
-        <v>1.53</v>
+        <v>2.35</v>
       </c>
       <c r="P22" t="n">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="R22" t="n">
-        <v>2</v>
+        <v>1.47</v>
       </c>
       <c r="S22" t="n">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="T22" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="U22" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W22" t="n">
         <v>26</v>
       </c>
       <c r="X22" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y22" t="n">
         <v>23</v>
       </c>
-      <c r="Y22" t="n">
-        <v>41</v>
-      </c>
       <c r="Z22" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AA22" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AB22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI22" t="n">
         <v>17</v>
       </c>
-      <c r="AC22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ22" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vu5GggKt</t>
+          <t>v1lFWIGb</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3178,119 +3178,119 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ITALY - SERIE C</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>AlbinoLeffe</t>
+          <t>Hapoel Hadera</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Pro Vercelli</t>
+          <t>Sakhnin</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.78</v>
+        <v>2.6</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="I23" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="J23" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K23" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="L23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O23" t="n">
         <v>1.53</v>
       </c>
-      <c r="M23" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.45</v>
-      </c>
       <c r="P23" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="R23" t="n">
-        <v>2.37</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>1.52</v>
+        <v>1.73</v>
       </c>
       <c r="T23" t="n">
-        <v>4.85</v>
+        <v>7.5</v>
       </c>
       <c r="U23" t="n">
-        <v>6.8</v>
+        <v>12</v>
       </c>
       <c r="V23" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="W23" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="X23" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y23" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="Z23" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AA23" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="AB23" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AC23" t="n">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="AD23" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="AE23" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="AI23" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AJ23" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>hlWcyC4C</t>
+          <t>vu5GggKt</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3310,109 +3310,109 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>AlbinoLeffe</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Pro Vercelli</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.35</v>
+        <v>1.78</v>
       </c>
       <c r="H24" t="n">
-        <v>4.15</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="K24" t="n">
-        <v>6.9</v>
+        <v>5.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.34</v>
+        <v>1.53</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>2.32</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="O24" t="n">
-        <v>1.72</v>
+        <v>1.45</v>
       </c>
       <c r="P24" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.55</v>
+        <v>2.22</v>
       </c>
       <c r="R24" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="S24" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T24" t="n">
-        <v>5.2</v>
+        <v>4.85</v>
       </c>
       <c r="U24" t="n">
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
       <c r="V24" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W24" t="n">
-        <v>7.8</v>
+        <v>13.5</v>
       </c>
       <c r="X24" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Y24" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z24" t="n">
-        <v>6.9</v>
+        <v>5.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>8.75</v>
+        <v>6.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AC24" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AD24" t="n">
         <v>101</v>
       </c>
       <c r="AE24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG24" t="n">
         <v>17</v>
       </c>
-      <c r="AF24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>30</v>
-      </c>
       <c r="AH24" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AJ24" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>YcxfpYOh</t>
+          <t>hlWcyC4C</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3432,109 +3432,109 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Giugliano</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.77</v>
+        <v>1.35</v>
       </c>
       <c r="H25" t="n">
-        <v>3.15</v>
+        <v>4.15</v>
       </c>
       <c r="I25" t="n">
-        <v>2.37</v>
+        <v>8.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K25" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M25" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N25" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P25" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="R25" t="n">
-        <v>1.83</v>
+        <v>2.42</v>
       </c>
       <c r="S25" t="n">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="T25" t="n">
-        <v>8.25</v>
+        <v>5.2</v>
       </c>
       <c r="U25" t="n">
-        <v>14</v>
+        <v>5.3</v>
       </c>
       <c r="V25" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="W25" t="n">
-        <v>32</v>
+        <v>7.8</v>
       </c>
       <c r="X25" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Y25" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z25" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AA25" t="n">
-        <v>6.1</v>
+        <v>8.75</v>
       </c>
       <c r="AB25" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="AC25" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AD25" t="n">
-        <v>600</v>
+        <v>101</v>
       </c>
       <c r="AE25" t="n">
-        <v>7.3</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="n">
-        <v>11.25</v>
+        <v>60</v>
       </c>
       <c r="AG25" t="n">
-        <v>9.5</v>
+        <v>30</v>
       </c>
       <c r="AH25" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="AI25" t="n">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="AJ25" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>jw3zxCYg</t>
+          <t>YcxfpYOh</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3544,119 +3544,119 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>ITALY - SERIE C</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>Giugliano</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rakow</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>7.5</v>
+        <v>2.77</v>
       </c>
       <c r="H26" t="n">
-        <v>4.5</v>
+        <v>3.15</v>
       </c>
       <c r="I26" t="n">
-        <v>1.42</v>
+        <v>2.37</v>
       </c>
       <c r="J26" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K26" t="n">
-        <v>11</v>
+        <v>6.6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M26" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N26" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O26" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="P26" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R26" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="S26" t="n">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="T26" t="n">
-        <v>15</v>
+        <v>8.25</v>
       </c>
       <c r="U26" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="V26" t="n">
-        <v>23</v>
+        <v>10.25</v>
       </c>
       <c r="W26" t="n">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="X26" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="Y26" t="n">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="Z26" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AG26" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>501</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>9</v>
-      </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AI26" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AsEjSvAM</t>
+          <t>jw3zxCYg</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3666,119 +3666,119 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>Puszcza</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Rakow</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="I27" t="n">
-        <v>3.25</v>
+        <v>1.42</v>
       </c>
       <c r="J27" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K27" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P27" t="n">
         <v>1.4</v>
       </c>
-      <c r="M27" t="n">
+      <c r="Q27" t="n">
         <v>2.75</v>
       </c>
-      <c r="N27" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="R27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S27" t="n">
         <v>1.57</v>
       </c>
-      <c r="P27" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.8</v>
-      </c>
       <c r="T27" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="U27" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="V27" t="n">
+        <v>23</v>
+      </c>
+      <c r="W27" t="n">
+        <v>101</v>
+      </c>
+      <c r="X27" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>67</v>
+      </c>
+      <c r="Z27" t="n">
         <v>9.5</v>
       </c>
-      <c r="W27" t="n">
-        <v>21</v>
-      </c>
-      <c r="X27" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y27" t="n">
+      <c r="AA27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>501</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>34</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>401</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t2MZVMAc</t>
+          <t>AsEjSvAM</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3798,109 +3798,109 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H28" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="J28" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K28" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="M28" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N28" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="O28" t="n">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="P28" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="R28" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S28" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T28" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="U28" t="n">
         <v>10</v>
       </c>
       <c r="V28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>21</v>
+      </c>
+      <c r="X28" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>401</v>
+      </c>
+      <c r="AE28" t="n">
         <v>8.5</v>
       </c>
-      <c r="W28" t="n">
-        <v>17</v>
-      </c>
-      <c r="X28" t="n">
+      <c r="AF28" t="n">
         <v>15</v>
       </c>
-      <c r="Y28" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE28" t="n">
+      <c r="AG28" t="n">
         <v>12</v>
       </c>
-      <c r="AF28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>13</v>
-      </c>
       <c r="AH28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI28" t="n">
         <v>29</v>
       </c>
       <c r="AJ28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>xUFrU0uA</t>
+          <t>t2MZVMAc</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3920,109 +3920,109 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="I29" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K29" t="n">
+        <v>11</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T29" t="n">
         <v>8</v>
       </c>
-      <c r="J29" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K29" t="n">
-        <v>15</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M29" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O29" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T29" t="n">
-        <v>7.5</v>
-      </c>
       <c r="U29" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V29" t="n">
         <v>8.5</v>
       </c>
       <c r="W29" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="X29" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y29" t="n">
         <v>26</v>
       </c>
       <c r="Z29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB29" t="n">
         <v>13</v>
       </c>
-      <c r="AA29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>19</v>
-      </c>
       <c r="AC29" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD29" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AE29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF29" t="n">
         <v>21</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AG29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH29" t="n">
         <v>41</v>
       </c>
-      <c r="AG29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>81</v>
-      </c>
       <c r="AI29" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AJ29" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>xjwM7eAm</t>
+          <t>xUFrU0uA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4032,119 +4032,119 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ROMANIA - SUPERLIGA</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
       <c r="H30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>8</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K30" t="n">
+        <v>15</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q30" t="n">
         <v>3.4</v>
       </c>
-      <c r="I30" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K30" t="n">
-        <v>11</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M30" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N30" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
       <c r="R30" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="S30" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="T30" t="n">
         <v>7.5</v>
       </c>
       <c r="U30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V30" t="n">
         <v>8.5</v>
       </c>
       <c r="W30" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="X30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y30" t="n">
         <v>26</v>
       </c>
       <c r="Z30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB30" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AC30" t="n">
         <v>51</v>
       </c>
       <c r="AD30" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF30" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AH30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI30" t="n">
         <v>51</v>
       </c>
-      <c r="AI30" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>v3muhopm</t>
+          <t>xjwM7eAm</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4164,76 +4164,76 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Univ. Craiova</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.15</v>
+        <v>1.63</v>
       </c>
       <c r="H31" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="J31" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P31" t="n">
         <v>1.36</v>
       </c>
-      <c r="M31" t="n">
+      <c r="Q31" t="n">
         <v>3</v>
       </c>
-      <c r="N31" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.63</v>
-      </c>
       <c r="R31" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S31" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="T31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U31" t="n">
+        <v>8</v>
+      </c>
+      <c r="V31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W31" t="n">
+        <v>13</v>
+      </c>
+      <c r="X31" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA31" t="n">
         <v>7</v>
-      </c>
-      <c r="U31" t="n">
-        <v>10</v>
-      </c>
-      <c r="V31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W31" t="n">
-        <v>21</v>
-      </c>
-      <c r="X31" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>6</v>
       </c>
       <c r="AB31" t="n">
         <v>15</v>
@@ -4242,22 +4242,22 @@
         <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AE31" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG31" t="n">
         <v>17</v>
       </c>
-      <c r="AG31" t="n">
-        <v>12</v>
-      </c>
       <c r="AH31" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AI31" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AJ31" t="n">
         <v>41</v>
@@ -4266,7 +4266,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GldEaJFd</t>
+          <t>v3muhopm</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4276,119 +4276,119 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>ROMANIA - SUPERLIGA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Univ. Craiova</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I32" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="J32" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K32" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="L32" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M32" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N32" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="P32" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R32" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S32" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T32" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="U32" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="V32" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="W32" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="X32" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="Y32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z32" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB32" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC32" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AD32" t="n">
-        <v>600</v>
+        <v>301</v>
       </c>
       <c r="AE32" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AG32" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AH32" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="AI32" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AJ32" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Cjf73mYR</t>
+          <t>GldEaJFd</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4408,109 +4408,109 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>7.4</v>
+        <v>1.65</v>
       </c>
       <c r="H33" t="n">
-        <v>4.05</v>
+        <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>1.39</v>
+        <v>4.7</v>
       </c>
       <c r="J33" t="n">
         <v>1.06</v>
       </c>
       <c r="K33" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M33" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N33" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S33" t="n">
         <v>1.9</v>
       </c>
-      <c r="O33" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="R33" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T33" t="n">
-        <v>17.5</v>
+        <v>6.8</v>
       </c>
       <c r="U33" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="V33" t="n">
+        <v>8</v>
+      </c>
+      <c r="W33" t="n">
+        <v>13</v>
+      </c>
+      <c r="X33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI33" t="n">
         <v>50</v>
       </c>
-      <c r="V33" t="n">
-        <v>24</v>
-      </c>
-      <c r="W33" t="n">
-        <v>200</v>
-      </c>
-      <c r="X33" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>120</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>900</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AJ33" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>rB2j7VY2</t>
+          <t>Cjf73mYR</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4530,109 +4530,109 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.53</v>
+        <v>7.4</v>
       </c>
       <c r="H34" t="n">
-        <v>3.75</v>
+        <v>4.05</v>
       </c>
       <c r="I34" t="n">
-        <v>5.6</v>
+        <v>1.39</v>
       </c>
       <c r="J34" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K34" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="L34" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="M34" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N34" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="O34" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="P34" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.9</v>
+        <v>2.67</v>
       </c>
       <c r="R34" t="n">
-        <v>1.75</v>
+        <v>2.18</v>
       </c>
       <c r="S34" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="T34" t="n">
-        <v>7.2</v>
+        <v>17.5</v>
       </c>
       <c r="U34" t="n">
-        <v>7.5</v>
+        <v>50</v>
       </c>
       <c r="V34" t="n">
-        <v>7.9</v>
+        <v>24</v>
       </c>
       <c r="W34" t="n">
-        <v>11.25</v>
+        <v>200</v>
       </c>
       <c r="X34" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="Y34" t="n">
+        <v>90</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB34" t="n">
         <v>23</v>
       </c>
-      <c r="Z34" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>15</v>
-      </c>
       <c r="AC34" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AD34" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="AE34" t="n">
-        <v>17.5</v>
+        <v>5.7</v>
       </c>
       <c r="AF34" t="n">
-        <v>37</v>
+        <v>5.8</v>
       </c>
       <c r="AG34" t="n">
-        <v>17.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>120</v>
+        <v>8.75</v>
       </c>
       <c r="AI34" t="n">
-        <v>55</v>
+        <v>12.5</v>
       </c>
       <c r="AJ34" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ryb61uop</t>
+          <t>rB2j7VY2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4652,88 +4652,88 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="H35" t="n">
-        <v>4.35</v>
+        <v>3.75</v>
       </c>
       <c r="I35" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="J35" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K35" t="n">
-        <v>9.25</v>
+        <v>8</v>
       </c>
       <c r="L35" t="n">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="M35" t="n">
-        <v>4.55</v>
+        <v>3.75</v>
       </c>
       <c r="N35" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O35" t="n">
-        <v>2.4</v>
+        <v>2.02</v>
       </c>
       <c r="P35" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.35</v>
+        <v>2.9</v>
       </c>
       <c r="R35" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="S35" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="T35" t="n">
-        <v>9.25</v>
+        <v>7.2</v>
       </c>
       <c r="U35" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="V35" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="W35" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="X35" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="Y35" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Z35" t="n">
-        <v>9.25</v>
+        <v>8</v>
       </c>
       <c r="AA35" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AB35" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC35" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AD35" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AE35" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF35" t="n">
         <v>37</v>
@@ -4742,19 +4742,19 @@
         <v>17.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AI35" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AJ35" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GbTo2nAc</t>
+          <t>ryb61uop</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4764,119 +4764,119 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="H36" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="I36" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K36" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T36" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U36" t="n">
         <v>8.5</v>
       </c>
-      <c r="J36" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="V36" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W36" t="n">
+        <v>11</v>
+      </c>
+      <c r="X36" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA36" t="n">
         <v>9</v>
       </c>
-      <c r="L36" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M36" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T36" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="U36" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="V36" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W36" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X36" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AB36" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="AD36" t="n">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="AE36" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG36" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AI36" t="n">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AJ36" t="n">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>OMX2dTOa</t>
+          <t>GbTo2nAc</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4886,119 +4886,119 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="H37" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="I37" t="n">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="J37" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K37" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L37" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="M37" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N37" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O37" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="P37" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R37" t="n">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="S37" t="n">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="T37" t="n">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="U37" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W37" t="n">
         <v>8.5</v>
       </c>
-      <c r="V37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W37" t="n">
+      <c r="X37" t="n">
         <v>15</v>
       </c>
-      <c r="X37" t="n">
-        <v>13</v>
-      </c>
       <c r="Y37" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="Z37" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AA37" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AC37" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AD37" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AE37" t="n">
         <v>13</v>
       </c>
       <c r="AF37" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AH37" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AI37" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AJ37" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>QgQq4RZo</t>
+          <t>OMX2dTOa</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5008,110 +5008,110 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="H38" t="n">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="J38" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K38" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L38" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N38" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="O38" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="P38" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R38" t="n">
         <v>1.8</v>
       </c>
       <c r="S38" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T38" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U38" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="V38" t="n">
         <v>8.5</v>
       </c>
       <c r="W38" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="X38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y38" t="n">
         <v>23</v>
       </c>
       <c r="Z38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA38" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AB38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC38" t="n">
         <v>51</v>
       </c>
       <c r="AD38" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE38" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI38" t="n">
         <v>34</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>41</v>
       </c>
       <c r="AJ38" t="n">
         <v>41</v>
@@ -5120,7 +5120,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EFdRopKH</t>
+          <t>QgQq4RZo</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5140,109 +5140,109 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="I39" t="n">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="J39" t="n">
         <v>1.03</v>
       </c>
       <c r="K39" t="n">
+        <v>15</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T39" t="n">
+        <v>8</v>
+      </c>
+      <c r="U39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W39" t="n">
+        <v>11</v>
+      </c>
+      <c r="X39" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB39" t="n">
         <v>17</v>
       </c>
-      <c r="L39" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M39" t="n">
-        <v>5</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O39" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T39" t="n">
-        <v>15</v>
-      </c>
-      <c r="U39" t="n">
-        <v>21</v>
-      </c>
-      <c r="V39" t="n">
-        <v>13</v>
-      </c>
-      <c r="W39" t="n">
+      <c r="AC39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI39" t="n">
         <v>41</v>
       </c>
-      <c r="X39" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ39" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>zsRShygC</t>
+          <t>EFdRopKH</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5252,119 +5252,119 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.27</v>
+        <v>3.5</v>
       </c>
       <c r="H40" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="J40" t="n">
-        <v>1.15</v>
+        <v>1.03</v>
       </c>
       <c r="K40" t="n">
-        <v>4.15</v>
+        <v>17</v>
       </c>
       <c r="L40" t="n">
-        <v>1.6</v>
+        <v>1.17</v>
       </c>
       <c r="M40" t="n">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N40" t="n">
-        <v>2.72</v>
+        <v>1.57</v>
       </c>
       <c r="O40" t="n">
-        <v>1.35</v>
+        <v>2.35</v>
       </c>
       <c r="P40" t="n">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.02</v>
+        <v>3.5</v>
       </c>
       <c r="R40" t="n">
-        <v>2.15</v>
+        <v>1.53</v>
       </c>
       <c r="S40" t="n">
-        <v>1.55</v>
+        <v>2.38</v>
       </c>
       <c r="T40" t="n">
-        <v>5.3</v>
+        <v>15</v>
       </c>
       <c r="U40" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="V40" t="n">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="W40" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="X40" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y40" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="Z40" t="n">
-        <v>4.4</v>
+        <v>15</v>
       </c>
       <c r="AA40" t="n">
-        <v>5.4</v>
+        <v>7.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="AC40" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="AD40" t="n">
         <v>101</v>
       </c>
       <c r="AE40" t="n">
-        <v>7.3</v>
+        <v>10</v>
       </c>
       <c r="AF40" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="AG40" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AH40" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="AI40" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="AJ40" t="n">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Usq1zTxo</t>
+          <t>zsRShygC</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5374,7 +5374,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -5384,224 +5384,346 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Polissya Zhytomyr</t>
+          <t>Kolos Kovalivka</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Karpaty Lviv</t>
+          <t>Rukh Lviv</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.98</v>
+        <v>2.27</v>
       </c>
       <c r="H41" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="I41" t="n">
         <v>3.8</v>
       </c>
       <c r="J41" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="K41" t="n">
-        <v>6</v>
+        <v>4.15</v>
       </c>
       <c r="L41" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="M41" t="n">
-        <v>2.42</v>
+        <v>2.05</v>
       </c>
       <c r="N41" t="n">
-        <v>2.25</v>
+        <v>2.72</v>
       </c>
       <c r="O41" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="P41" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.32</v>
+        <v>2.02</v>
       </c>
       <c r="R41" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="S41" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="T41" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="U41" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="V41" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="W41" t="n">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="X41" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Y41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Z41" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="AA41" t="n">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="AB41" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>101</v>
       </c>
       <c r="AE41" t="n">
-        <v>8.75</v>
+        <v>7.3</v>
       </c>
       <c r="AF41" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH41" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ41" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>Usq1zTxo</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>07/04/2025</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Polissya Zhytomyr</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Karpaty Lviv</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K42" t="n">
+        <v>6</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T42" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="U42" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="V42" t="n">
+        <v>9</v>
+      </c>
+      <c r="W42" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="X42" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>CAbq695m</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>07/04/2025</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>Wanderers</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Defensor Sp.</t>
         </is>
       </c>
-      <c r="G42" t="n">
+      <c r="G43" t="n">
         <v>3.7</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H43" t="n">
         <v>3.4</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I43" t="n">
         <v>1.95</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J43" t="n">
         <v>1.06</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K43" t="n">
         <v>9.5</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L43" t="n">
         <v>1.3</v>
       </c>
-      <c r="M42" t="n">
+      <c r="M43" t="n">
         <v>3.4</v>
       </c>
-      <c r="N42" t="n">
+      <c r="N43" t="n">
         <v>2.03</v>
       </c>
-      <c r="O42" t="n">
+      <c r="O43" t="n">
         <v>1.83</v>
       </c>
-      <c r="P42" t="n">
+      <c r="P43" t="n">
         <v>1.4</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="Q43" t="n">
         <v>2.75</v>
       </c>
-      <c r="R42" t="n">
+      <c r="R43" t="n">
         <v>1.8</v>
       </c>
-      <c r="S42" t="n">
+      <c r="S43" t="n">
         <v>1.91</v>
       </c>
-      <c r="T42" t="n">
+      <c r="T43" t="n">
         <v>11</v>
       </c>
-      <c r="U42" t="n">
+      <c r="U43" t="n">
         <v>19</v>
       </c>
-      <c r="V42" t="n">
+      <c r="V43" t="n">
         <v>13</v>
       </c>
-      <c r="W42" t="n">
+      <c r="W43" t="n">
         <v>41</v>
       </c>
-      <c r="X42" t="n">
+      <c r="X43" t="n">
         <v>29</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="Y43" t="n">
         <v>41</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="Z43" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA42" t="n">
+      <c r="AA43" t="n">
         <v>6.5</v>
       </c>
-      <c r="AB42" t="n">
+      <c r="AB43" t="n">
         <v>15</v>
       </c>
-      <c r="AC42" t="n">
+      <c r="AC43" t="n">
         <v>51</v>
       </c>
-      <c r="AD42" t="n">
+      <c r="AD43" t="n">
         <v>251</v>
       </c>
-      <c r="AE42" t="n">
+      <c r="AE43" t="n">
         <v>7.5</v>
       </c>
-      <c r="AF42" t="n">
+      <c r="AF43" t="n">
         <v>9</v>
       </c>
-      <c r="AG42" t="n">
+      <c r="AG43" t="n">
         <v>9</v>
       </c>
-      <c r="AH42" t="n">
+      <c r="AH43" t="n">
         <v>17</v>
       </c>
-      <c r="AI42" t="n">
+      <c r="AI43" t="n">
         <v>17</v>
       </c>
-      <c r="AJ42" t="n">
+      <c r="AJ43" t="n">
         <v>29</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-07.xlsx
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
         <v>1.1</v>
@@ -1177,13 +1177,13 @@
         <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V6" t="n">
         <v>10</v>
       </c>
       <c r="W6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X6" t="n">
         <v>23</v>
@@ -1213,10 +1213,10 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI6" t="n">
         <v>34</v>
@@ -1317,7 +1317,7 @@
         <v>6</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB7" t="n">
         <v>21</v>
@@ -1522,10 +1522,10 @@
         <v>2.25</v>
       </c>
       <c r="N9" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
         <v>1.62</v>
@@ -1647,7 +1647,7 @@
         <v>3.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
         <v>1.67</v>
@@ -1757,7 +1757,7 @@
         <v>1.17</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L11" t="n">
         <v>1.8</v>
@@ -1778,10 +1778,10 @@
         <v>1.98</v>
       </c>
       <c r="R11" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S11" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T11" t="n">
         <v>4.5</v>
@@ -1790,7 +1790,7 @@
         <v>7.5</v>
       </c>
       <c r="V11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W11" t="n">
         <v>19</v>
@@ -1802,7 +1802,7 @@
         <v>51</v>
       </c>
       <c r="Z11" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AA11" t="n">
         <v>6.5</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="H17" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -2487,19 +2487,19 @@
         <v>1.29</v>
       </c>
       <c r="M17" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="O17" t="n">
         <v>1.75</v>
       </c>
       <c r="P17" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="R17" t="n">
         <v>1.75</v>
@@ -2508,55 +2508,55 @@
         <v>1.87</v>
       </c>
       <c r="T17" t="n">
-        <v>11.25</v>
+        <v>9.75</v>
       </c>
       <c r="U17" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="V17" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="W17" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="X17" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y17" t="n">
         <v>37</v>
       </c>
-      <c r="Y17" t="n">
-        <v>40</v>
-      </c>
       <c r="Z17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
         <v>70</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE17" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="AF17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG17" t="n">
         <v>8.75</v>
       </c>
-      <c r="AG17" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AH17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
